--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ploid\Documents\GitHub\Software-Dev-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17F4DF-B9E6-489A-8DF5-1CEA4CA1E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1123,11 +1129,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,15 +1193,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,9 +1283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1303,6 +1335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1478,14 +1528,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1501,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44929.29166666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>44929.291666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1512,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44928.29166666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>44928.291666666657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1523,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44927.29166666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>44927.291666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1534,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44926.29166666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>44926.291666666657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1545,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44925.29166666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>44925.291666666657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1556,10 +1610,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44924.29166666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>44924.291666666657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1567,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44923.29166666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>44923.291666666657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1578,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44922.29166666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>44922.291666666657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1589,10 +1643,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44921.29166666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>44921.291666666657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1600,10 +1654,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44920.29166666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>44920.291666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1611,10 +1665,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44919.29166666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>44919.291666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1622,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44918.29166666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>44918.291666666657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1633,10 +1687,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44917.29166666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>44917.291666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1644,10 +1698,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44916.29166666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>44916.291666666657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1655,10 +1709,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44915.29166666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>44915.291666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1666,10 +1720,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44914.29166666666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>44914.291666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1677,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44913.29166666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>44913.291666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1688,10 +1742,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44912.29166666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>44912.291666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1699,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44911.29166666666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>44911.291666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1710,10 +1764,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44910.29166666666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>44910.291666666657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1721,10 +1775,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44909.29166666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>44909.291666666657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1732,10 +1786,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44908.29166666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>44908.291666666657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1743,10 +1797,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44907.29166666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>44907.291666666657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1754,10 +1808,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44906.29166666666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>44906.291666666657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1765,10 +1819,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44905.29166666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>44905.291666666657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1776,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44904.29166666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>44904.291666666657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1787,10 +1841,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44903.29166666666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>44903.291666666657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1798,10 +1852,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44902.29166666666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>44902.291666666657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1809,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44901.29166666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>44901.291666666657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1820,10 +1874,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44900.29166666666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>44900.291666666657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1831,10 +1885,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44899.29166666666</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>44899.291666666657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1842,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44898.29166666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>44898.291666666657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1853,10 +1907,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44897.29166666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>44897.291666666657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1864,10 +1918,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44896.29166666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>44896.291666666657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1875,10 +1929,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44895.29166666666</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>44895.291666666657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1886,10 +1940,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44894.29166666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>44894.291666666657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1897,10 +1951,10 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44893.29166666666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>44893.291666666657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1908,10 +1962,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44892.29166666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>44892.291666666657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1919,10 +1973,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44891.29166666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>44891.291666666657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1930,10 +1984,10 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44890.29166666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>44890.291666666657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1941,10 +1995,10 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44889.29166666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>44889.291666666657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1952,10 +2006,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44888.29166666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>44888.291666666657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1963,10 +2017,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44887.29166666666</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>44887.291666666657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1974,10 +2028,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44886.29166666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>44886.291666666657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1985,10 +2039,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44885.29166666666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>44885.291666666657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1996,10 +2050,10 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44884.29166666666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>44884.291666666657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2007,10 +2061,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44883.29166666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>44883.291666666657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2018,10 +2072,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44882.29166666666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>44882.291666666657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2029,10 +2083,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44881.29166666666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>44881.291666666657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2040,10 +2094,10 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44880.29166666666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>44880.291666666657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2051,10 +2105,10 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44879.29166666666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>44879.291666666657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2062,10 +2116,10 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44878.29166666666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>44878.291666666657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2073,10 +2127,10 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44877.29166666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>44877.291666666657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2084,10 +2138,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44876.29166666666</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>44876.291666666657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2095,10 +2149,10 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44875.29166666666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>44875.291666666657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2106,10 +2160,10 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44874.29166666666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>44874.291666666657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2117,10 +2171,10 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44873.29166666666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>44873.291666666657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2128,10 +2182,10 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44872.29166666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>44872.291666666657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2139,10 +2193,10 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44871.29166666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>44871.291666666657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2150,10 +2204,10 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44870.29166666666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>44870.291666666657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2161,10 +2215,10 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44869.29166666666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>44869.291666666657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2172,10 +2226,10 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44868.29166666666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>44868.291666666657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2183,10 +2237,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44867.29166666666</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>44867.291666666657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2194,10 +2248,10 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44866.29166666666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>44866.291666666657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2205,10 +2259,10 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44865.29166666666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>44865.291666666657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2216,10 +2270,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44864.29166666666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>44864.291666666657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2227,10 +2281,10 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44863.29166666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>44863.291666666657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2238,10 +2292,10 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44862.29166666666</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>44862.291666666657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2249,10 +2303,10 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44861.29166666666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>44861.291666666657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2260,10 +2314,10 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44860.29166666666</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>44860.291666666657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2271,10 +2325,10 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44859.29166666666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>44859.291666666657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2282,10 +2336,10 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44858.29166666666</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>44858.291666666657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2293,10 +2347,10 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44857.29166666666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>44857.291666666657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2304,10 +2358,10 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44856.29166666666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>44856.291666666657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2315,10 +2369,10 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44855.29166666666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>44855.291666666657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2326,10 +2380,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44854.29166666666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>44854.291666666657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2337,10 +2391,10 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44853.29166666666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>44853.291666666657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2348,10 +2402,10 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44852.29166666666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>44852.291666666657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2359,10 +2413,10 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44851.29166666666</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>44851.291666666657</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2370,10 +2424,10 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44850.29166666666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>44850.291666666657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2381,10 +2435,10 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44849.29166666666</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>44849.291666666657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2392,10 +2446,10 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44848.29166666666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>44848.291666666657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2403,10 +2457,10 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44847.29166666666</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>44847.291666666657</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2414,10 +2468,10 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44846.29166666666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>44846.291666666657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2425,10 +2479,10 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44845.29166666666</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>44845.291666666657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2436,10 +2490,10 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44844.29166666666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>44844.291666666657</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2447,10 +2501,10 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44843.29166666666</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>44843.291666666657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2458,10 +2512,10 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44842.29166666666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>44842.291666666657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2469,10 +2523,10 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44841.29166666666</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>44841.291666666657</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2480,10 +2534,10 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44840.29166666666</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>44840.291666666657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2491,10 +2545,10 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44839.29166666666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>44839.291666666657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2502,10 +2556,10 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44838.29166666666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>44838.291666666657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2513,10 +2567,10 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44837.29166666666</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>44837.291666666657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2524,10 +2578,10 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44836.29166666666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>44836.291666666657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2535,10 +2589,10 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44835.29166666666</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>44835.291666666657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2546,10 +2600,10 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44834.29166666666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>44834.291666666657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2557,10 +2611,10 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44833.29166666666</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>44833.291666666657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2568,10 +2622,10 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44832.29166666666</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>44832.291666666657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2579,10 +2633,10 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44831.29166666666</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>44831.291666666657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2590,10 +2644,10 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44830.29166666666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>44830.291666666657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2601,10 +2655,10 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44829.29166666666</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>44829.291666666657</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2612,10 +2666,10 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44828.29166666666</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>44828.291666666657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2623,10 +2677,10 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44827.29166666666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>44827.291666666657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2634,10 +2688,10 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44826.29166666666</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>44826.291666666657</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2645,10 +2699,10 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44825.29166666666</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>44825.291666666657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2656,10 +2710,10 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44824.29166666666</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>44824.291666666657</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2667,10 +2721,10 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44823.29166666666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>44823.291666666657</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2678,10 +2732,10 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44822.29166666666</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>44822.291666666657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2689,10 +2743,10 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44821.29166666666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>44821.291666666657</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2700,10 +2754,10 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44820.29166666666</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>44820.291666666657</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2711,10 +2765,10 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44819.29166666666</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>44819.291666666657</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2722,10 +2776,10 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44818.29166666666</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>44818.291666666657</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2733,10 +2787,10 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44817.29166666666</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>44817.291666666657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2744,10 +2798,10 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44816.29166666666</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>44816.291666666657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2755,10 +2809,10 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44815.29166666666</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>44815.291666666657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2766,10 +2820,10 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44814.29166666666</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>44814.291666666657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2777,10 +2831,10 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44813.29166666666</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>44813.291666666657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2788,10 +2842,10 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44812.29166666666</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>44812.291666666657</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2799,10 +2853,10 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44811.29166666666</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>44811.291666666657</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2810,10 +2864,10 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44810.29166666666</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>44810.291666666657</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2821,10 +2875,10 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44809.29166666666</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>44809.291666666657</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2832,10 +2886,10 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44808.29166666666</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>44808.291666666657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2843,10 +2897,10 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44807.29166666666</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>44807.291666666657</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2854,10 +2908,10 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44806.29166666666</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>44806.291666666657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2865,10 +2919,10 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44805.29166666666</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>44805.291666666657</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2876,10 +2930,10 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44804.29166666666</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>44804.291666666657</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2887,10 +2941,10 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44803.29166666666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>44803.291666666657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2898,10 +2952,10 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44802.29166666666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>44802.291666666657</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2909,10 +2963,10 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44801.29166666666</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>44801.291666666657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2920,10 +2974,10 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44800.29166666666</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>44800.291666666657</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2931,10 +2985,10 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44799.29166666666</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>44799.291666666657</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2942,10 +2996,10 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44798.29166666666</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>44798.291666666657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2953,10 +3007,10 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44797.29166666666</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>44797.291666666657</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2964,10 +3018,10 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44796.29166666666</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>44796.291666666657</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2975,10 +3029,10 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44795.29166666666</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>44795.291666666657</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2986,10 +3040,10 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44794.29166666666</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>44794.291666666657</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2997,10 +3051,10 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44793.29166666666</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>44793.291666666657</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3008,10 +3062,10 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44792.29166666666</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>44792.291666666657</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3019,10 +3073,10 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44791.29166666666</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>44791.291666666657</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3030,10 +3084,10 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44790.29166666666</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>44790.291666666657</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3041,10 +3095,10 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44789.29166666666</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>44789.291666666657</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3052,10 +3106,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44788.29166666666</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>44788.291666666657</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3063,10 +3117,10 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44787.29166666666</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>44787.291666666657</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3074,10 +3128,10 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44786.29166666666</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>44786.291666666657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3085,10 +3139,10 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44785.29166666666</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>44785.291666666657</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3096,10 +3150,10 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44784.29166666666</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>44784.291666666657</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3107,10 +3161,10 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44783.29166666666</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>44783.291666666657</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3118,10 +3172,10 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44782.29166666666</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>44782.291666666657</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3129,10 +3183,10 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44781.29166666666</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>44781.291666666657</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3140,10 +3194,10 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44780.29166666666</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>44780.291666666657</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3151,10 +3205,10 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44779.29166666666</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>44779.291666666657</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3162,10 +3216,10 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44778.29166666666</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>44778.291666666657</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3173,10 +3227,10 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44777.29166666666</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>44777.291666666657</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3184,10 +3238,10 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44776.29166666666</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>44776.291666666657</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3195,10 +3249,10 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44775.29166666666</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>44775.291666666657</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3206,10 +3260,10 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44774.29166666666</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>44774.291666666657</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3217,10 +3271,10 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44773.29166666666</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>44773.291666666657</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3228,10 +3282,10 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44772.29166666666</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>44772.291666666657</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3239,10 +3293,10 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44771.29166666666</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>44771.291666666657</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3250,10 +3304,10 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44770.29166666666</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>44770.291666666657</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3261,10 +3315,10 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44769.29166666666</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>44769.291666666657</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3272,10 +3326,10 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44768.29166666666</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>44768.291666666657</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3283,10 +3337,10 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44767.29166666666</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>44767.291666666657</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3294,10 +3348,10 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44766.29166666666</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>44766.291666666657</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3305,10 +3359,10 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44765.29166666666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>44765.291666666657</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3316,10 +3370,10 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44764.29166666666</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>44764.291666666657</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3327,10 +3381,10 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44763.29166666666</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>44763.291666666657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3338,10 +3392,10 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44762.29166666666</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>44762.291666666657</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3349,10 +3403,10 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44761.29166666666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>44761.291666666657</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3360,10 +3414,10 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44760.29166666666</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>44760.291666666657</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3371,10 +3425,10 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44759.29166666666</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>44759.291666666657</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3382,10 +3436,10 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44758.29166666666</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>44758.291666666657</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3393,10 +3447,10 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44757.29166666666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>44757.291666666657</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3404,10 +3458,10 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44756.29166666666</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>44756.291666666657</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3415,10 +3469,10 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44755.29166666666</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>44755.291666666657</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3426,10 +3480,10 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44754.29166666666</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>44754.291666666657</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3437,10 +3491,10 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44753.29166666666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>44753.291666666657</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3448,10 +3502,10 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44752.29166666666</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>44752.291666666657</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3459,10 +3513,10 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44751.29166666666</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>44751.291666666657</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3470,10 +3524,10 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44750.29166666666</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>44750.291666666657</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3481,10 +3535,10 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44749.29166666666</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>44749.291666666657</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3492,10 +3546,10 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44748.29166666666</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>44748.291666666657</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3503,10 +3557,10 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44747.29166666666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>44747.291666666657</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3514,10 +3568,10 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44746.29166666666</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>44746.291666666657</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3525,10 +3579,10 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44745.29166666666</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>44745.291666666657</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3536,10 +3590,10 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44744.29166666666</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>44744.291666666657</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3547,10 +3601,10 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44743.29166666666</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>44743.291666666657</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3558,10 +3612,10 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44742.29166666666</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>44742.291666666657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3569,10 +3623,10 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44741.29166666666</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>44741.291666666657</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3580,10 +3634,10 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44740.29166666666</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>44740.291666666657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3591,10 +3645,10 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44739.29166666666</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>44739.291666666657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3602,10 +3656,10 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44738.29166666666</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>44738.291666666657</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3613,10 +3667,10 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44737.29166666666</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>44737.291666666657</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3624,10 +3678,10 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44736.29166666666</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>44736.291666666657</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3635,10 +3689,10 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44735.29166666666</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>44735.291666666657</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3646,10 +3700,10 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44734.29166666666</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>44734.291666666657</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3657,10 +3711,10 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44733.29166666666</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>44733.291666666657</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3668,10 +3722,10 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44732.29166666666</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>44732.291666666657</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3679,10 +3733,10 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44731.29166666666</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>44731.291666666657</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3690,10 +3744,10 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44730.29166666666</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>44730.291666666657</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3701,10 +3755,10 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44729.29166666666</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>44729.291666666657</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3712,10 +3766,10 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44728.29166666666</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>44728.291666666657</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3723,10 +3777,10 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44727.29166666666</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>44727.291666666657</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3734,10 +3788,10 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44726.29166666666</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>44726.291666666657</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3745,10 +3799,10 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44725.29166666666</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>44725.291666666657</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3756,10 +3810,10 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44724.29166666666</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>44724.291666666657</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3767,10 +3821,10 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44723.29166666666</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>44723.291666666657</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3778,10 +3832,10 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44722.29166666666</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>44722.291666666657</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3789,10 +3843,10 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44721.29166666666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>44721.291666666657</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3800,10 +3854,10 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44720.29166666666</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>44720.291666666657</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3811,10 +3865,10 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44719.29166666666</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>44719.291666666657</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3822,10 +3876,10 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44718.29166666666</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>44718.291666666657</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3833,10 +3887,10 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44717.29166666666</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>44717.291666666657</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3844,10 +3898,10 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44716.29166666666</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>44716.291666666657</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3855,10 +3909,10 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44715.29166666666</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>44715.291666666657</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3866,10 +3920,10 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44714.29166666666</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>44714.291666666657</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3877,10 +3931,10 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44713.29166666666</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>44713.291666666657</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3888,10 +3942,10 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44712.29166666666</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>44712.291666666657</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3899,10 +3953,10 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44711.29166666666</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>44711.291666666657</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3910,10 +3964,10 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44710.29166666666</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>44710.291666666657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3921,10 +3975,10 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44709.29166666666</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>44709.291666666657</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3932,10 +3986,10 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44708.29166666666</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>44708.291666666657</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3943,10 +3997,10 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44707.29166666666</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>44707.291666666657</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3954,10 +4008,10 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44706.29166666666</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>44706.291666666657</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3965,10 +4019,10 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44705.29166666666</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>44705.291666666657</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3976,10 +4030,10 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44704.29166666666</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>44704.291666666657</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3987,10 +4041,10 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44703.29166666666</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>44703.291666666657</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3998,10 +4052,10 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44702.29166666666</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>44702.291666666657</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4009,10 +4063,10 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44701.29166666666</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>44701.291666666657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4020,10 +4074,10 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44700.29166666666</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>44700.291666666657</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4031,10 +4085,10 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44699.29166666666</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>44699.291666666657</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4042,10 +4096,10 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44698.29166666666</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>44698.291666666657</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4053,10 +4107,10 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44697.29166666666</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>44697.291666666657</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4064,10 +4118,10 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44696.29166666666</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>44696.291666666657</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4075,10 +4129,10 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44695.29166666666</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>44695.291666666657</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4086,10 +4140,10 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44694.29166666666</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>44694.291666666657</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4097,10 +4151,10 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44693.29166666666</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>44693.291666666657</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4108,10 +4162,10 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44692.29166666666</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>44692.291666666657</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4119,10 +4173,10 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44691.29166666666</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>44691.291666666657</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4130,10 +4184,10 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44690.29166666666</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>44690.291666666657</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4141,10 +4195,10 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44689.29166666666</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>44689.291666666657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4152,10 +4206,10 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44688.29166666666</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>44688.291666666657</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4163,10 +4217,10 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44687.29166666666</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>44687.291666666657</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4174,10 +4228,10 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44686.29166666666</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>44686.291666666657</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4185,10 +4239,10 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44685.29166666666</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>44685.291666666657</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4196,10 +4250,10 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44684.29166666666</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>44684.291666666657</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4207,10 +4261,10 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44683.29166666666</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>44683.291666666657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4218,10 +4272,10 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44682.29166666666</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>44682.291666666657</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4229,10 +4283,10 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44681.29166666666</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>44681.291666666657</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4240,10 +4294,10 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44680.29166666666</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>44680.291666666657</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4251,10 +4305,10 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44679.29166666666</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>44679.291666666657</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4262,10 +4316,10 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44678.29166666666</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>44678.291666666657</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4273,10 +4327,10 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44677.29166666666</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>44677.291666666657</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4284,10 +4338,10 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44676.29166666666</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>44676.291666666657</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4295,10 +4349,10 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44675.29166666666</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>44675.291666666657</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4306,10 +4360,10 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44674.29166666666</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>44674.291666666657</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4317,10 +4371,10 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44673.29166666666</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>44673.291666666657</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4328,10 +4382,10 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44672.29166666666</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>44672.291666666657</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4339,10 +4393,10 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44671.29166666666</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>44671.291666666657</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4350,10 +4404,10 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44670.29166666666</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>44670.291666666657</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4361,10 +4415,10 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44669.29166666666</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>44669.291666666657</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4372,10 +4426,10 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44668.29166666666</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>44668.291666666657</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4383,10 +4437,10 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44667.29166666666</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>44667.291666666657</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4394,10 +4448,10 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44666.29166666666</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>44666.291666666657</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4405,10 +4459,10 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44665.29166666666</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>44665.291666666657</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4416,10 +4470,10 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44664.29166666666</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>44664.291666666657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4427,10 +4481,10 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44663.29166666666</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>44663.291666666657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -4438,10 +4492,10 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44662.29166666666</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>44662.291666666657</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4449,10 +4503,10 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44661.29166666666</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>44661.291666666657</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -4460,10 +4514,10 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44660.29166666666</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>44660.291666666657</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -4471,10 +4525,10 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44659.29166666666</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>44659.291666666657</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -4482,10 +4536,10 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44658.29166666666</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>44658.291666666657</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -4493,10 +4547,10 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44657.29166666666</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>44657.291666666657</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -4504,10 +4558,10 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44656.29166666666</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>44656.291666666657</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -4515,10 +4569,10 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44655.29166666666</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>44655.291666666657</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -4526,10 +4580,10 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44654.29166666666</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>44654.291666666657</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -4537,10 +4591,10 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44653.29166666666</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>44653.291666666657</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -4548,10 +4602,10 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44652.29166666666</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>44652.291666666657</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -4559,10 +4613,10 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44651.29166666666</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>44651.291666666657</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -4570,10 +4624,10 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44650.29166666666</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>44650.291666666657</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -4581,10 +4635,10 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44649.29166666666</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>44649.291666666657</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -4592,10 +4646,10 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44648.29166666666</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>44648.291666666657</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -4603,10 +4657,10 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44647.29166666666</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>44647.291666666657</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4614,10 +4668,10 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44646.29166666666</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>44646.291666666657</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -4625,10 +4679,10 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44645.29166666666</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>44645.291666666657</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -4636,10 +4690,10 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44644.29166666666</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>44644.291666666657</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -4647,10 +4701,10 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44643.29166666666</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>44643.291666666657</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -4658,10 +4712,10 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44642.29166666666</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>44642.291666666657</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -4669,10 +4723,10 @@
         <v>290</v>
       </c>
       <c r="C290" s="2">
-        <v>44641.29166666666</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>44641.291666666657</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -4680,10 +4734,10 @@
         <v>291</v>
       </c>
       <c r="C291" s="2">
-        <v>44640.29166666666</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>44640.291666666657</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -4691,10 +4745,10 @@
         <v>292</v>
       </c>
       <c r="C292" s="2">
-        <v>44639.29166666666</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>44639.291666666657</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -4702,10 +4756,10 @@
         <v>293</v>
       </c>
       <c r="C293" s="2">
-        <v>44638.29166666666</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>44638.291666666657</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -4713,10 +4767,10 @@
         <v>294</v>
       </c>
       <c r="C294" s="2">
-        <v>44637.29166666666</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>44637.291666666657</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -4724,10 +4778,10 @@
         <v>295</v>
       </c>
       <c r="C295" s="2">
-        <v>44636.29166666666</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>44636.291666666657</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -4735,10 +4789,10 @@
         <v>296</v>
       </c>
       <c r="C296" s="2">
-        <v>44635.29166666666</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>44635.291666666657</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -4746,10 +4800,10 @@
         <v>297</v>
       </c>
       <c r="C297" s="2">
-        <v>44634.29166666666</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>44634.291666666657</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -4757,10 +4811,10 @@
         <v>298</v>
       </c>
       <c r="C298" s="2">
-        <v>44633.29166666666</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>44633.291666666657</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -4768,10 +4822,10 @@
         <v>299</v>
       </c>
       <c r="C299" s="2">
-        <v>44632.29166666666</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>44632.291666666657</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -4779,10 +4833,10 @@
         <v>300</v>
       </c>
       <c r="C300" s="2">
-        <v>44631.29166666666</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>44631.291666666657</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -4790,10 +4844,10 @@
         <v>301</v>
       </c>
       <c r="C301" s="2">
-        <v>44630.29166666666</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>44630.291666666657</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -4801,10 +4855,10 @@
         <v>302</v>
       </c>
       <c r="C302" s="2">
-        <v>44629.29166666666</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>44629.291666666657</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -4812,10 +4866,10 @@
         <v>303</v>
       </c>
       <c r="C303" s="2">
-        <v>44628.29166666666</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>44628.291666666657</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -4823,10 +4877,10 @@
         <v>304</v>
       </c>
       <c r="C304" s="2">
-        <v>44627.29166666666</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>44627.291666666657</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -4834,10 +4888,10 @@
         <v>305</v>
       </c>
       <c r="C305" s="2">
-        <v>44626.29166666666</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>44626.291666666657</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -4845,10 +4899,10 @@
         <v>306</v>
       </c>
       <c r="C306" s="2">
-        <v>44625.29166666666</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>44625.291666666657</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -4856,10 +4910,10 @@
         <v>307</v>
       </c>
       <c r="C307" s="2">
-        <v>44624.29166666666</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>44624.291666666657</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -4867,10 +4921,10 @@
         <v>308</v>
       </c>
       <c r="C308" s="2">
-        <v>44623.29166666666</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>44623.291666666657</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -4878,10 +4932,10 @@
         <v>309</v>
       </c>
       <c r="C309" s="2">
-        <v>44622.29166666666</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>44622.291666666657</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -4889,10 +4943,10 @@
         <v>310</v>
       </c>
       <c r="C310" s="2">
-        <v>44621.29166666666</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>44621.291666666657</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -4900,10 +4954,10 @@
         <v>311</v>
       </c>
       <c r="C311" s="2">
-        <v>44620.29166666666</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>44620.291666666657</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -4911,10 +4965,10 @@
         <v>312</v>
       </c>
       <c r="C312" s="2">
-        <v>44619.29166666666</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>44619.291666666657</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -4922,10 +4976,10 @@
         <v>313</v>
       </c>
       <c r="C313" s="2">
-        <v>44618.29166666666</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>44618.291666666657</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -4933,10 +4987,10 @@
         <v>314</v>
       </c>
       <c r="C314" s="2">
-        <v>44617.29166666666</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>44617.291666666657</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -4944,10 +4998,10 @@
         <v>315</v>
       </c>
       <c r="C315" s="2">
-        <v>44616.29166666666</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>44616.291666666657</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -4955,10 +5009,10 @@
         <v>316</v>
       </c>
       <c r="C316" s="2">
-        <v>44615.29166666666</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>44615.291666666657</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -4966,10 +5020,10 @@
         <v>317</v>
       </c>
       <c r="C317" s="2">
-        <v>44614.29166666666</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>44614.291666666657</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -4977,10 +5031,10 @@
         <v>318</v>
       </c>
       <c r="C318" s="2">
-        <v>44613.29166666666</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>44613.291666666657</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -4988,10 +5042,10 @@
         <v>319</v>
       </c>
       <c r="C319" s="2">
-        <v>44612.29166666666</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>44612.291666666657</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -4999,10 +5053,10 @@
         <v>320</v>
       </c>
       <c r="C320" s="2">
-        <v>44611.29166666666</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>44611.291666666657</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -5010,10 +5064,10 @@
         <v>321</v>
       </c>
       <c r="C321" s="2">
-        <v>44610.29166666666</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>44610.291666666657</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -5021,10 +5075,10 @@
         <v>322</v>
       </c>
       <c r="C322" s="2">
-        <v>44609.29166666666</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>44609.291666666657</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -5032,10 +5086,10 @@
         <v>323</v>
       </c>
       <c r="C323" s="2">
-        <v>44608.29166666666</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>44608.291666666657</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -5043,10 +5097,10 @@
         <v>324</v>
       </c>
       <c r="C324" s="2">
-        <v>44607.29166666666</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>44607.291666666657</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -5054,10 +5108,10 @@
         <v>325</v>
       </c>
       <c r="C325" s="2">
-        <v>44606.29166666666</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>44606.291666666657</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -5065,10 +5119,10 @@
         <v>326</v>
       </c>
       <c r="C326" s="2">
-        <v>44605.29166666666</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>44605.291666666657</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -5076,10 +5130,10 @@
         <v>327</v>
       </c>
       <c r="C327" s="2">
-        <v>44604.29166666666</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>44604.291666666657</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -5087,10 +5141,10 @@
         <v>328</v>
       </c>
       <c r="C328" s="2">
-        <v>44603.29166666666</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>44603.291666666657</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -5098,10 +5152,10 @@
         <v>329</v>
       </c>
       <c r="C329" s="2">
-        <v>44602.29166666666</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>44602.291666666657</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -5109,10 +5163,10 @@
         <v>330</v>
       </c>
       <c r="C330" s="2">
-        <v>44601.29166666666</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>44601.291666666657</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -5120,10 +5174,10 @@
         <v>331</v>
       </c>
       <c r="C331" s="2">
-        <v>44600.29166666666</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>44600.291666666657</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -5131,10 +5185,10 @@
         <v>332</v>
       </c>
       <c r="C332" s="2">
-        <v>44599.29166666666</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>44599.291666666657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -5142,10 +5196,10 @@
         <v>333</v>
       </c>
       <c r="C333" s="2">
-        <v>44598.29166666666</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>44598.291666666657</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -5153,10 +5207,10 @@
         <v>334</v>
       </c>
       <c r="C334" s="2">
-        <v>44597.29166666666</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>44597.291666666657</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -5164,10 +5218,10 @@
         <v>335</v>
       </c>
       <c r="C335" s="2">
-        <v>44596.29166666666</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>44596.291666666657</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -5175,10 +5229,10 @@
         <v>336</v>
       </c>
       <c r="C336" s="2">
-        <v>44595.29166666666</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
+        <v>44595.291666666657</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -5186,10 +5240,10 @@
         <v>337</v>
       </c>
       <c r="C337" s="2">
-        <v>44594.29166666666</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>44594.291666666657</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -5197,10 +5251,10 @@
         <v>338</v>
       </c>
       <c r="C338" s="2">
-        <v>44593.29166666666</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
+        <v>44593.291666666657</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -5208,10 +5262,10 @@
         <v>339</v>
       </c>
       <c r="C339" s="2">
-        <v>44592.29166666666</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
+        <v>44592.291666666657</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -5219,10 +5273,10 @@
         <v>340</v>
       </c>
       <c r="C340" s="2">
-        <v>44591.29166666666</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
+        <v>44591.291666666657</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -5230,10 +5284,10 @@
         <v>341</v>
       </c>
       <c r="C341" s="2">
-        <v>44590.29166666666</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
+        <v>44590.291666666657</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -5241,10 +5295,10 @@
         <v>342</v>
       </c>
       <c r="C342" s="2">
-        <v>44589.29166666666</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>44589.291666666657</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -5252,10 +5306,10 @@
         <v>343</v>
       </c>
       <c r="C343" s="2">
-        <v>44588.29166666666</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>44588.291666666657</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -5263,10 +5317,10 @@
         <v>344</v>
       </c>
       <c r="C344" s="2">
-        <v>44587.29166666666</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
+        <v>44587.291666666657</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -5274,10 +5328,10 @@
         <v>345</v>
       </c>
       <c r="C345" s="2">
-        <v>44586.29166666666</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>44586.291666666657</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -5285,10 +5339,10 @@
         <v>346</v>
       </c>
       <c r="C346" s="2">
-        <v>44585.29166666666</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>44585.291666666657</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -5296,10 +5350,10 @@
         <v>347</v>
       </c>
       <c r="C347" s="2">
-        <v>44584.29166666666</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
+        <v>44584.291666666657</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -5307,10 +5361,10 @@
         <v>348</v>
       </c>
       <c r="C348" s="2">
-        <v>44583.29166666666</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
+        <v>44583.291666666657</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -5318,10 +5372,10 @@
         <v>349</v>
       </c>
       <c r="C349" s="2">
-        <v>44582.29166666666</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>44582.291666666657</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -5329,10 +5383,10 @@
         <v>350</v>
       </c>
       <c r="C350" s="2">
-        <v>44581.29166666666</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>44581.291666666657</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -5340,10 +5394,10 @@
         <v>351</v>
       </c>
       <c r="C351" s="2">
-        <v>44580.29166666666</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
+        <v>44580.291666666657</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -5351,10 +5405,10 @@
         <v>352</v>
       </c>
       <c r="C352" s="2">
-        <v>44579.29166666666</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <v>44579.291666666657</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -5362,10 +5416,10 @@
         <v>353</v>
       </c>
       <c r="C353" s="2">
-        <v>44578.29166666666</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <v>44578.291666666657</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -5373,10 +5427,10 @@
         <v>354</v>
       </c>
       <c r="C354" s="2">
-        <v>44577.29166666666</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>44577.291666666657</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -5384,10 +5438,10 @@
         <v>355</v>
       </c>
       <c r="C355" s="2">
-        <v>44576.29166666666</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
+        <v>44576.291666666657</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -5395,10 +5449,10 @@
         <v>356</v>
       </c>
       <c r="C356" s="2">
-        <v>44575.29166666666</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>44575.291666666657</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -5406,10 +5460,10 @@
         <v>357</v>
       </c>
       <c r="C357" s="2">
-        <v>44574.29166666666</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>44574.291666666657</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -5417,10 +5471,10 @@
         <v>358</v>
       </c>
       <c r="C358" s="2">
-        <v>44573.29166666666</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>44573.291666666657</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -5428,10 +5482,10 @@
         <v>359</v>
       </c>
       <c r="C359" s="2">
-        <v>44572.29166666666</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>44572.291666666657</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -5439,10 +5493,10 @@
         <v>360</v>
       </c>
       <c r="C360" s="2">
-        <v>44571.29166666666</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>44571.291666666657</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -5450,10 +5504,10 @@
         <v>361</v>
       </c>
       <c r="C361" s="2">
-        <v>44570.29166666666</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <v>44570.291666666657</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -5461,10 +5515,10 @@
         <v>362</v>
       </c>
       <c r="C362" s="2">
-        <v>44569.29166666666</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
+        <v>44569.291666666657</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -5472,10 +5526,10 @@
         <v>363</v>
       </c>
       <c r="C363" s="2">
-        <v>44568.29166666666</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>44568.291666666657</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -5483,10 +5537,10 @@
         <v>364</v>
       </c>
       <c r="C364" s="2">
-        <v>44567.29166666666</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>44567.291666666657</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -5494,10 +5548,10 @@
         <v>365</v>
       </c>
       <c r="C365" s="2">
-        <v>44566.29166666666</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <v>44566.291666666657</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -5505,10 +5559,10 @@
         <v>366</v>
       </c>
       <c r="C366" s="2">
-        <v>44565.29166666666</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>44565.291666666657</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -5516,7 +5570,7 @@
         <v>367</v>
       </c>
       <c r="C367" s="2">
-        <v>44564.29166666666</v>
+        <v>44564.291666666657</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,6 +22,762 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>16954.717000191624</t>
+  </si>
+  <si>
+    <t>16949.863835179774</t>
+  </si>
+  <si>
+    <t>16951.509453628685</t>
+  </si>
+  <si>
+    <t>16952.13167510704</t>
+  </si>
+  <si>
+    <t>16955.82459324465</t>
+  </si>
+  <si>
+    <t>16963.411713652593</t>
+  </si>
+  <si>
+    <t>16954.26299929448</t>
+  </si>
+  <si>
+    <t>16958.943604117423</t>
+  </si>
+  <si>
+    <t>16944.841548167857</t>
+  </si>
+  <si>
+    <t>16963.715534800755</t>
+  </si>
+  <si>
+    <t>16966.504280215922</t>
+  </si>
+  <si>
+    <t>16953.52763405349</t>
+  </si>
+  <si>
+    <t>16977.762671038825</t>
+  </si>
+  <si>
+    <t>16961.50906180157</t>
+  </si>
+  <si>
+    <t>16983.380093759053</t>
+  </si>
+  <si>
+    <t>16965.07859099601</t>
+  </si>
+  <si>
+    <t>16981.930362524647</t>
+  </si>
+  <si>
+    <t>16954.736817759604</t>
+  </si>
+  <si>
+    <t>16950.653512576537</t>
+  </si>
+  <si>
+    <t>16944.995774533</t>
+  </si>
+  <si>
+    <t>16949.221206844417</t>
+  </si>
+  <si>
+    <t>16945.506163990533</t>
+  </si>
+  <si>
+    <t>16944.626233185674</t>
+  </si>
+  <si>
+    <t>16944.086657884025</t>
+  </si>
+  <si>
+    <t>16944.45209794555</t>
+  </si>
+  <si>
+    <t>16944.12688871281</t>
+  </si>
+  <si>
+    <t>16944.256170025175</t>
+  </si>
+  <si>
+    <t>16952.81125851111</t>
+  </si>
+  <si>
+    <t>16946.155707920338</t>
+  </si>
+  <si>
+    <t>16946.332355997445</t>
+  </si>
+  <si>
+    <t>16943.400813523578</t>
+  </si>
+  <si>
+    <t>16942.745297078</t>
+  </si>
+  <si>
+    <t>16941.13385501941</t>
+  </si>
+  <si>
+    <t>16942.483950944254</t>
+  </si>
+  <si>
+    <t>16941.677550548517</t>
+  </si>
+  <si>
+    <t>16945.154079854703</t>
+  </si>
+  <si>
+    <t>16938.578451702662</t>
+  </si>
+  <si>
+    <t>16943.656630657395</t>
+  </si>
+  <si>
+    <t>16941.238860689184</t>
+  </si>
+  <si>
+    <t>16939.660094544095</t>
+  </si>
+  <si>
+    <t>16939.774215384758</t>
+  </si>
+  <si>
+    <t>16938.84433472995</t>
+  </si>
+  <si>
+    <t>16940.39652555437</t>
+  </si>
+  <si>
+    <t>16940.451612448884</t>
+  </si>
+  <si>
+    <t>16940.133762349018</t>
+  </si>
+  <si>
+    <t>16944.757055623504</t>
+  </si>
+  <si>
+    <t>16937.394702820184</t>
+  </si>
+  <si>
+    <t>16938.076126137676</t>
+  </si>
+  <si>
+    <t>16935.49601708929</t>
+  </si>
+  <si>
+    <t>16939.607035937926</t>
+  </si>
+  <si>
+    <t>16937.6593104699</t>
+  </si>
+  <si>
+    <t>16939.369019317288</t>
+  </si>
+  <si>
+    <t>16940.949208341408</t>
+  </si>
+  <si>
+    <t>16942.323015645667</t>
+  </si>
+  <si>
+    <t>16940.59454342255</t>
+  </si>
+  <si>
+    <t>16941.83565731595</t>
+  </si>
+  <si>
+    <t>16939.987729299235</t>
+  </si>
+  <si>
+    <t>16940.589450844393</t>
+  </si>
+  <si>
+    <t>16941.1524045625</t>
+  </si>
+  <si>
+    <t>16942.30101140175</t>
+  </si>
+  <si>
+    <t>16943.645218067188</t>
+  </si>
+  <si>
+    <t>16948.222082758046</t>
+  </si>
+  <si>
+    <t>16942.93655273607</t>
+  </si>
+  <si>
+    <t>16954.8881920387</t>
+  </si>
+  <si>
+    <t>16950.842318226463</t>
+  </si>
+  <si>
+    <t>16950.908771719467</t>
+  </si>
+  <si>
+    <t>16949.699693732062</t>
+  </si>
+  <si>
+    <t>16950.678672240938</t>
+  </si>
+  <si>
+    <t>16951.855888463524</t>
+  </si>
+  <si>
+    <t>16949.4475988837</t>
+  </si>
+  <si>
+    <t>16949.027893370287</t>
+  </si>
+  <si>
+    <t>16949.457604996365</t>
+  </si>
+  <si>
+    <t>16951.449323619498</t>
+  </si>
+  <si>
+    <t>16953.395684467618</t>
+  </si>
+  <si>
+    <t>16950.573656776538</t>
+  </si>
+  <si>
+    <t>16952.924876057474</t>
+  </si>
+  <si>
+    <t>16951.299178647878</t>
+  </si>
+  <si>
+    <t>16952.742329434048</t>
+  </si>
+  <si>
+    <t>16947.544004371975</t>
+  </si>
+  <si>
+    <t>16952.9779350512</t>
+  </si>
+  <si>
+    <t>16950.044539539133</t>
+  </si>
+  <si>
+    <t>16952.285872509183</t>
+  </si>
+  <si>
+    <t>16951.07929119857</t>
+  </si>
+  <si>
+    <t>16949.933591429897</t>
+  </si>
+  <si>
+    <t>16945.654093703513</t>
+  </si>
+  <si>
+    <t>16952.14765014725</t>
+  </si>
+  <si>
+    <t>16951.611817312158</t>
+  </si>
+  <si>
+    <t>16949.864616062237</t>
+  </si>
+  <si>
+    <t>16960.685156304375</t>
+  </si>
+  <si>
+    <t>16944.978380827946</t>
+  </si>
+  <si>
+    <t>16958.12770624439</t>
+  </si>
+  <si>
+    <t>16966.110877713138</t>
+  </si>
+  <si>
+    <t>16965.737583440074</t>
+  </si>
+  <si>
+    <t>16961.88516204373</t>
+  </si>
+  <si>
+    <t>16962.240708073445</t>
+  </si>
+  <si>
+    <t>16962.15075851327</t>
+  </si>
+  <si>
+    <t>16960.046144751628</t>
+  </si>
+  <si>
+    <t>16959.519976694824</t>
+  </si>
+  <si>
+    <t>16956.8094143818</t>
+  </si>
+  <si>
+    <t>16957.926915920892</t>
+  </si>
+  <si>
+    <t>16957.248011570708</t>
+  </si>
+  <si>
+    <t>16952.830554488286</t>
+  </si>
+  <si>
+    <t>16956.766611139574</t>
+  </si>
+  <si>
+    <t>16958.338814136674</t>
+  </si>
+  <si>
+    <t>16954.708909474757</t>
+  </si>
+  <si>
+    <t>16959.105809157092</t>
+  </si>
+  <si>
+    <t>16959.23449645868</t>
+  </si>
+  <si>
+    <t>16960.18842034397</t>
+  </si>
+  <si>
+    <t>16961.684448720018</t>
+  </si>
+  <si>
+    <t>16963.721725250987</t>
+  </si>
+  <si>
+    <t>16964.078990675836</t>
+  </si>
+  <si>
+    <t>16965.150506476137</t>
+  </si>
+  <si>
+    <t>16963.221607166965</t>
+  </si>
+  <si>
+    <t>16958.874370041252</t>
+  </si>
+  <si>
+    <t>16960.875750666994</t>
+  </si>
+  <si>
+    <t>16956.986146100026</t>
+  </si>
+  <si>
+    <t>16954.422222103996</t>
+  </si>
+  <si>
+    <t>16956.82427620246</t>
+  </si>
+  <si>
+    <t>16952.87665674647</t>
+  </si>
+  <si>
+    <t>16954.086252485562</t>
+  </si>
+  <si>
+    <t>16957.090551214613</t>
+  </si>
+  <si>
+    <t>16951.971129058824</t>
+  </si>
+  <si>
+    <t>16954.702269111538</t>
+  </si>
+  <si>
+    <t>16950.85556332928</t>
+  </si>
+  <si>
+    <t>16946.050944334853</t>
+  </si>
+  <si>
+    <t>16951.58979331664</t>
+  </si>
+  <si>
+    <t>16949.051646453892</t>
+  </si>
+  <si>
+    <t>16950.02788312033</t>
+  </si>
+  <si>
+    <t>16947.080747089865</t>
+  </si>
+  <si>
+    <t>16949.133726037955</t>
+  </si>
+  <si>
+    <t>16950.062199741224</t>
+  </si>
+  <si>
+    <t>16946.984106368032</t>
+  </si>
+  <si>
+    <t>16951.01290093513</t>
+  </si>
+  <si>
+    <t>16946.857564233647</t>
+  </si>
+  <si>
+    <t>16949.674073277885</t>
+  </si>
+  <si>
+    <t>16947.932137883792</t>
+  </si>
+  <si>
+    <t>16949.794514479698</t>
+  </si>
+  <si>
+    <t>16947.701017396</t>
+  </si>
+  <si>
+    <t>16950.071256832318</t>
+  </si>
+  <si>
+    <t>16947.206612692757</t>
+  </si>
+  <si>
+    <t>16950.709779312074</t>
+  </si>
+  <si>
+    <t>16949.708511588105</t>
+  </si>
+  <si>
+    <t>16949.622056344117</t>
+  </si>
+  <si>
+    <t>16944.966760391166</t>
+  </si>
+  <si>
+    <t>16949.255975067386</t>
+  </si>
+  <si>
+    <t>16946.511951732246</t>
+  </si>
+  <si>
+    <t>16945.496979639764</t>
+  </si>
+  <si>
+    <t>16946.091614944526</t>
+  </si>
+  <si>
+    <t>16946.626582747595</t>
+  </si>
+  <si>
+    <t>16944.123610082992</t>
+  </si>
+  <si>
+    <t>16942.45435213534</t>
+  </si>
+  <si>
+    <t>16946.23187145134</t>
+  </si>
+  <si>
+    <t>16943.617237127</t>
+  </si>
+  <si>
+    <t>16946.921714671003</t>
+  </si>
+  <si>
+    <t>16943.431850548284</t>
+  </si>
+  <si>
+    <t>16946.135149674155</t>
+  </si>
+  <si>
+    <t>16944.71840145234</t>
+  </si>
+  <si>
+    <t>16943.991025109342</t>
+  </si>
+  <si>
+    <t>16949.379242096835</t>
+  </si>
+  <si>
+    <t>16939.184779157677</t>
+  </si>
+  <si>
+    <t>16949.66340394794</t>
+  </si>
+  <si>
+    <t>16934.60939808067</t>
+  </si>
+  <si>
+    <t>16944.4516703292</t>
+  </si>
+  <si>
+    <t>16938.248096867468</t>
+  </si>
+  <si>
+    <t>16944.879455650233</t>
+  </si>
+  <si>
+    <t>16937.765581713455</t>
+  </si>
+  <si>
+    <t>16941.610763755038</t>
+  </si>
+  <si>
+    <t>16943.669831050753</t>
+  </si>
+  <si>
+    <t>16940.737364773388</t>
+  </si>
+  <si>
+    <t>16943.11236344031</t>
+  </si>
+  <si>
+    <t>16945.101960136257</t>
+  </si>
+  <si>
+    <t>16945.17967219259</t>
+  </si>
+  <si>
+    <t>16942.683347961745</t>
+  </si>
+  <si>
+    <t>16944.262452435425</t>
+  </si>
+  <si>
+    <t>16940.69043169575</t>
+  </si>
+  <si>
+    <t>16944.430347847683</t>
+  </si>
+  <si>
+    <t>16943.28827312179</t>
+  </si>
+  <si>
+    <t>16950.490830032904</t>
+  </si>
+  <si>
+    <t>16947.819797719345</t>
+  </si>
+  <si>
+    <t>16950.66557347789</t>
+  </si>
+  <si>
+    <t>16948.946945647705</t>
+  </si>
+  <si>
+    <t>16948.768824026873</t>
+  </si>
+  <si>
+    <t>16952.96637870168</t>
+  </si>
+  <si>
+    <t>16941.629938146736</t>
+  </si>
+  <si>
+    <t>16955.786817117405</t>
+  </si>
+  <si>
+    <t>16940.30757194676</t>
+  </si>
+  <si>
+    <t>16948.30088017277</t>
+  </si>
+  <si>
+    <t>16949.09575367723</t>
+  </si>
+  <si>
+    <t>16952.321020567844</t>
+  </si>
+  <si>
+    <t>16951.011119670227</t>
+  </si>
+  <si>
+    <t>16950.261247554576</t>
+  </si>
+  <si>
+    <t>16947.727906594344</t>
+  </si>
+  <si>
+    <t>16956.815537185677</t>
+  </si>
+  <si>
+    <t>16944.73804134601</t>
+  </si>
+  <si>
+    <t>16949.967691115908</t>
+  </si>
+  <si>
+    <t>16948.9723965421</t>
+  </si>
+  <si>
+    <t>16953.670548967548</t>
+  </si>
+  <si>
+    <t>16952.29160436722</t>
+  </si>
+  <si>
+    <t>16950.340908781094</t>
+  </si>
+  <si>
+    <t>16950.83343054679</t>
+  </si>
+  <si>
+    <t>16951.378014444374</t>
+  </si>
+  <si>
+    <t>16955.976189415247</t>
+  </si>
+  <si>
+    <t>16958.085890063347</t>
+  </si>
+  <si>
+    <t>16953.25373112189</t>
+  </si>
+  <si>
+    <t>16961.795283258452</t>
+  </si>
+  <si>
+    <t>16962.399182972746</t>
+  </si>
+  <si>
+    <t>16956.262946700983</t>
+  </si>
+  <si>
+    <t>16955.928193487023</t>
+  </si>
+  <si>
+    <t>16958.62618924143</t>
+  </si>
+  <si>
+    <t>16953.86704695073</t>
+  </si>
+  <si>
+    <t>16958.20300997661</t>
+  </si>
+  <si>
+    <t>16961.3609850723</t>
+  </si>
+  <si>
+    <t>16953.947178307546</t>
+  </si>
+  <si>
+    <t>16960.937682352855</t>
+  </si>
+  <si>
+    <t>16955.25057092483</t>
+  </si>
+  <si>
+    <t>16961.4884295646</t>
+  </si>
+  <si>
+    <t>16957.311317494215</t>
+  </si>
+  <si>
+    <t>16958.203965706623</t>
+  </si>
+  <si>
+    <t>16956.559032362486</t>
+  </si>
+  <si>
+    <t>16954.307737510644</t>
+  </si>
+  <si>
+    <t>16958.12174651237</t>
+  </si>
+  <si>
+    <t>16953.20798618673</t>
+  </si>
+  <si>
+    <t>16957.445577966882</t>
+  </si>
+  <si>
+    <t>16950.416447238298</t>
+  </si>
+  <si>
+    <t>16953.6529047481</t>
+  </si>
+  <si>
+    <t>16949.752571111872</t>
+  </si>
+  <si>
+    <t>16949.09592828868</t>
+  </si>
+  <si>
+    <t>16952.124449916046</t>
+  </si>
+  <si>
+    <t>16948.78173198514</t>
+  </si>
+  <si>
+    <t>16953.8689191299</t>
+  </si>
+  <si>
+    <t>16951.879362875912</t>
+  </si>
+  <si>
+    <t>16953.703659615072</t>
+  </si>
+  <si>
+    <t>16955.642434707883</t>
+  </si>
+  <si>
+    <t>16958.498243869944</t>
+  </si>
+  <si>
+    <t>16947.285153594723</t>
+  </si>
+  <si>
+    <t>16958.603962754296</t>
+  </si>
+  <si>
+    <t>16951.822973315193</t>
+  </si>
+  <si>
+    <t>16951.03227222512</t>
+  </si>
+  <si>
+    <t>16953.599841609222</t>
+  </si>
+  <si>
+    <t>16949.643240734084</t>
+  </si>
+  <si>
+    <t>16953.275714473755</t>
+  </si>
+  <si>
+    <t>16953.644402208407</t>
+  </si>
+  <si>
+    <t>16952.83855200625</t>
+  </si>
+  <si>
+    <t>16956.674058408964</t>
+  </si>
+  <si>
+    <t>16948.04632274404</t>
+  </si>
+  <si>
+    <t>16954.744342579164</t>
+  </si>
+  <si>
+    <t>16952.033688506806</t>
+  </si>
+  <si>
+    <t>16945.82780795765</t>
+  </si>
+  <si>
+    <t>16950.159034107375</t>
+  </si>
+  <si>
+    <t>16949.233438379655</t>
+  </si>
+  <si>
+    <t>16946.03552400218</t>
+  </si>
+  <si>
+    <t>16950.309967942285</t>
+  </si>
+  <si>
     <t>16949.06151747055</t>
   </si>
   <si>
@@ -128,762 +884,6 @@
   </si>
   <si>
     <t>16931.614989502188</t>
-  </si>
-  <si>
-    <t>16933.8523462123</t>
-  </si>
-  <si>
-    <t>16925.867956865583</t>
-  </si>
-  <si>
-    <t>16928.486494514505</t>
-  </si>
-  <si>
-    <t>16929.00116552703</t>
-  </si>
-  <si>
-    <t>16931.414657849666</t>
-  </si>
-  <si>
-    <t>16928.92617557019</t>
-  </si>
-  <si>
-    <t>16925.32624573562</t>
-  </si>
-  <si>
-    <t>16931.73806874303</t>
-  </si>
-  <si>
-    <t>16925.1480509272</t>
-  </si>
-  <si>
-    <t>16934.802614153876</t>
-  </si>
-  <si>
-    <t>16932.729914079697</t>
-  </si>
-  <si>
-    <t>16929.505176247854</t>
-  </si>
-  <si>
-    <t>16930.22706661207</t>
-  </si>
-  <si>
-    <t>16936.19307435965</t>
-  </si>
-  <si>
-    <t>16937.270378927835</t>
-  </si>
-  <si>
-    <t>16940.163417267533</t>
-  </si>
-  <si>
-    <t>16938.51564963602</t>
-  </si>
-  <si>
-    <t>16938.38678677539</t>
-  </si>
-  <si>
-    <t>16938.33963695041</t>
-  </si>
-  <si>
-    <t>16938.062363029807</t>
-  </si>
-  <si>
-    <t>16940.809533227566</t>
-  </si>
-  <si>
-    <t>16936.401468938653</t>
-  </si>
-  <si>
-    <t>16940.060016746098</t>
-  </si>
-  <si>
-    <t>16937.574086394332</t>
-  </si>
-  <si>
-    <t>16939.40964770077</t>
-  </si>
-  <si>
-    <t>16935.701323201334</t>
-  </si>
-  <si>
-    <t>16935.55693475175</t>
-  </si>
-  <si>
-    <t>16936.375592493343</t>
-  </si>
-  <si>
-    <t>16933.24634805466</t>
-  </si>
-  <si>
-    <t>16942.641053326162</t>
-  </si>
-  <si>
-    <t>16930.122871954893</t>
-  </si>
-  <si>
-    <t>16931.13444912817</t>
-  </si>
-  <si>
-    <t>16928.837204762065</t>
-  </si>
-  <si>
-    <t>16925.535324005254</t>
-  </si>
-  <si>
-    <t>16919.926062923205</t>
-  </si>
-  <si>
-    <t>16924.771222817417</t>
-  </si>
-  <si>
-    <t>16915.351763140403</t>
-  </si>
-  <si>
-    <t>16925.824486828333</t>
-  </si>
-  <si>
-    <t>16923.122854805424</t>
-  </si>
-  <si>
-    <t>16929.526852426952</t>
-  </si>
-  <si>
-    <t>16931.917896702937</t>
-  </si>
-  <si>
-    <t>16926.186997922447</t>
-  </si>
-  <si>
-    <t>16930.057137147545</t>
-  </si>
-  <si>
-    <t>16926.76927915081</t>
-  </si>
-  <si>
-    <t>16930.056850461533</t>
-  </si>
-  <si>
-    <t>16923.965088250563</t>
-  </si>
-  <si>
-    <t>16924.630164002323</t>
-  </si>
-  <si>
-    <t>16923.207420187096</t>
-  </si>
-  <si>
-    <t>16924.155054268427</t>
-  </si>
-  <si>
-    <t>16921.701139566285</t>
-  </si>
-  <si>
-    <t>16918.856533879865</t>
-  </si>
-  <si>
-    <t>16922.303682493137</t>
-  </si>
-  <si>
-    <t>16920.494956323928</t>
-  </si>
-  <si>
-    <t>16922.124546493564</t>
-  </si>
-  <si>
-    <t>16918.477177833083</t>
-  </si>
-  <si>
-    <t>16920.116890190697</t>
-  </si>
-  <si>
-    <t>16922.825192203465</t>
-  </si>
-  <si>
-    <t>16919.133215391827</t>
-  </si>
-  <si>
-    <t>16921.537714632082</t>
-  </si>
-  <si>
-    <t>16924.527832519685</t>
-  </si>
-  <si>
-    <t>16919.68421860605</t>
-  </si>
-  <si>
-    <t>16921.369982673</t>
-  </si>
-  <si>
-    <t>16924.024987799803</t>
-  </si>
-  <si>
-    <t>16925.18333371514</t>
-  </si>
-  <si>
-    <t>16927.08520694761</t>
-  </si>
-  <si>
-    <t>16926.36301503359</t>
-  </si>
-  <si>
-    <t>16927.105422194025</t>
-  </si>
-  <si>
-    <t>16925.338491144477</t>
-  </si>
-  <si>
-    <t>16929.52125384374</t>
-  </si>
-  <si>
-    <t>16922.103107608833</t>
-  </si>
-  <si>
-    <t>16919.911594547088</t>
-  </si>
-  <si>
-    <t>16921.308027275132</t>
-  </si>
-  <si>
-    <t>16925.785716031245</t>
-  </si>
-  <si>
-    <t>16919.652149270758</t>
-  </si>
-  <si>
-    <t>16927.46389867657</t>
-  </si>
-  <si>
-    <t>16926.25784516493</t>
-  </si>
-  <si>
-    <t>16928.616300077876</t>
-  </si>
-  <si>
-    <t>16925.936050880795</t>
-  </si>
-  <si>
-    <t>16924.74952208215</t>
-  </si>
-  <si>
-    <t>16930.114615114187</t>
-  </si>
-  <si>
-    <t>16927.126198653677</t>
-  </si>
-  <si>
-    <t>16929.740343805457</t>
-  </si>
-  <si>
-    <t>16931.78267151874</t>
-  </si>
-  <si>
-    <t>16930.904153985586</t>
-  </si>
-  <si>
-    <t>16931.78747706326</t>
-  </si>
-  <si>
-    <t>16935.860337776</t>
-  </si>
-  <si>
-    <t>16933.114484678434</t>
-  </si>
-  <si>
-    <t>16936.517062650935</t>
-  </si>
-  <si>
-    <t>16932.22253244773</t>
-  </si>
-  <si>
-    <t>16934.194835018097</t>
-  </si>
-  <si>
-    <t>16931.610451772907</t>
-  </si>
-  <si>
-    <t>16934.940324884647</t>
-  </si>
-  <si>
-    <t>16933.241254811306</t>
-  </si>
-  <si>
-    <t>16940.09147491469</t>
-  </si>
-  <si>
-    <t>16933.184625453785</t>
-  </si>
-  <si>
-    <t>16938.587026570924</t>
-  </si>
-  <si>
-    <t>16937.34166236915</t>
-  </si>
-  <si>
-    <t>16937.84461117175</t>
-  </si>
-  <si>
-    <t>16937.01936831077</t>
-  </si>
-  <si>
-    <t>16940.988600694214</t>
-  </si>
-  <si>
-    <t>16935.881055273116</t>
-  </si>
-  <si>
-    <t>16944.888803566515</t>
-  </si>
-  <si>
-    <t>16939.56791711856</t>
-  </si>
-  <si>
-    <t>16942.62407302735</t>
-  </si>
-  <si>
-    <t>16940.477342614544</t>
-  </si>
-  <si>
-    <t>16937.944140009786</t>
-  </si>
-  <si>
-    <t>16947.730222081966</t>
-  </si>
-  <si>
-    <t>16942.71554628167</t>
-  </si>
-  <si>
-    <t>16944.820667233707</t>
-  </si>
-  <si>
-    <t>16951.016138157902</t>
-  </si>
-  <si>
-    <t>16945.12555834041</t>
-  </si>
-  <si>
-    <t>16945.970835158947</t>
-  </si>
-  <si>
-    <t>16944.744766658892</t>
-  </si>
-  <si>
-    <t>16946.457667368868</t>
-  </si>
-  <si>
-    <t>16943.570509609668</t>
-  </si>
-  <si>
-    <t>16947.222611981073</t>
-  </si>
-  <si>
-    <t>16942.13169304343</t>
-  </si>
-  <si>
-    <t>16947.692520771285</t>
-  </si>
-  <si>
-    <t>16938.2598179414</t>
-  </si>
-  <si>
-    <t>16938.18301619535</t>
-  </si>
-  <si>
-    <t>16939.300391637702</t>
-  </si>
-  <si>
-    <t>16937.395093296356</t>
-  </si>
-  <si>
-    <t>16935.45871008732</t>
-  </si>
-  <si>
-    <t>16934.70936753897</t>
-  </si>
-  <si>
-    <t>16935.535483155134</t>
-  </si>
-  <si>
-    <t>16938.08333012197</t>
-  </si>
-  <si>
-    <t>16933.341183665194</t>
-  </si>
-  <si>
-    <t>16938.508248604885</t>
-  </si>
-  <si>
-    <t>16928.880298798762</t>
-  </si>
-  <si>
-    <t>16936.735273102542</t>
-  </si>
-  <si>
-    <t>16930.497658012664</t>
-  </si>
-  <si>
-    <t>16931.88388120141</t>
-  </si>
-  <si>
-    <t>16939.992440223854</t>
-  </si>
-  <si>
-    <t>16933.668361350185</t>
-  </si>
-  <si>
-    <t>16939.721383768607</t>
-  </si>
-  <si>
-    <t>16941.351022646482</t>
-  </si>
-  <si>
-    <t>16943.377787602436</t>
-  </si>
-  <si>
-    <t>16942.21799830861</t>
-  </si>
-  <si>
-    <t>16939.960004046847</t>
-  </si>
-  <si>
-    <t>16941.69363122747</t>
-  </si>
-  <si>
-    <t>16944.793911093</t>
-  </si>
-  <si>
-    <t>16944.04321795304</t>
-  </si>
-  <si>
-    <t>16945.37090477735</t>
-  </si>
-  <si>
-    <t>16944.43938959488</t>
-  </si>
-  <si>
-    <t>16947.609919667433</t>
-  </si>
-  <si>
-    <t>16946.43947939319</t>
-  </si>
-  <si>
-    <t>16947.691517565796</t>
-  </si>
-  <si>
-    <t>16942.821240516092</t>
-  </si>
-  <si>
-    <t>16948.560051325654</t>
-  </si>
-  <si>
-    <t>16946.846135821124</t>
-  </si>
-  <si>
-    <t>16950.003136628984</t>
-  </si>
-  <si>
-    <t>16947.737878045147</t>
-  </si>
-  <si>
-    <t>16951.285417465544</t>
-  </si>
-  <si>
-    <t>16949.027749806035</t>
-  </si>
-  <si>
-    <t>16953.00129688868</t>
-  </si>
-  <si>
-    <t>16951.602421060492</t>
-  </si>
-  <si>
-    <t>16952.944429231567</t>
-  </si>
-  <si>
-    <t>16951.141445333986</t>
-  </si>
-  <si>
-    <t>16952.88933100307</t>
-  </si>
-  <si>
-    <t>16955.30867521481</t>
-  </si>
-  <si>
-    <t>16951.722054971196</t>
-  </si>
-  <si>
-    <t>16950.3878254771</t>
-  </si>
-  <si>
-    <t>16954.146902639885</t>
-  </si>
-  <si>
-    <t>16955.950334518624</t>
-  </si>
-  <si>
-    <t>16958.14643702147</t>
-  </si>
-  <si>
-    <t>16956.035554050606</t>
-  </si>
-  <si>
-    <t>16958.584638711396</t>
-  </si>
-  <si>
-    <t>16953.415594970407</t>
-  </si>
-  <si>
-    <t>16955.55864244315</t>
-  </si>
-  <si>
-    <t>16945.757890262495</t>
-  </si>
-  <si>
-    <t>16953.61074743911</t>
-  </si>
-  <si>
-    <t>16945.547649207874</t>
-  </si>
-  <si>
-    <t>16954.306977385248</t>
-  </si>
-  <si>
-    <t>16954.81975381737</t>
-  </si>
-  <si>
-    <t>16953.803573361063</t>
-  </si>
-  <si>
-    <t>16956.657250654072</t>
-  </si>
-  <si>
-    <t>16951.94066448779</t>
-  </si>
-  <si>
-    <t>16956.72744431718</t>
-  </si>
-  <si>
-    <t>16951.285875131452</t>
-  </si>
-  <si>
-    <t>16955.359446866416</t>
-  </si>
-  <si>
-    <t>16952.616907656797</t>
-  </si>
-  <si>
-    <t>16961.226758570647</t>
-  </si>
-  <si>
-    <t>16955.680725549395</t>
-  </si>
-  <si>
-    <t>16959.92186510441</t>
-  </si>
-  <si>
-    <t>16959.144507327463</t>
-  </si>
-  <si>
-    <t>16961.108425458428</t>
-  </si>
-  <si>
-    <t>16967.28257745357</t>
-  </si>
-  <si>
-    <t>16960.650039588585</t>
-  </si>
-  <si>
-    <t>16956.493225319693</t>
-  </si>
-  <si>
-    <t>16957.562845210312</t>
-  </si>
-  <si>
-    <t>16954.71384124193</t>
-  </si>
-  <si>
-    <t>16966.68165279221</t>
-  </si>
-  <si>
-    <t>16966.49174196467</t>
-  </si>
-  <si>
-    <t>16966.183117237386</t>
-  </si>
-  <si>
-    <t>16970.969770145246</t>
-  </si>
-  <si>
-    <t>16965.002305616643</t>
-  </si>
-  <si>
-    <t>16952.836855637535</t>
-  </si>
-  <si>
-    <t>16965.28375486909</t>
-  </si>
-  <si>
-    <t>16953.807947521305</t>
-  </si>
-  <si>
-    <t>16953.6163648392</t>
-  </si>
-  <si>
-    <t>16951.83182921501</t>
-  </si>
-  <si>
-    <t>16952.096857467706</t>
-  </si>
-  <si>
-    <t>16953.037716562838</t>
-  </si>
-  <si>
-    <t>16951.10996698194</t>
-  </si>
-  <si>
-    <t>16949.537184360284</t>
-  </si>
-  <si>
-    <t>16947.518843531678</t>
-  </si>
-  <si>
-    <t>16956.90016318666</t>
-  </si>
-  <si>
-    <t>16949.158762376308</t>
-  </si>
-  <si>
-    <t>16963.651986199176</t>
-  </si>
-  <si>
-    <t>16953.50614207906</t>
-  </si>
-  <si>
-    <t>16952.932859912904</t>
-  </si>
-  <si>
-    <t>16962.916761299075</t>
-  </si>
-  <si>
-    <t>16962.064113757915</t>
-  </si>
-  <si>
-    <t>16962.30243145773</t>
-  </si>
-  <si>
-    <t>16962.811345807775</t>
-  </si>
-  <si>
-    <t>16965.605329181468</t>
-  </si>
-  <si>
-    <t>16955.037320869815</t>
-  </si>
-  <si>
-    <t>16948.404182140366</t>
-  </si>
-  <si>
-    <t>16949.45127297333</t>
-  </si>
-  <si>
-    <t>16951.09871079738</t>
-  </si>
-  <si>
-    <t>16939.70719978697</t>
-  </si>
-  <si>
-    <t>16949.170195960673</t>
-  </si>
-  <si>
-    <t>16937.622132901735</t>
-  </si>
-  <si>
-    <t>16949.73478609602</t>
-  </si>
-  <si>
-    <t>16943.155423578548</t>
-  </si>
-  <si>
-    <t>16949.557898457086</t>
-  </si>
-  <si>
-    <t>16936.810955896082</t>
-  </si>
-  <si>
-    <t>16942.572552229758</t>
-  </si>
-  <si>
-    <t>16932.59744638683</t>
-  </si>
-  <si>
-    <t>16934.054214402142</t>
-  </si>
-  <si>
-    <t>16929.006331798068</t>
-  </si>
-  <si>
-    <t>16925.85970866166</t>
-  </si>
-  <si>
-    <t>16922.565594962914</t>
-  </si>
-  <si>
-    <t>16926.369445247114</t>
-  </si>
-  <si>
-    <t>16924.47792459877</t>
-  </si>
-  <si>
-    <t>16932.11285725004</t>
-  </si>
-  <si>
-    <t>16930.77013196116</t>
-  </si>
-  <si>
-    <t>16918.84401809886</t>
-  </si>
-  <si>
-    <t>16923.529364504833</t>
-  </si>
-  <si>
-    <t>16911.44351668645</t>
-  </si>
-  <si>
-    <t>16902.514152068845</t>
-  </si>
-  <si>
-    <t>16914.23961628127</t>
-  </si>
-  <si>
-    <t>16906.602553392877</t>
-  </si>
-  <si>
-    <t>16910.889130605945</t>
-  </si>
-  <si>
-    <t>16934.158955841795</t>
-  </si>
-  <si>
-    <t>16937.72192935378</t>
-  </si>
-  <si>
-    <t>16931.84013680773</t>
-  </si>
-  <si>
-    <t>16950.63352015854</t>
-  </si>
-  <si>
-    <t>16932.248500093923</t>
-  </si>
-  <si>
-    <t>16935.281135313657</t>
-  </si>
-  <si>
-    <t>16971.133258431728</t>
-  </si>
-  <si>
-    <t>16949.930476905865</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44934.13194444445</v>
+        <v>44935.00694444445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44934.12847222222</v>
+        <v>44935.00347222222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44934.125</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44934.12152777778</v>
+        <v>44934.99652777778</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44934.11805555555</v>
+        <v>44934.99305555555</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44934.11458333334</v>
+        <v>44934.98958333334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44934.11111111111</v>
+        <v>44934.98611111111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44934.10763888889</v>
+        <v>44934.98263888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44934.10416666666</v>
+        <v>44934.97916666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44934.10069444445</v>
+        <v>44934.97569444445</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44934.09722222222</v>
+        <v>44934.97222222222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44934.09375</v>
+        <v>44934.96875</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44934.09027777778</v>
+        <v>44934.96527777778</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44934.08680555555</v>
+        <v>44934.96180555555</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44934.08333333334</v>
+        <v>44934.95833333334</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44934.07986111111</v>
+        <v>44934.95486111111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44934.07638888889</v>
+        <v>44934.95138888889</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44934.07291666666</v>
+        <v>44934.94791666666</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44934.06944444445</v>
+        <v>44934.94444444445</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44934.06597222222</v>
+        <v>44934.94097222222</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44934.0625</v>
+        <v>44934.9375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44934.05902777778</v>
+        <v>44934.93402777778</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44934.05555555555</v>
+        <v>44934.93055555555</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44934.05208333334</v>
+        <v>44934.92708333334</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44934.04861111111</v>
+        <v>44934.92361111111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44934.04513888889</v>
+        <v>44934.92013888889</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44934.04166666666</v>
+        <v>44934.91666666666</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44934.03819444445</v>
+        <v>44934.91319444445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44934.03472222222</v>
+        <v>44934.90972222222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44934.03125</v>
+        <v>44934.90625</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44934.02777777778</v>
+        <v>44934.90277777778</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44934.02430555555</v>
+        <v>44934.89930555555</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44934.02083333334</v>
+        <v>44934.89583333334</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44934.01736111111</v>
+        <v>44934.89236111111</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44934.01388888889</v>
+        <v>44934.88888888889</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44934.01041666666</v>
+        <v>44934.88541666666</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44934.00694444445</v>
+        <v>44934.88194444445</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44934.00347222222</v>
+        <v>44934.87847222222</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44934</v>
+        <v>44934.875</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44933.99652777778</v>
+        <v>44934.87152777778</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44933.99305555555</v>
+        <v>44934.86805555555</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44933.98958333334</v>
+        <v>44934.86458333334</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44933.98611111111</v>
+        <v>44934.86111111111</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44933.98263888889</v>
+        <v>44934.85763888889</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44933.97916666666</v>
+        <v>44934.85416666666</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44933.97569444445</v>
+        <v>44934.85069444445</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44933.97222222222</v>
+        <v>44934.84722222222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44933.96875</v>
+        <v>44934.84375</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44933.96527777778</v>
+        <v>44934.84027777778</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44933.96180555555</v>
+        <v>44934.83680555555</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44933.95833333334</v>
+        <v>44934.83333333334</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44933.95486111111</v>
+        <v>44934.82986111111</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44933.95138888889</v>
+        <v>44934.82638888889</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44933.94791666666</v>
+        <v>44934.82291666666</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44933.94444444445</v>
+        <v>44934.81944444445</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44933.94097222222</v>
+        <v>44934.81597222222</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44933.9375</v>
+        <v>44934.8125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44933.93402777778</v>
+        <v>44934.80902777778</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44933.93055555555</v>
+        <v>44934.80555555555</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44933.92708333334</v>
+        <v>44934.80208333334</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44933.92361111111</v>
+        <v>44934.79861111111</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44933.92013888889</v>
+        <v>44934.79513888889</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44933.91666666666</v>
+        <v>44934.79166666666</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44933.91319444445</v>
+        <v>44934.78819444445</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44933.90972222222</v>
+        <v>44934.78472222222</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44933.90625</v>
+        <v>44934.78125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44933.90277777778</v>
+        <v>44934.77777777778</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44933.89930555555</v>
+        <v>44934.77430555555</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44933.89583333334</v>
+        <v>44934.77083333334</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44933.89236111111</v>
+        <v>44934.76736111111</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44933.88888888889</v>
+        <v>44934.76388888889</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44933.88541666666</v>
+        <v>44934.76041666666</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44933.88194444445</v>
+        <v>44934.75694444445</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44933.87847222222</v>
+        <v>44934.75347222222</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44933.875</v>
+        <v>44934.75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44933.87152777778</v>
+        <v>44934.74652777778</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44933.86805555555</v>
+        <v>44934.74305555555</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44933.86458333334</v>
+        <v>44934.73958333334</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44933.86111111111</v>
+        <v>44934.73611111111</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44933.85763888889</v>
+        <v>44934.73263888889</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44933.85416666666</v>
+        <v>44934.72916666666</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44933.85069444445</v>
+        <v>44934.72569444445</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44933.84722222222</v>
+        <v>44934.72222222222</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44933.84375</v>
+        <v>44934.71875</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44933.84027777778</v>
+        <v>44934.71527777778</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44933.83680555555</v>
+        <v>44934.71180555555</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44933.83333333334</v>
+        <v>44934.70833333334</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44933.82986111111</v>
+        <v>44934.70486111111</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44933.82638888889</v>
+        <v>44934.70138888889</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44933.82291666666</v>
+        <v>44934.69791666666</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44933.81944444445</v>
+        <v>44934.69444444445</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44933.81597222222</v>
+        <v>44934.69097222222</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44933.8125</v>
+        <v>44934.6875</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44933.80902777778</v>
+        <v>44934.68402777778</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44933.80555555555</v>
+        <v>44934.68055555555</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44933.80208333334</v>
+        <v>44934.67708333334</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44933.79861111111</v>
+        <v>44934.67361111111</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44933.79513888889</v>
+        <v>44934.67013888889</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44933.79166666666</v>
+        <v>44934.66666666666</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44933.78819444445</v>
+        <v>44934.66319444445</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44933.78472222222</v>
+        <v>44934.65972222222</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44933.78125</v>
+        <v>44934.65625</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44933.77777777778</v>
+        <v>44934.65277777778</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44933.77430555555</v>
+        <v>44934.64930555555</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44933.77083333334</v>
+        <v>44934.64583333334</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44933.76736111111</v>
+        <v>44934.64236111111</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44933.76388888889</v>
+        <v>44934.63888888889</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44933.76041666666</v>
+        <v>44934.63541666666</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44933.75694444445</v>
+        <v>44934.63194444445</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44933.75347222222</v>
+        <v>44934.62847222222</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44933.75</v>
+        <v>44934.625</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44933.74652777778</v>
+        <v>44934.62152777778</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44933.74305555555</v>
+        <v>44934.61805555555</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44933.73958333334</v>
+        <v>44934.61458333334</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44933.73611111111</v>
+        <v>44934.61111111111</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44933.73263888889</v>
+        <v>44934.60763888889</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44933.72916666666</v>
+        <v>44934.60416666666</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44933.72569444445</v>
+        <v>44934.60069444445</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44933.72222222222</v>
+        <v>44934.59722222222</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44933.71875</v>
+        <v>44934.59375</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44933.71527777778</v>
+        <v>44934.59027777778</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44933.71180555555</v>
+        <v>44934.58680555555</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44933.70833333334</v>
+        <v>44934.58333333334</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44933.70486111111</v>
+        <v>44934.57986111111</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44933.70138888889</v>
+        <v>44934.57638888889</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44933.69791666666</v>
+        <v>44934.57291666666</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44933.69444444445</v>
+        <v>44934.56944444445</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44933.69097222222</v>
+        <v>44934.56597222222</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44933.6875</v>
+        <v>44934.5625</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44933.68402777778</v>
+        <v>44934.55902777778</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44933.68055555555</v>
+        <v>44934.55555555555</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44933.67708333334</v>
+        <v>44934.55208333334</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44933.67361111111</v>
+        <v>44934.54861111111</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44933.67013888889</v>
+        <v>44934.54513888889</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44933.66666666666</v>
+        <v>44934.54166666666</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44933.66319444445</v>
+        <v>44934.53819444445</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44933.65972222222</v>
+        <v>44934.53472222222</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44933.65625</v>
+        <v>44934.53125</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44933.65277777778</v>
+        <v>44934.52777777778</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44933.64930555555</v>
+        <v>44934.52430555555</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44933.64583333334</v>
+        <v>44934.52083333334</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44933.64236111111</v>
+        <v>44934.51736111111</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44933.63888888889</v>
+        <v>44934.51388888889</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44933.63541666666</v>
+        <v>44934.51041666666</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44933.63194444445</v>
+        <v>44934.50694444445</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44933.62847222222</v>
+        <v>44934.50347222222</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44933.625</v>
+        <v>44934.5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44933.62152777778</v>
+        <v>44934.49652777778</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44933.61805555555</v>
+        <v>44934.49305555555</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44933.61458333334</v>
+        <v>44934.48958333334</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44933.61111111111</v>
+        <v>44934.48611111111</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44933.60763888889</v>
+        <v>44934.48263888889</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44933.60416666666</v>
+        <v>44934.47916666666</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44933.60069444445</v>
+        <v>44934.47569444445</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44933.59722222222</v>
+        <v>44934.47222222222</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44933.59375</v>
+        <v>44934.46875</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44933.59027777778</v>
+        <v>44934.46527777778</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44933.58680555555</v>
+        <v>44934.46180555555</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44933.58333333334</v>
+        <v>44934.45833333334</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44933.57986111111</v>
+        <v>44934.45486111111</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44933.57638888889</v>
+        <v>44934.45138888889</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44933.57291666666</v>
+        <v>44934.44791666666</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44933.56944444445</v>
+        <v>44934.44444444445</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44933.56597222222</v>
+        <v>44934.44097222222</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44933.5625</v>
+        <v>44934.4375</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44933.55902777778</v>
+        <v>44934.43402777778</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44933.55555555555</v>
+        <v>44934.43055555555</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44933.55208333334</v>
+        <v>44934.42708333334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44933.54861111111</v>
+        <v>44934.42361111111</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44933.54513888889</v>
+        <v>44934.42013888889</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44933.54166666666</v>
+        <v>44934.41666666666</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44933.53819444445</v>
+        <v>44934.41319444445</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44933.53472222222</v>
+        <v>44934.40972222222</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44933.53125</v>
+        <v>44934.40625</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44933.52777777778</v>
+        <v>44934.40277777778</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44933.52430555555</v>
+        <v>44934.39930555555</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44933.52083333334</v>
+        <v>44934.39583333334</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44933.51736111111</v>
+        <v>44934.39236111111</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44933.51388888889</v>
+        <v>44934.38888888889</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44933.51041666666</v>
+        <v>44934.38541666666</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44933.50694444445</v>
+        <v>44934.38194444445</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44933.50347222222</v>
+        <v>44934.37847222222</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44933.5</v>
+        <v>44934.375</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44933.49652777778</v>
+        <v>44934.37152777778</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44933.49305555555</v>
+        <v>44934.36805555555</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44933.48958333334</v>
+        <v>44934.36458333334</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44933.48611111111</v>
+        <v>44934.36111111111</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44933.48263888889</v>
+        <v>44934.35763888889</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44933.47916666666</v>
+        <v>44934.35416666666</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44933.47569444445</v>
+        <v>44934.35069444445</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44933.47222222222</v>
+        <v>44934.34722222222</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44933.46875</v>
+        <v>44934.34375</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44933.46527777778</v>
+        <v>44934.34027777778</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44933.46180555555</v>
+        <v>44934.33680555555</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44933.45833333334</v>
+        <v>44934.33333333334</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44933.45486111111</v>
+        <v>44934.32986111111</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44933.45138888889</v>
+        <v>44934.32638888889</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44933.44791666666</v>
+        <v>44934.32291666666</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44933.44444444445</v>
+        <v>44934.31944444445</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44933.44097222222</v>
+        <v>44934.31597222222</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44933.4375</v>
+        <v>44934.3125</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44933.43402777778</v>
+        <v>44934.30902777778</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44933.43055555555</v>
+        <v>44934.30555555555</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44933.42708333334</v>
+        <v>44934.30208333334</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44933.42361111111</v>
+        <v>44934.29861111111</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44933.42013888889</v>
+        <v>44934.29513888889</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44933.41666666666</v>
+        <v>44934.29166666666</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44933.41319444445</v>
+        <v>44934.28819444445</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44933.40972222222</v>
+        <v>44934.28472222222</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44933.40625</v>
+        <v>44934.28125</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44933.40277777778</v>
+        <v>44934.27777777778</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44933.39930555555</v>
+        <v>44934.27430555555</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44933.39583333334</v>
+        <v>44934.27083333334</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44933.39236111111</v>
+        <v>44934.26736111111</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44933.38888888889</v>
+        <v>44934.26388888889</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44933.38541666666</v>
+        <v>44934.26041666666</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44933.38194444445</v>
+        <v>44934.25694444445</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44933.37847222222</v>
+        <v>44934.25347222222</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44933.375</v>
+        <v>44934.25</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44933.37152777778</v>
+        <v>44934.24652777778</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44933.36805555555</v>
+        <v>44934.24305555555</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44933.36458333334</v>
+        <v>44934.23958333334</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44933.36111111111</v>
+        <v>44934.23611111111</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44933.35763888889</v>
+        <v>44934.23263888889</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44933.35416666666</v>
+        <v>44934.22916666666</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44933.35069444445</v>
+        <v>44934.22569444445</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44933.34722222222</v>
+        <v>44934.22222222222</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44933.34375</v>
+        <v>44934.21875</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44933.34027777778</v>
+        <v>44934.21527777778</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44933.33680555555</v>
+        <v>44934.21180555555</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44933.33333333334</v>
+        <v>44934.20833333334</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44933.32986111111</v>
+        <v>44934.20486111111</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44933.32638888889</v>
+        <v>44934.20138888889</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44933.32291666666</v>
+        <v>44934.19791666666</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44933.31944444445</v>
+        <v>44934.19444444445</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44933.31597222222</v>
+        <v>44934.19097222222</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44933.3125</v>
+        <v>44934.1875</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44933.30902777778</v>
+        <v>44934.18402777778</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44933.30555555555</v>
+        <v>44934.18055555555</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44933.30208333334</v>
+        <v>44934.17708333334</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44933.29861111111</v>
+        <v>44934.17361111111</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44933.29513888889</v>
+        <v>44934.17013888889</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44933.29166666666</v>
+        <v>44934.16666666666</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44933.28819444445</v>
+        <v>44934.16319444445</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44933.28472222222</v>
+        <v>44934.15972222222</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44933.28125</v>
+        <v>44934.15625</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44933.27777777778</v>
+        <v>44934.15277777778</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44933.27430555555</v>
+        <v>44934.14930555555</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44933.27083333334</v>
+        <v>44934.14583333334</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44933.26736111111</v>
+        <v>44934.14236111111</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44933.26388888889</v>
+        <v>44934.13888888889</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44933.26041666666</v>
+        <v>44934.13541666666</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44933.25694444445</v>
+        <v>44934.13194444445</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44933.25347222222</v>
+        <v>44934.12847222222</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44933.25</v>
+        <v>44934.125</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44933.24652777778</v>
+        <v>44934.12152777778</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44933.24305555555</v>
+        <v>44934.11805555555</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44933.23958333334</v>
+        <v>44934.11458333334</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44933.23611111111</v>
+        <v>44934.11111111111</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44933.23263888889</v>
+        <v>44934.10763888889</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44933.22916666666</v>
+        <v>44934.10416666666</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44933.22569444445</v>
+        <v>44934.10069444445</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44933.22222222222</v>
+        <v>44934.09722222222</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44933.21875</v>
+        <v>44934.09375</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44933.21527777778</v>
+        <v>44934.09027777778</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44933.21180555555</v>
+        <v>44934.08680555555</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44933.20833333334</v>
+        <v>44934.08333333334</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44933.20486111111</v>
+        <v>44934.07986111111</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44933.20138888889</v>
+        <v>44934.07638888889</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44933.19791666666</v>
+        <v>44934.07291666666</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44933.19444444445</v>
+        <v>44934.06944444445</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44933.19097222222</v>
+        <v>44934.06597222222</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44933.1875</v>
+        <v>44934.0625</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44933.18402777778</v>
+        <v>44934.05902777778</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44933.18055555555</v>
+        <v>44934.05555555555</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44933.17708333334</v>
+        <v>44934.05208333334</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44933.17361111111</v>
+        <v>44934.04861111111</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44933.17013888889</v>
+        <v>44934.04513888889</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44933.16666666666</v>
+        <v>44934.04166666666</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44933.16319444445</v>
+        <v>44934.03819444445</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44933.15972222222</v>
+        <v>44934.03472222222</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44933.15625</v>
+        <v>44934.03125</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44933.15277777778</v>
+        <v>44934.02777777778</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44933.14930555555</v>
+        <v>44934.02430555555</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44933.14583333334</v>
+        <v>44934.02083333334</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44933.14236111111</v>
+        <v>44934.01736111111</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44933.13888888889</v>
+        <v>44934.01388888889</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44933.13541666666</v>
+        <v>44934.01041666666</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,6 +22,66 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>16942.659990836313</t>
+  </si>
+  <si>
+    <t>16935.17104832712</t>
+  </si>
+  <si>
+    <t>16941.840778320657</t>
+  </si>
+  <si>
+    <t>16946.51360287172</t>
+  </si>
+  <si>
+    <t>16950.269493087133</t>
+  </si>
+  <si>
+    <t>16942.61742931324</t>
+  </si>
+  <si>
+    <t>16949.15631810946</t>
+  </si>
+  <si>
+    <t>16942.97855696326</t>
+  </si>
+  <si>
+    <t>16946.34372020412</t>
+  </si>
+  <si>
+    <t>16941.883186421797</t>
+  </si>
+  <si>
+    <t>16948.15071594882</t>
+  </si>
+  <si>
+    <t>16943.659762020223</t>
+  </si>
+  <si>
+    <t>16944.894009399955</t>
+  </si>
+  <si>
+    <t>16950.300104985192</t>
+  </si>
+  <si>
+    <t>16948.694969384902</t>
+  </si>
+  <si>
+    <t>16950.82434749267</t>
+  </si>
+  <si>
+    <t>16953.540555485146</t>
+  </si>
+  <si>
+    <t>16953.565232822573</t>
+  </si>
+  <si>
+    <t>16956.01414348142</t>
+  </si>
+  <si>
+    <t>16954.482052672265</t>
+  </si>
+  <si>
     <t>16954.717000191624</t>
   </si>
   <si>
@@ -824,66 +884,6 @@
   </si>
   <si>
     <t>16943.030574476754</t>
-  </si>
-  <si>
-    <t>16939.00040275391</t>
-  </si>
-  <si>
-    <t>16941.498473805663</t>
-  </si>
-  <si>
-    <t>16940.609438724357</t>
-  </si>
-  <si>
-    <t>16937.277743811683</t>
-  </si>
-  <si>
-    <t>16939.104884329015</t>
-  </si>
-  <si>
-    <t>16936.869845622034</t>
-  </si>
-  <si>
-    <t>16939.634163832998</t>
-  </si>
-  <si>
-    <t>16936.017944261654</t>
-  </si>
-  <si>
-    <t>16937.109166300634</t>
-  </si>
-  <si>
-    <t>16937.257380008603</t>
-  </si>
-  <si>
-    <t>16934.44293017257</t>
-  </si>
-  <si>
-    <t>16936.55580966145</t>
-  </si>
-  <si>
-    <t>16934.206120971372</t>
-  </si>
-  <si>
-    <t>16932.65444126422</t>
-  </si>
-  <si>
-    <t>16939.026547470177</t>
-  </si>
-  <si>
-    <t>16932.992921734374</t>
-  </si>
-  <si>
-    <t>16934.015260619315</t>
-  </si>
-  <si>
-    <t>16931.29673190073</t>
-  </si>
-  <si>
-    <t>16933.383391980155</t>
-  </si>
-  <si>
-    <t>16931.614989502188</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44935.00694444445</v>
+        <v>44935.07638888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44935.00347222222</v>
+        <v>44935.07291666666</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44935</v>
+        <v>44935.06944444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44934.99652777778</v>
+        <v>44935.06597222222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44934.99305555555</v>
+        <v>44935.0625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44934.98958333334</v>
+        <v>44935.05902777778</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44934.98611111111</v>
+        <v>44935.05555555555</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44934.98263888889</v>
+        <v>44935.05208333334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44934.97916666666</v>
+        <v>44935.04861111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44934.97569444445</v>
+        <v>44935.04513888889</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44934.97222222222</v>
+        <v>44935.04166666666</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44934.96875</v>
+        <v>44935.03819444445</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44934.96527777778</v>
+        <v>44935.03472222222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44934.96180555555</v>
+        <v>44935.03125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44934.95833333334</v>
+        <v>44935.02777777778</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44934.95486111111</v>
+        <v>44935.02430555555</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44934.95138888889</v>
+        <v>44935.02083333334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44934.94791666666</v>
+        <v>44935.01736111111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44934.94444444445</v>
+        <v>44935.01388888889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44934.94097222222</v>
+        <v>44935.01041666666</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44934.9375</v>
+        <v>44935.00694444445</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44934.93402777778</v>
+        <v>44935.00347222222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44934.93055555555</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44934.92708333334</v>
+        <v>44934.99652777778</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44934.92361111111</v>
+        <v>44934.99305555555</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44934.92013888889</v>
+        <v>44934.98958333334</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44934.91666666666</v>
+        <v>44934.98611111111</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44934.91319444445</v>
+        <v>44934.98263888889</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44934.90972222222</v>
+        <v>44934.97916666666</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44934.90625</v>
+        <v>44934.97569444445</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44934.90277777778</v>
+        <v>44934.97222222222</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44934.89930555555</v>
+        <v>44934.96875</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44934.89583333334</v>
+        <v>44934.96527777778</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44934.89236111111</v>
+        <v>44934.96180555555</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44934.88888888889</v>
+        <v>44934.95833333334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44934.88541666666</v>
+        <v>44934.95486111111</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44934.88194444445</v>
+        <v>44934.95138888889</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44934.87847222222</v>
+        <v>44934.94791666666</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44934.875</v>
+        <v>44934.94444444445</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44934.87152777778</v>
+        <v>44934.94097222222</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44934.86805555555</v>
+        <v>44934.9375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44934.86458333334</v>
+        <v>44934.93402777778</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44934.86111111111</v>
+        <v>44934.93055555555</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44934.85763888889</v>
+        <v>44934.92708333334</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44934.85416666666</v>
+        <v>44934.92361111111</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44934.85069444445</v>
+        <v>44934.92013888889</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44934.84722222222</v>
+        <v>44934.91666666666</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44934.84375</v>
+        <v>44934.91319444445</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44934.84027777778</v>
+        <v>44934.90972222222</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44934.83680555555</v>
+        <v>44934.90625</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44934.83333333334</v>
+        <v>44934.90277777778</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44934.82986111111</v>
+        <v>44934.89930555555</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44934.82638888889</v>
+        <v>44934.89583333334</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44934.82291666666</v>
+        <v>44934.89236111111</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44934.81944444445</v>
+        <v>44934.88888888889</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44934.81597222222</v>
+        <v>44934.88541666666</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44934.8125</v>
+        <v>44934.88194444445</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44934.80902777778</v>
+        <v>44934.87847222222</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44934.80555555555</v>
+        <v>44934.875</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44934.80208333334</v>
+        <v>44934.87152777778</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44934.79861111111</v>
+        <v>44934.86805555555</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44934.79513888889</v>
+        <v>44934.86458333334</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44934.79166666666</v>
+        <v>44934.86111111111</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44934.78819444445</v>
+        <v>44934.85763888889</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44934.78472222222</v>
+        <v>44934.85416666666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44934.78125</v>
+        <v>44934.85069444445</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44934.77777777778</v>
+        <v>44934.84722222222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44934.77430555555</v>
+        <v>44934.84375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44934.77083333334</v>
+        <v>44934.84027777778</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44934.76736111111</v>
+        <v>44934.83680555555</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44934.76388888889</v>
+        <v>44934.83333333334</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44934.76041666666</v>
+        <v>44934.82986111111</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44934.75694444445</v>
+        <v>44934.82638888889</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44934.75347222222</v>
+        <v>44934.82291666666</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44934.75</v>
+        <v>44934.81944444445</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44934.74652777778</v>
+        <v>44934.81597222222</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44934.74305555555</v>
+        <v>44934.8125</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44934.73958333334</v>
+        <v>44934.80902777778</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44934.73611111111</v>
+        <v>44934.80555555555</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44934.73263888889</v>
+        <v>44934.80208333334</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44934.72916666666</v>
+        <v>44934.79861111111</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44934.72569444445</v>
+        <v>44934.79513888889</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44934.72222222222</v>
+        <v>44934.79166666666</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44934.71875</v>
+        <v>44934.78819444445</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44934.71527777778</v>
+        <v>44934.78472222222</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44934.71180555555</v>
+        <v>44934.78125</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44934.70833333334</v>
+        <v>44934.77777777778</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44934.70486111111</v>
+        <v>44934.77430555555</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44934.70138888889</v>
+        <v>44934.77083333334</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44934.69791666666</v>
+        <v>44934.76736111111</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44934.69444444445</v>
+        <v>44934.76388888889</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44934.69097222222</v>
+        <v>44934.76041666666</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44934.6875</v>
+        <v>44934.75694444445</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44934.68402777778</v>
+        <v>44934.75347222222</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44934.68055555555</v>
+        <v>44934.75</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44934.67708333334</v>
+        <v>44934.74652777778</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44934.67361111111</v>
+        <v>44934.74305555555</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44934.67013888889</v>
+        <v>44934.73958333334</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44934.66666666666</v>
+        <v>44934.73611111111</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44934.66319444445</v>
+        <v>44934.73263888889</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44934.65972222222</v>
+        <v>44934.72916666666</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44934.65625</v>
+        <v>44934.72569444445</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44934.65277777778</v>
+        <v>44934.72222222222</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44934.64930555555</v>
+        <v>44934.71875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44934.64583333334</v>
+        <v>44934.71527777778</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44934.64236111111</v>
+        <v>44934.71180555555</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44934.63888888889</v>
+        <v>44934.70833333334</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44934.63541666666</v>
+        <v>44934.70486111111</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44934.63194444445</v>
+        <v>44934.70138888889</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44934.62847222222</v>
+        <v>44934.69791666666</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44934.625</v>
+        <v>44934.69444444445</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44934.62152777778</v>
+        <v>44934.69097222222</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44934.61805555555</v>
+        <v>44934.6875</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44934.61458333334</v>
+        <v>44934.68402777778</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44934.61111111111</v>
+        <v>44934.68055555555</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44934.60763888889</v>
+        <v>44934.67708333334</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44934.60416666666</v>
+        <v>44934.67361111111</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44934.60069444445</v>
+        <v>44934.67013888889</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44934.59722222222</v>
+        <v>44934.66666666666</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44934.59375</v>
+        <v>44934.66319444445</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44934.59027777778</v>
+        <v>44934.65972222222</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44934.58680555555</v>
+        <v>44934.65625</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44934.58333333334</v>
+        <v>44934.65277777778</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44934.57986111111</v>
+        <v>44934.64930555555</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44934.57638888889</v>
+        <v>44934.64583333334</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44934.57291666666</v>
+        <v>44934.64236111111</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44934.56944444445</v>
+        <v>44934.63888888889</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44934.56597222222</v>
+        <v>44934.63541666666</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44934.5625</v>
+        <v>44934.63194444445</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44934.55902777778</v>
+        <v>44934.62847222222</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44934.55555555555</v>
+        <v>44934.625</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44934.55208333334</v>
+        <v>44934.62152777778</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44934.54861111111</v>
+        <v>44934.61805555555</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44934.54513888889</v>
+        <v>44934.61458333334</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44934.54166666666</v>
+        <v>44934.61111111111</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44934.53819444445</v>
+        <v>44934.60763888889</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44934.53472222222</v>
+        <v>44934.60416666666</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44934.53125</v>
+        <v>44934.60069444445</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44934.52777777778</v>
+        <v>44934.59722222222</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44934.52430555555</v>
+        <v>44934.59375</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44934.52083333334</v>
+        <v>44934.59027777778</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44934.51736111111</v>
+        <v>44934.58680555555</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44934.51388888889</v>
+        <v>44934.58333333334</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44934.51041666666</v>
+        <v>44934.57986111111</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44934.50694444445</v>
+        <v>44934.57638888889</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44934.50347222222</v>
+        <v>44934.57291666666</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44934.5</v>
+        <v>44934.56944444445</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44934.49652777778</v>
+        <v>44934.56597222222</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44934.49305555555</v>
+        <v>44934.5625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44934.48958333334</v>
+        <v>44934.55902777778</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44934.48611111111</v>
+        <v>44934.55555555555</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44934.48263888889</v>
+        <v>44934.55208333334</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44934.47916666666</v>
+        <v>44934.54861111111</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44934.47569444445</v>
+        <v>44934.54513888889</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44934.47222222222</v>
+        <v>44934.54166666666</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44934.46875</v>
+        <v>44934.53819444445</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44934.46527777778</v>
+        <v>44934.53472222222</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44934.46180555555</v>
+        <v>44934.53125</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44934.45833333334</v>
+        <v>44934.52777777778</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44934.45486111111</v>
+        <v>44934.52430555555</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44934.45138888889</v>
+        <v>44934.52083333334</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44934.44791666666</v>
+        <v>44934.51736111111</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44934.44444444445</v>
+        <v>44934.51388888889</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44934.44097222222</v>
+        <v>44934.51041666666</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44934.4375</v>
+        <v>44934.50694444445</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44934.43402777778</v>
+        <v>44934.50347222222</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44934.43055555555</v>
+        <v>44934.5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44934.42708333334</v>
+        <v>44934.49652777778</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44934.42361111111</v>
+        <v>44934.49305555555</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44934.42013888889</v>
+        <v>44934.48958333334</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44934.41666666666</v>
+        <v>44934.48611111111</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44934.41319444445</v>
+        <v>44934.48263888889</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44934.40972222222</v>
+        <v>44934.47916666666</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44934.40625</v>
+        <v>44934.47569444445</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44934.40277777778</v>
+        <v>44934.47222222222</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44934.39930555555</v>
+        <v>44934.46875</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44934.39583333334</v>
+        <v>44934.46527777778</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44934.39236111111</v>
+        <v>44934.46180555555</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44934.38888888889</v>
+        <v>44934.45833333334</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44934.38541666666</v>
+        <v>44934.45486111111</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44934.38194444445</v>
+        <v>44934.45138888889</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44934.37847222222</v>
+        <v>44934.44791666666</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44934.375</v>
+        <v>44934.44444444445</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44934.37152777778</v>
+        <v>44934.44097222222</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44934.36805555555</v>
+        <v>44934.4375</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44934.36458333334</v>
+        <v>44934.43402777778</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44934.36111111111</v>
+        <v>44934.43055555555</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44934.35763888889</v>
+        <v>44934.42708333334</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44934.35416666666</v>
+        <v>44934.42361111111</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44934.35069444445</v>
+        <v>44934.42013888889</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44934.34722222222</v>
+        <v>44934.41666666666</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44934.34375</v>
+        <v>44934.41319444445</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44934.34027777778</v>
+        <v>44934.40972222222</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44934.33680555555</v>
+        <v>44934.40625</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44934.33333333334</v>
+        <v>44934.40277777778</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44934.32986111111</v>
+        <v>44934.39930555555</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44934.32638888889</v>
+        <v>44934.39583333334</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44934.32291666666</v>
+        <v>44934.39236111111</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44934.31944444445</v>
+        <v>44934.38888888889</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44934.31597222222</v>
+        <v>44934.38541666666</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44934.3125</v>
+        <v>44934.38194444445</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44934.30902777778</v>
+        <v>44934.37847222222</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44934.30555555555</v>
+        <v>44934.375</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44934.30208333334</v>
+        <v>44934.37152777778</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44934.29861111111</v>
+        <v>44934.36805555555</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44934.29513888889</v>
+        <v>44934.36458333334</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44934.29166666666</v>
+        <v>44934.36111111111</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44934.28819444445</v>
+        <v>44934.35763888889</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44934.28472222222</v>
+        <v>44934.35416666666</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44934.28125</v>
+        <v>44934.35069444445</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44934.27777777778</v>
+        <v>44934.34722222222</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44934.27430555555</v>
+        <v>44934.34375</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44934.27083333334</v>
+        <v>44934.34027777778</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44934.26736111111</v>
+        <v>44934.33680555555</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44934.26388888889</v>
+        <v>44934.33333333334</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44934.26041666666</v>
+        <v>44934.32986111111</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44934.25694444445</v>
+        <v>44934.32638888889</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44934.25347222222</v>
+        <v>44934.32291666666</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44934.25</v>
+        <v>44934.31944444445</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44934.24652777778</v>
+        <v>44934.31597222222</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44934.24305555555</v>
+        <v>44934.3125</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44934.23958333334</v>
+        <v>44934.30902777778</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44934.23611111111</v>
+        <v>44934.30555555555</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44934.23263888889</v>
+        <v>44934.30208333334</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44934.22916666666</v>
+        <v>44934.29861111111</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44934.22569444445</v>
+        <v>44934.29513888889</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44934.22222222222</v>
+        <v>44934.29166666666</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44934.21875</v>
+        <v>44934.28819444445</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44934.21527777778</v>
+        <v>44934.28472222222</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44934.21180555555</v>
+        <v>44934.28125</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44934.20833333334</v>
+        <v>44934.27777777778</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44934.20486111111</v>
+        <v>44934.27430555555</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44934.20138888889</v>
+        <v>44934.27083333334</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44934.19791666666</v>
+        <v>44934.26736111111</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44934.19444444445</v>
+        <v>44934.26388888889</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44934.19097222222</v>
+        <v>44934.26041666666</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44934.1875</v>
+        <v>44934.25694444445</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44934.18402777778</v>
+        <v>44934.25347222222</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44934.18055555555</v>
+        <v>44934.25</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44934.17708333334</v>
+        <v>44934.24652777778</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44934.17361111111</v>
+        <v>44934.24305555555</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44934.17013888889</v>
+        <v>44934.23958333334</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44934.16666666666</v>
+        <v>44934.23611111111</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44934.16319444445</v>
+        <v>44934.23263888889</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44934.15972222222</v>
+        <v>44934.22916666666</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44934.15625</v>
+        <v>44934.22569444445</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44934.15277777778</v>
+        <v>44934.22222222222</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44934.14930555555</v>
+        <v>44934.21875</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44934.14583333334</v>
+        <v>44934.21527777778</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44934.14236111111</v>
+        <v>44934.21180555555</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44934.13888888889</v>
+        <v>44934.20833333334</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44934.13541666666</v>
+        <v>44934.20486111111</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44934.13194444445</v>
+        <v>44934.20138888889</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44934.12847222222</v>
+        <v>44934.19791666666</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44934.125</v>
+        <v>44934.19444444445</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44934.12152777778</v>
+        <v>44934.19097222222</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44934.11805555555</v>
+        <v>44934.1875</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44934.11458333334</v>
+        <v>44934.18402777778</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44934.11111111111</v>
+        <v>44934.18055555555</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44934.10763888889</v>
+        <v>44934.17708333334</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44934.10416666666</v>
+        <v>44934.17361111111</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44934.10069444445</v>
+        <v>44934.17013888889</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44934.09722222222</v>
+        <v>44934.16666666666</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44934.09375</v>
+        <v>44934.16319444445</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44934.09027777778</v>
+        <v>44934.15972222222</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44934.08680555555</v>
+        <v>44934.15625</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44934.08333333334</v>
+        <v>44934.15277777778</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44934.07986111111</v>
+        <v>44934.14930555555</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44934.07638888889</v>
+        <v>44934.14583333334</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44934.07291666666</v>
+        <v>44934.14236111111</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44934.06944444445</v>
+        <v>44934.13888888889</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44934.06597222222</v>
+        <v>44934.13541666666</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44934.0625</v>
+        <v>44934.13194444445</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44934.05902777778</v>
+        <v>44934.12847222222</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44934.05555555555</v>
+        <v>44934.125</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44934.05208333334</v>
+        <v>44934.12152777778</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44934.04861111111</v>
+        <v>44934.11805555555</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44934.04513888889</v>
+        <v>44934.11458333334</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44934.04166666666</v>
+        <v>44934.11111111111</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44934.03819444445</v>
+        <v>44934.10763888889</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44934.03472222222</v>
+        <v>44934.10416666666</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44934.03125</v>
+        <v>44934.10069444445</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44934.02777777778</v>
+        <v>44934.09722222222</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44934.02430555555</v>
+        <v>44934.09375</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44934.02083333334</v>
+        <v>44934.09027777778</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44934.01736111111</v>
+        <v>44934.08680555555</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44934.01388888889</v>
+        <v>44934.08333333334</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44934.01041666666</v>
+        <v>44934.07986111111</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,868 +22,868 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>16942.659990836313</t>
-  </si>
-  <si>
-    <t>16935.17104832712</t>
-  </si>
-  <si>
-    <t>16941.840778320657</t>
-  </si>
-  <si>
-    <t>16946.51360287172</t>
-  </si>
-  <si>
-    <t>16950.269493087133</t>
-  </si>
-  <si>
-    <t>16942.61742931324</t>
-  </si>
-  <si>
-    <t>16949.15631810946</t>
-  </si>
-  <si>
-    <t>16942.97855696326</t>
-  </si>
-  <si>
-    <t>16946.34372020412</t>
-  </si>
-  <si>
-    <t>16941.883186421797</t>
-  </si>
-  <si>
-    <t>16948.15071594882</t>
-  </si>
-  <si>
-    <t>16943.659762020223</t>
-  </si>
-  <si>
-    <t>16944.894009399955</t>
-  </si>
-  <si>
-    <t>16950.300104985192</t>
-  </si>
-  <si>
-    <t>16948.694969384902</t>
-  </si>
-  <si>
-    <t>16950.82434749267</t>
-  </si>
-  <si>
-    <t>16953.540555485146</t>
-  </si>
-  <si>
-    <t>16953.565232822573</t>
-  </si>
-  <si>
-    <t>16956.01414348142</t>
-  </si>
-  <si>
-    <t>16954.482052672265</t>
-  </si>
-  <si>
-    <t>16954.717000191624</t>
-  </si>
-  <si>
-    <t>16949.863835179774</t>
-  </si>
-  <si>
-    <t>16951.509453628685</t>
-  </si>
-  <si>
-    <t>16952.13167510704</t>
-  </si>
-  <si>
-    <t>16955.82459324465</t>
-  </si>
-  <si>
-    <t>16963.411713652593</t>
-  </si>
-  <si>
-    <t>16954.26299929448</t>
-  </si>
-  <si>
-    <t>16958.943604117423</t>
-  </si>
-  <si>
-    <t>16944.841548167857</t>
-  </si>
-  <si>
-    <t>16963.715534800755</t>
-  </si>
-  <si>
-    <t>16966.504280215922</t>
-  </si>
-  <si>
-    <t>16953.52763405349</t>
-  </si>
-  <si>
-    <t>16977.762671038825</t>
-  </si>
-  <si>
-    <t>16961.50906180157</t>
-  </si>
-  <si>
-    <t>16983.380093759053</t>
-  </si>
-  <si>
-    <t>16965.07859099601</t>
-  </si>
-  <si>
-    <t>16981.930362524647</t>
-  </si>
-  <si>
-    <t>16954.736817759604</t>
-  </si>
-  <si>
-    <t>16950.653512576537</t>
-  </si>
-  <si>
-    <t>16944.995774533</t>
-  </si>
-  <si>
-    <t>16949.221206844417</t>
-  </si>
-  <si>
-    <t>16945.506163990533</t>
-  </si>
-  <si>
-    <t>16944.626233185674</t>
-  </si>
-  <si>
-    <t>16944.086657884025</t>
-  </si>
-  <si>
-    <t>16944.45209794555</t>
-  </si>
-  <si>
-    <t>16944.12688871281</t>
-  </si>
-  <si>
-    <t>16944.256170025175</t>
-  </si>
-  <si>
-    <t>16952.81125851111</t>
-  </si>
-  <si>
-    <t>16946.155707920338</t>
-  </si>
-  <si>
-    <t>16946.332355997445</t>
-  </si>
-  <si>
-    <t>16943.400813523578</t>
-  </si>
-  <si>
-    <t>16942.745297078</t>
-  </si>
-  <si>
-    <t>16941.13385501941</t>
-  </si>
-  <si>
-    <t>16942.483950944254</t>
-  </si>
-  <si>
-    <t>16941.677550548517</t>
-  </si>
-  <si>
-    <t>16945.154079854703</t>
-  </si>
-  <si>
-    <t>16938.578451702662</t>
-  </si>
-  <si>
-    <t>16943.656630657395</t>
-  </si>
-  <si>
-    <t>16941.238860689184</t>
-  </si>
-  <si>
-    <t>16939.660094544095</t>
-  </si>
-  <si>
-    <t>16939.774215384758</t>
-  </si>
-  <si>
-    <t>16938.84433472995</t>
-  </si>
-  <si>
-    <t>16940.39652555437</t>
-  </si>
-  <si>
-    <t>16940.451612448884</t>
-  </si>
-  <si>
-    <t>16940.133762349018</t>
-  </si>
-  <si>
-    <t>16944.757055623504</t>
-  </si>
-  <si>
-    <t>16937.394702820184</t>
-  </si>
-  <si>
-    <t>16938.076126137676</t>
-  </si>
-  <si>
-    <t>16935.49601708929</t>
-  </si>
-  <si>
-    <t>16939.607035937926</t>
-  </si>
-  <si>
-    <t>16937.6593104699</t>
-  </si>
-  <si>
-    <t>16939.369019317288</t>
-  </si>
-  <si>
-    <t>16940.949208341408</t>
-  </si>
-  <si>
-    <t>16942.323015645667</t>
-  </si>
-  <si>
-    <t>16940.59454342255</t>
-  </si>
-  <si>
-    <t>16941.83565731595</t>
-  </si>
-  <si>
-    <t>16939.987729299235</t>
-  </si>
-  <si>
-    <t>16940.589450844393</t>
-  </si>
-  <si>
-    <t>16941.1524045625</t>
-  </si>
-  <si>
-    <t>16942.30101140175</t>
-  </si>
-  <si>
-    <t>16943.645218067188</t>
-  </si>
-  <si>
-    <t>16948.222082758046</t>
-  </si>
-  <si>
-    <t>16942.93655273607</t>
-  </si>
-  <si>
-    <t>16954.8881920387</t>
-  </si>
-  <si>
-    <t>16950.842318226463</t>
-  </si>
-  <si>
-    <t>16950.908771719467</t>
-  </si>
-  <si>
-    <t>16949.699693732062</t>
-  </si>
-  <si>
-    <t>16950.678672240938</t>
-  </si>
-  <si>
-    <t>16951.855888463524</t>
-  </si>
-  <si>
-    <t>16949.4475988837</t>
-  </si>
-  <si>
-    <t>16949.027893370287</t>
-  </si>
-  <si>
-    <t>16949.457604996365</t>
-  </si>
-  <si>
-    <t>16951.449323619498</t>
-  </si>
-  <si>
-    <t>16953.395684467618</t>
-  </si>
-  <si>
-    <t>16950.573656776538</t>
-  </si>
-  <si>
-    <t>16952.924876057474</t>
-  </si>
-  <si>
-    <t>16951.299178647878</t>
-  </si>
-  <si>
-    <t>16952.742329434048</t>
-  </si>
-  <si>
-    <t>16947.544004371975</t>
-  </si>
-  <si>
-    <t>16952.9779350512</t>
-  </si>
-  <si>
-    <t>16950.044539539133</t>
-  </si>
-  <si>
-    <t>16952.285872509183</t>
-  </si>
-  <si>
-    <t>16951.07929119857</t>
-  </si>
-  <si>
-    <t>16949.933591429897</t>
-  </si>
-  <si>
-    <t>16945.654093703513</t>
-  </si>
-  <si>
-    <t>16952.14765014725</t>
-  </si>
-  <si>
-    <t>16951.611817312158</t>
-  </si>
-  <si>
-    <t>16949.864616062237</t>
-  </si>
-  <si>
-    <t>16960.685156304375</t>
-  </si>
-  <si>
-    <t>16944.978380827946</t>
-  </si>
-  <si>
-    <t>16958.12770624439</t>
-  </si>
-  <si>
-    <t>16966.110877713138</t>
-  </si>
-  <si>
-    <t>16965.737583440074</t>
-  </si>
-  <si>
-    <t>16961.88516204373</t>
-  </si>
-  <si>
-    <t>16962.240708073445</t>
-  </si>
-  <si>
-    <t>16962.15075851327</t>
-  </si>
-  <si>
-    <t>16960.046144751628</t>
-  </si>
-  <si>
-    <t>16959.519976694824</t>
-  </si>
-  <si>
-    <t>16956.8094143818</t>
-  </si>
-  <si>
-    <t>16957.926915920892</t>
-  </si>
-  <si>
-    <t>16957.248011570708</t>
-  </si>
-  <si>
-    <t>16952.830554488286</t>
-  </si>
-  <si>
-    <t>16956.766611139574</t>
-  </si>
-  <si>
-    <t>16958.338814136674</t>
-  </si>
-  <si>
-    <t>16954.708909474757</t>
-  </si>
-  <si>
-    <t>16959.105809157092</t>
-  </si>
-  <si>
-    <t>16959.23449645868</t>
-  </si>
-  <si>
-    <t>16960.18842034397</t>
-  </si>
-  <si>
-    <t>16961.684448720018</t>
-  </si>
-  <si>
-    <t>16963.721725250987</t>
-  </si>
-  <si>
-    <t>16964.078990675836</t>
-  </si>
-  <si>
-    <t>16965.150506476137</t>
-  </si>
-  <si>
-    <t>16963.221607166965</t>
-  </si>
-  <si>
-    <t>16958.874370041252</t>
-  </si>
-  <si>
-    <t>16960.875750666994</t>
-  </si>
-  <si>
-    <t>16956.986146100026</t>
-  </si>
-  <si>
-    <t>16954.422222103996</t>
-  </si>
-  <si>
-    <t>16956.82427620246</t>
-  </si>
-  <si>
-    <t>16952.87665674647</t>
-  </si>
-  <si>
-    <t>16954.086252485562</t>
-  </si>
-  <si>
-    <t>16957.090551214613</t>
-  </si>
-  <si>
-    <t>16951.971129058824</t>
-  </si>
-  <si>
-    <t>16954.702269111538</t>
-  </si>
-  <si>
-    <t>16950.85556332928</t>
-  </si>
-  <si>
-    <t>16946.050944334853</t>
-  </si>
-  <si>
-    <t>16951.58979331664</t>
-  </si>
-  <si>
-    <t>16949.051646453892</t>
-  </si>
-  <si>
-    <t>16950.02788312033</t>
-  </si>
-  <si>
-    <t>16947.080747089865</t>
-  </si>
-  <si>
-    <t>16949.133726037955</t>
-  </si>
-  <si>
-    <t>16950.062199741224</t>
-  </si>
-  <si>
-    <t>16946.984106368032</t>
-  </si>
-  <si>
-    <t>16951.01290093513</t>
-  </si>
-  <si>
-    <t>16946.857564233647</t>
-  </si>
-  <si>
-    <t>16949.674073277885</t>
-  </si>
-  <si>
-    <t>16947.932137883792</t>
-  </si>
-  <si>
-    <t>16949.794514479698</t>
-  </si>
-  <si>
-    <t>16947.701017396</t>
-  </si>
-  <si>
-    <t>16950.071256832318</t>
-  </si>
-  <si>
-    <t>16947.206612692757</t>
-  </si>
-  <si>
-    <t>16950.709779312074</t>
-  </si>
-  <si>
-    <t>16949.708511588105</t>
-  </si>
-  <si>
-    <t>16949.622056344117</t>
-  </si>
-  <si>
-    <t>16944.966760391166</t>
-  </si>
-  <si>
-    <t>16949.255975067386</t>
-  </si>
-  <si>
-    <t>16946.511951732246</t>
-  </si>
-  <si>
-    <t>16945.496979639764</t>
-  </si>
-  <si>
-    <t>16946.091614944526</t>
-  </si>
-  <si>
-    <t>16946.626582747595</t>
-  </si>
-  <si>
-    <t>16944.123610082992</t>
-  </si>
-  <si>
-    <t>16942.45435213534</t>
-  </si>
-  <si>
-    <t>16946.23187145134</t>
-  </si>
-  <si>
-    <t>16943.617237127</t>
-  </si>
-  <si>
-    <t>16946.921714671003</t>
-  </si>
-  <si>
-    <t>16943.431850548284</t>
-  </si>
-  <si>
-    <t>16946.135149674155</t>
-  </si>
-  <si>
-    <t>16944.71840145234</t>
-  </si>
-  <si>
-    <t>16943.991025109342</t>
-  </si>
-  <si>
-    <t>16949.379242096835</t>
-  </si>
-  <si>
-    <t>16939.184779157677</t>
-  </si>
-  <si>
-    <t>16949.66340394794</t>
-  </si>
-  <si>
-    <t>16934.60939808067</t>
-  </si>
-  <si>
-    <t>16944.4516703292</t>
-  </si>
-  <si>
-    <t>16938.248096867468</t>
-  </si>
-  <si>
-    <t>16944.879455650233</t>
-  </si>
-  <si>
-    <t>16937.765581713455</t>
-  </si>
-  <si>
-    <t>16941.610763755038</t>
-  </si>
-  <si>
-    <t>16943.669831050753</t>
-  </si>
-  <si>
-    <t>16940.737364773388</t>
-  </si>
-  <si>
-    <t>16943.11236344031</t>
-  </si>
-  <si>
-    <t>16945.101960136257</t>
-  </si>
-  <si>
-    <t>16945.17967219259</t>
-  </si>
-  <si>
-    <t>16942.683347961745</t>
-  </si>
-  <si>
-    <t>16944.262452435425</t>
-  </si>
-  <si>
-    <t>16940.69043169575</t>
-  </si>
-  <si>
-    <t>16944.430347847683</t>
-  </si>
-  <si>
-    <t>16943.28827312179</t>
-  </si>
-  <si>
-    <t>16950.490830032904</t>
-  </si>
-  <si>
-    <t>16947.819797719345</t>
-  </si>
-  <si>
-    <t>16950.66557347789</t>
-  </si>
-  <si>
-    <t>16948.946945647705</t>
-  </si>
-  <si>
-    <t>16948.768824026873</t>
-  </si>
-  <si>
-    <t>16952.96637870168</t>
-  </si>
-  <si>
-    <t>16941.629938146736</t>
-  </si>
-  <si>
-    <t>16955.786817117405</t>
-  </si>
-  <si>
-    <t>16940.30757194676</t>
-  </si>
-  <si>
-    <t>16948.30088017277</t>
-  </si>
-  <si>
-    <t>16949.09575367723</t>
-  </si>
-  <si>
-    <t>16952.321020567844</t>
-  </si>
-  <si>
-    <t>16951.011119670227</t>
-  </si>
-  <si>
-    <t>16950.261247554576</t>
-  </si>
-  <si>
-    <t>16947.727906594344</t>
-  </si>
-  <si>
-    <t>16956.815537185677</t>
-  </si>
-  <si>
-    <t>16944.73804134601</t>
-  </si>
-  <si>
-    <t>16949.967691115908</t>
-  </si>
-  <si>
-    <t>16948.9723965421</t>
-  </si>
-  <si>
-    <t>16953.670548967548</t>
-  </si>
-  <si>
-    <t>16952.29160436722</t>
-  </si>
-  <si>
-    <t>16950.340908781094</t>
-  </si>
-  <si>
-    <t>16950.83343054679</t>
-  </si>
-  <si>
-    <t>16951.378014444374</t>
-  </si>
-  <si>
-    <t>16955.976189415247</t>
-  </si>
-  <si>
-    <t>16958.085890063347</t>
-  </si>
-  <si>
-    <t>16953.25373112189</t>
-  </si>
-  <si>
-    <t>16961.795283258452</t>
-  </si>
-  <si>
-    <t>16962.399182972746</t>
-  </si>
-  <si>
-    <t>16956.262946700983</t>
-  </si>
-  <si>
-    <t>16955.928193487023</t>
-  </si>
-  <si>
-    <t>16958.62618924143</t>
-  </si>
-  <si>
-    <t>16953.86704695073</t>
-  </si>
-  <si>
-    <t>16958.20300997661</t>
-  </si>
-  <si>
-    <t>16961.3609850723</t>
-  </si>
-  <si>
-    <t>16953.947178307546</t>
-  </si>
-  <si>
-    <t>16960.937682352855</t>
-  </si>
-  <si>
-    <t>16955.25057092483</t>
-  </si>
-  <si>
-    <t>16961.4884295646</t>
-  </si>
-  <si>
-    <t>16957.311317494215</t>
-  </si>
-  <si>
-    <t>16958.203965706623</t>
-  </si>
-  <si>
-    <t>16956.559032362486</t>
-  </si>
-  <si>
-    <t>16954.307737510644</t>
-  </si>
-  <si>
-    <t>16958.12174651237</t>
-  </si>
-  <si>
-    <t>16953.20798618673</t>
-  </si>
-  <si>
-    <t>16957.445577966882</t>
-  </si>
-  <si>
-    <t>16950.416447238298</t>
-  </si>
-  <si>
-    <t>16953.6529047481</t>
-  </si>
-  <si>
-    <t>16949.752571111872</t>
-  </si>
-  <si>
-    <t>16949.09592828868</t>
-  </si>
-  <si>
-    <t>16952.124449916046</t>
-  </si>
-  <si>
-    <t>16948.78173198514</t>
-  </si>
-  <si>
-    <t>16953.8689191299</t>
-  </si>
-  <si>
-    <t>16951.879362875912</t>
-  </si>
-  <si>
-    <t>16953.703659615072</t>
-  </si>
-  <si>
-    <t>16955.642434707883</t>
-  </si>
-  <si>
-    <t>16958.498243869944</t>
-  </si>
-  <si>
-    <t>16947.285153594723</t>
-  </si>
-  <si>
-    <t>16958.603962754296</t>
-  </si>
-  <si>
-    <t>16951.822973315193</t>
-  </si>
-  <si>
-    <t>16951.03227222512</t>
-  </si>
-  <si>
-    <t>16953.599841609222</t>
-  </si>
-  <si>
-    <t>16949.643240734084</t>
-  </si>
-  <si>
-    <t>16953.275714473755</t>
-  </si>
-  <si>
-    <t>16953.644402208407</t>
-  </si>
-  <si>
-    <t>16952.83855200625</t>
-  </si>
-  <si>
-    <t>16956.674058408964</t>
-  </si>
-  <si>
-    <t>16948.04632274404</t>
-  </si>
-  <si>
-    <t>16954.744342579164</t>
-  </si>
-  <si>
-    <t>16952.033688506806</t>
-  </si>
-  <si>
-    <t>16945.82780795765</t>
-  </si>
-  <si>
-    <t>16950.159034107375</t>
-  </si>
-  <si>
-    <t>16949.233438379655</t>
-  </si>
-  <si>
-    <t>16946.03552400218</t>
-  </si>
-  <si>
-    <t>16950.309967942285</t>
-  </si>
-  <si>
-    <t>16949.06151747055</t>
-  </si>
-  <si>
-    <t>16951.442520466917</t>
-  </si>
-  <si>
-    <t>16947.517551971807</t>
-  </si>
-  <si>
-    <t>16946.099497682884</t>
-  </si>
-  <si>
-    <t>16945.07185711463</t>
-  </si>
-  <si>
-    <t>16945.312890757225</t>
-  </si>
-  <si>
-    <t>16943.13861040933</t>
-  </si>
-  <si>
-    <t>16946.090325952267</t>
-  </si>
-  <si>
-    <t>16940.977202791495</t>
-  </si>
-  <si>
-    <t>16946.749142325778</t>
-  </si>
-  <si>
-    <t>16943.017629661947</t>
-  </si>
-  <si>
-    <t>16943.40748405746</t>
-  </si>
-  <si>
-    <t>16942.402653616344</t>
-  </si>
-  <si>
-    <t>16942.923511526456</t>
-  </si>
-  <si>
-    <t>16941.256615191596</t>
-  </si>
-  <si>
-    <t>16943.030574476754</t>
+    <t>17426.489285913114</t>
+  </si>
+  <si>
+    <t>17426.31968059318</t>
+  </si>
+  <si>
+    <t>17432.365909927816</t>
+  </si>
+  <si>
+    <t>17422.928587502807</t>
+  </si>
+  <si>
+    <t>17441.920482319136</t>
+  </si>
+  <si>
+    <t>17430.197513119718</t>
+  </si>
+  <si>
+    <t>17428.036806945995</t>
+  </si>
+  <si>
+    <t>17443.145665072636</t>
+  </si>
+  <si>
+    <t>17424.924829854917</t>
+  </si>
+  <si>
+    <t>17425.54959127915</t>
+  </si>
+  <si>
+    <t>17431.481488886766</t>
+  </si>
+  <si>
+    <t>17425.591913338165</t>
+  </si>
+  <si>
+    <t>17445.162308282517</t>
+  </si>
+  <si>
+    <t>17420.67435628022</t>
+  </si>
+  <si>
+    <t>17429.976587745237</t>
+  </si>
+  <si>
+    <t>17440.005313792506</t>
+  </si>
+  <si>
+    <t>17435.216304200938</t>
+  </si>
+  <si>
+    <t>17439.096532522926</t>
+  </si>
+  <si>
+    <t>17441.607877622704</t>
+  </si>
+  <si>
+    <t>17444.675503922754</t>
+  </si>
+  <si>
+    <t>17441.35686192538</t>
+  </si>
+  <si>
+    <t>17441.40230185252</t>
+  </si>
+  <si>
+    <t>17457.06502233145</t>
+  </si>
+  <si>
+    <t>17443.0486908213</t>
+  </si>
+  <si>
+    <t>17460.629537312696</t>
+  </si>
+  <si>
+    <t>17457.459054070885</t>
+  </si>
+  <si>
+    <t>17475.347664421057</t>
+  </si>
+  <si>
+    <t>17454.34667407524</t>
+  </si>
+  <si>
+    <t>17480.043702160703</t>
+  </si>
+  <si>
+    <t>17453.766061066966</t>
+  </si>
+  <si>
+    <t>17472.33691564561</t>
+  </si>
+  <si>
+    <t>17453.184933944867</t>
+  </si>
+  <si>
+    <t>17464.73324086529</t>
+  </si>
+  <si>
+    <t>17468.741524068995</t>
+  </si>
+  <si>
+    <t>17473.838656328633</t>
+  </si>
+  <si>
+    <t>17476.744808813823</t>
+  </si>
+  <si>
+    <t>17482.03045586381</t>
+  </si>
+  <si>
+    <t>17462.47143420069</t>
+  </si>
+  <si>
+    <t>17459.78318725558</t>
+  </si>
+  <si>
+    <t>17476.11544505452</t>
+  </si>
+  <si>
+    <t>17459.990752573787</t>
+  </si>
+  <si>
+    <t>17447.771643526856</t>
+  </si>
+  <si>
+    <t>17453.062118378974</t>
+  </si>
+  <si>
+    <t>17441.69036800225</t>
+  </si>
+  <si>
+    <t>17447.417042043497</t>
+  </si>
+  <si>
+    <t>17451.839547420066</t>
+  </si>
+  <si>
+    <t>17448.89854252663</t>
+  </si>
+  <si>
+    <t>17447.141428772007</t>
+  </si>
+  <si>
+    <t>17447.718240581806</t>
+  </si>
+  <si>
+    <t>17440.3309441872</t>
+  </si>
+  <si>
+    <t>17449.39204888274</t>
+  </si>
+  <si>
+    <t>17434.056664622545</t>
+  </si>
+  <si>
+    <t>17449.9674124039</t>
+  </si>
+  <si>
+    <t>17437.39401922746</t>
+  </si>
+  <si>
+    <t>17440.182297239855</t>
+  </si>
+  <si>
+    <t>17431.993487515763</t>
+  </si>
+  <si>
+    <t>17447.114580032943</t>
+  </si>
+  <si>
+    <t>17431.04475263284</t>
+  </si>
+  <si>
+    <t>17439.225259389874</t>
+  </si>
+  <si>
+    <t>17446.33059357636</t>
+  </si>
+  <si>
+    <t>17431.016192647447</t>
+  </si>
+  <si>
+    <t>17445.236553339957</t>
+  </si>
+  <si>
+    <t>17448.36494648703</t>
+  </si>
+  <si>
+    <t>17454.554644111777</t>
+  </si>
+  <si>
+    <t>17449.982816118336</t>
+  </si>
+  <si>
+    <t>17439.687784143847</t>
+  </si>
+  <si>
+    <t>17451.536689366236</t>
+  </si>
+  <si>
+    <t>17445.71605762729</t>
+  </si>
+  <si>
+    <t>17453.1171080667</t>
+  </si>
+  <si>
+    <t>17445.097591060054</t>
+  </si>
+  <si>
+    <t>17446.79531584532</t>
+  </si>
+  <si>
+    <t>17466.896209937746</t>
+  </si>
+  <si>
+    <t>17449.676041551982</t>
+  </si>
+  <si>
+    <t>17479.437891850048</t>
+  </si>
+  <si>
+    <t>17452.77972276831</t>
+  </si>
+  <si>
+    <t>17471.031583505603</t>
+  </si>
+  <si>
+    <t>17457.15130364718</t>
+  </si>
+  <si>
+    <t>17479.570171412975</t>
+  </si>
+  <si>
+    <t>17465.990834194912</t>
+  </si>
+  <si>
+    <t>17460.334597339337</t>
+  </si>
+  <si>
+    <t>17450.22242420014</t>
+  </si>
+  <si>
+    <t>17463.700171155462</t>
+  </si>
+  <si>
+    <t>17444.78164976573</t>
+  </si>
+  <si>
+    <t>17460.82663449306</t>
+  </si>
+  <si>
+    <t>17453.449825374155</t>
+  </si>
+  <si>
+    <t>17461.56627098472</t>
+  </si>
+  <si>
+    <t>17465.733348369522</t>
+  </si>
+  <si>
+    <t>17456.89445155476</t>
+  </si>
+  <si>
+    <t>17449.23622292558</t>
+  </si>
+  <si>
+    <t>17446.907874673157</t>
+  </si>
+  <si>
+    <t>17437.05747842924</t>
+  </si>
+  <si>
+    <t>17455.06777456327</t>
+  </si>
+  <si>
+    <t>17433.96412198383</t>
+  </si>
+  <si>
+    <t>17455.274489996187</t>
+  </si>
+  <si>
+    <t>17430.883799292384</t>
+  </si>
+  <si>
+    <t>17419.986660280225</t>
+  </si>
+  <si>
+    <t>17414.16872198993</t>
+  </si>
+  <si>
+    <t>17424.3741916572</t>
+  </si>
+  <si>
+    <t>17422.836039759055</t>
+  </si>
+  <si>
+    <t>17434.260883777228</t>
+  </si>
+  <si>
+    <t>17416.9566258804</t>
+  </si>
+  <si>
+    <t>17425.627029939053</t>
+  </si>
+  <si>
+    <t>17414.87008341368</t>
+  </si>
+  <si>
+    <t>17414.471887403135</t>
+  </si>
+  <si>
+    <t>17416.174012977655</t>
+  </si>
+  <si>
+    <t>17403.360159773623</t>
+  </si>
+  <si>
+    <t>17417.527046292507</t>
+  </si>
+  <si>
+    <t>17414.606954956504</t>
+  </si>
+  <si>
+    <t>17401.899641950913</t>
+  </si>
+  <si>
+    <t>17403.695928319725</t>
+  </si>
+  <si>
+    <t>17397.935258198217</t>
+  </si>
+  <si>
+    <t>17395.575571716894</t>
+  </si>
+  <si>
+    <t>17385.772618119867</t>
+  </si>
+  <si>
+    <t>17385.756839528876</t>
+  </si>
+  <si>
+    <t>17401.37952145508</t>
+  </si>
+  <si>
+    <t>17342.123555841</t>
+  </si>
+  <si>
+    <t>17369.385573881627</t>
+  </si>
+  <si>
+    <t>17328.86623263935</t>
+  </si>
+  <si>
+    <t>17334.570433922636</t>
+  </si>
+  <si>
+    <t>17326.031072737187</t>
+  </si>
+  <si>
+    <t>17323.50741656222</t>
+  </si>
+  <si>
+    <t>17326.69031114471</t>
+  </si>
+  <si>
+    <t>17318.902501537254</t>
+  </si>
+  <si>
+    <t>17330.028055815226</t>
+  </si>
+  <si>
+    <t>17316.65175796837</t>
+  </si>
+  <si>
+    <t>17337.839289876807</t>
+  </si>
+  <si>
+    <t>17314.888092398556</t>
+  </si>
+  <si>
+    <t>17317.20332356591</t>
+  </si>
+  <si>
+    <t>17314.78967228156</t>
+  </si>
+  <si>
+    <t>17316.10883643534</t>
+  </si>
+  <si>
+    <t>17323.056244903237</t>
+  </si>
+  <si>
+    <t>17327.699883642177</t>
+  </si>
+  <si>
+    <t>17316.43380053404</t>
+  </si>
+  <si>
+    <t>17314.69828060668</t>
+  </si>
+  <si>
+    <t>17328.77719250865</t>
+  </si>
+  <si>
+    <t>17311.41046220501</t>
+  </si>
+  <si>
+    <t>17316.97034702568</t>
+  </si>
+  <si>
+    <t>17311.23944491805</t>
+  </si>
+  <si>
+    <t>17318.96944014582</t>
+  </si>
+  <si>
+    <t>17306.62368064756</t>
+  </si>
+  <si>
+    <t>17337.709375594335</t>
+  </si>
+  <si>
+    <t>17317.265843169556</t>
+  </si>
+  <si>
+    <t>17325.09848434072</t>
+  </si>
+  <si>
+    <t>17314.37144606604</t>
+  </si>
+  <si>
+    <t>17325.163160076274</t>
+  </si>
+  <si>
+    <t>17324.531781918115</t>
+  </si>
+  <si>
+    <t>17303.964042110096</t>
+  </si>
+  <si>
+    <t>17314.667545682325</t>
+  </si>
+  <si>
+    <t>17270.98232497797</t>
+  </si>
+  <si>
+    <t>17316.37387063382</t>
+  </si>
+  <si>
+    <t>17291.148488591283</t>
+  </si>
+  <si>
+    <t>17313.80598909254</t>
+  </si>
+  <si>
+    <t>17321.601474874813</t>
+  </si>
+  <si>
+    <t>17316.25836629766</t>
+  </si>
+  <si>
+    <t>17319.245214586004</t>
+  </si>
+  <si>
+    <t>17301.428639945036</t>
+  </si>
+  <si>
+    <t>17279.687860934835</t>
+  </si>
+  <si>
+    <t>17283.48142189731</t>
+  </si>
+  <si>
+    <t>17281.51964879311</t>
+  </si>
+  <si>
+    <t>17240.18872680268</t>
+  </si>
+  <si>
+    <t>17268.617566873163</t>
+  </si>
+  <si>
+    <t>17249.6030326523</t>
+  </si>
+  <si>
+    <t>17276.64940195365</t>
+  </si>
+  <si>
+    <t>17266.91913970138</t>
+  </si>
+  <si>
+    <t>17245.182558724162</t>
+  </si>
+  <si>
+    <t>17256.046936294693</t>
+  </si>
+  <si>
+    <t>17247.14340184075</t>
+  </si>
+  <si>
+    <t>17270.258826689467</t>
+  </si>
+  <si>
+    <t>17261.849405311794</t>
+  </si>
+  <si>
+    <t>17261.73925538497</t>
+  </si>
+  <si>
+    <t>17246.974805696882</t>
+  </si>
+  <si>
+    <t>17247.23532151749</t>
+  </si>
+  <si>
+    <t>17255.367682895885</t>
+  </si>
+  <si>
+    <t>17234.52351414409</t>
+  </si>
+  <si>
+    <t>17227.379230005477</t>
+  </si>
+  <si>
+    <t>17241.59651687345</t>
+  </si>
+  <si>
+    <t>17255.40116922288</t>
+  </si>
+  <si>
+    <t>17246.271443857506</t>
+  </si>
+  <si>
+    <t>17237.453459914097</t>
+  </si>
+  <si>
+    <t>17253.91377534934</t>
+  </si>
+  <si>
+    <t>17257.03831595126</t>
+  </si>
+  <si>
+    <t>17253.23896232745</t>
+  </si>
+  <si>
+    <t>17249.782290150622</t>
+  </si>
+  <si>
+    <t>17258.770894796482</t>
+  </si>
+  <si>
+    <t>17246.170255406683</t>
+  </si>
+  <si>
+    <t>17271.325667152567</t>
+  </si>
+  <si>
+    <t>17256.331674906196</t>
+  </si>
+  <si>
+    <t>17263.64087235986</t>
+  </si>
+  <si>
+    <t>17269.15430644377</t>
+  </si>
+  <si>
+    <t>17256.465764442735</t>
+  </si>
+  <si>
+    <t>17274.44692762014</t>
+  </si>
+  <si>
+    <t>17287.44431368489</t>
+  </si>
+  <si>
+    <t>17282.830861522256</t>
+  </si>
+  <si>
+    <t>17284.353983496476</t>
+  </si>
+  <si>
+    <t>17268.751865078033</t>
+  </si>
+  <si>
+    <t>17282.644139488468</t>
+  </si>
+  <si>
+    <t>17280.57570672674</t>
+  </si>
+  <si>
+    <t>17273.326101216742</t>
+  </si>
+  <si>
+    <t>17275.819984385562</t>
+  </si>
+  <si>
+    <t>17281.46207030072</t>
+  </si>
+  <si>
+    <t>17288.636749107965</t>
+  </si>
+  <si>
+    <t>17274.321386765165</t>
+  </si>
+  <si>
+    <t>17268.906978404455</t>
+  </si>
+  <si>
+    <t>17272.30056075828</t>
+  </si>
+  <si>
+    <t>17268.135799290565</t>
+  </si>
+  <si>
+    <t>17269.534611044626</t>
+  </si>
+  <si>
+    <t>17271.65104334808</t>
+  </si>
+  <si>
+    <t>17259.64043912045</t>
+  </si>
+  <si>
+    <t>17267.676816593732</t>
+  </si>
+  <si>
+    <t>17248.827146664742</t>
+  </si>
+  <si>
+    <t>17263.134639332126</t>
+  </si>
+  <si>
+    <t>17250.74417913569</t>
+  </si>
+  <si>
+    <t>17248.610571754827</t>
+  </si>
+  <si>
+    <t>17258.20529126799</t>
+  </si>
+  <si>
+    <t>17244.52648293043</t>
+  </si>
+  <si>
+    <t>17263.441560375737</t>
+  </si>
+  <si>
+    <t>17242.416110479695</t>
+  </si>
+  <si>
+    <t>17263.275542959407</t>
+  </si>
+  <si>
+    <t>17234.94657597604</t>
+  </si>
+  <si>
+    <t>17253.880986323107</t>
+  </si>
+  <si>
+    <t>17244.454843448657</t>
+  </si>
+  <si>
+    <t>17256.80084174667</t>
+  </si>
+  <si>
+    <t>17237.559803421205</t>
+  </si>
+  <si>
+    <t>17254.569320208488</t>
+  </si>
+  <si>
+    <t>17240.50262217429</t>
+  </si>
+  <si>
+    <t>17252.654419258262</t>
+  </si>
+  <si>
+    <t>17240.063095679358</t>
+  </si>
+  <si>
+    <t>17237.31130924726</t>
+  </si>
+  <si>
+    <t>17239.295503250152</t>
+  </si>
+  <si>
+    <t>17239.049647704705</t>
+  </si>
+  <si>
+    <t>17254.264559318057</t>
+  </si>
+  <si>
+    <t>17249.746536026134</t>
+  </si>
+  <si>
+    <t>17236.19574050662</t>
+  </si>
+  <si>
+    <t>17235.437217852217</t>
+  </si>
+  <si>
+    <t>17238.8864555186</t>
+  </si>
+  <si>
+    <t>17244.617250876436</t>
+  </si>
+  <si>
+    <t>17239.71206294703</t>
+  </si>
+  <si>
+    <t>17234.353227895564</t>
+  </si>
+  <si>
+    <t>17215.459779662106</t>
+  </si>
+  <si>
+    <t>17218.978157218047</t>
+  </si>
+  <si>
+    <t>17217.415407953842</t>
+  </si>
+  <si>
+    <t>17221.51449000356</t>
+  </si>
+  <si>
+    <t>17216.054064843145</t>
+  </si>
+  <si>
+    <t>17214.17203910927</t>
+  </si>
+  <si>
+    <t>17209.10890347184</t>
+  </si>
+  <si>
+    <t>17206.67133962618</t>
+  </si>
+  <si>
+    <t>17212.31140089807</t>
+  </si>
+  <si>
+    <t>17205.175647409844</t>
+  </si>
+  <si>
+    <t>17209.59626153872</t>
+  </si>
+  <si>
+    <t>17202.192415599493</t>
+  </si>
+  <si>
+    <t>17201.26718510966</t>
+  </si>
+  <si>
+    <t>17204.760186828855</t>
+  </si>
+  <si>
+    <t>17196.00694860244</t>
+  </si>
+  <si>
+    <t>17196.957431605904</t>
+  </si>
+  <si>
+    <t>17207.93004286377</t>
+  </si>
+  <si>
+    <t>17199.877972021288</t>
+  </si>
+  <si>
+    <t>17211.08366198878</t>
+  </si>
+  <si>
+    <t>17198.170657732906</t>
+  </si>
+  <si>
+    <t>17213.997038480727</t>
+  </si>
+  <si>
+    <t>17207.85559447794</t>
+  </si>
+  <si>
+    <t>17208.748519061402</t>
+  </si>
+  <si>
+    <t>17215.41120830141</t>
+  </si>
+  <si>
+    <t>17215.23583159277</t>
+  </si>
+  <si>
+    <t>17204.31053398349</t>
+  </si>
+  <si>
+    <t>17208.58857864455</t>
+  </si>
+  <si>
+    <t>17210.342809519727</t>
+  </si>
+  <si>
+    <t>17217.250797553148</t>
+  </si>
+  <si>
+    <t>17212.873681545443</t>
+  </si>
+  <si>
+    <t>17213.695700372064</t>
+  </si>
+  <si>
+    <t>17206.508222229448</t>
+  </si>
+  <si>
+    <t>17216.588810546156</t>
+  </si>
+  <si>
+    <t>17209.15051437555</t>
+  </si>
+  <si>
+    <t>17208.39005881617</t>
+  </si>
+  <si>
+    <t>17202.044757649437</t>
+  </si>
+  <si>
+    <t>17209.326561033227</t>
+  </si>
+  <si>
+    <t>17201.37800107795</t>
+  </si>
+  <si>
+    <t>17202.539553533636</t>
+  </si>
+  <si>
+    <t>17201.934177640065</t>
+  </si>
+  <si>
+    <t>17205.798835628124</t>
+  </si>
+  <si>
+    <t>17211.235151072768</t>
+  </si>
+  <si>
+    <t>17206.869459308335</t>
+  </si>
+  <si>
+    <t>17208.386778524928</t>
+  </si>
+  <si>
+    <t>17210.8675593013</t>
+  </si>
+  <si>
+    <t>17200.8717607514</t>
+  </si>
+  <si>
+    <t>17205.984109879093</t>
+  </si>
+  <si>
+    <t>17191.355905284378</t>
+  </si>
+  <si>
+    <t>17216.777447367796</t>
+  </si>
+  <si>
+    <t>17194.87915539834</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44935.07638888889</v>
+        <v>44937.46180555555</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44935.07291666666</v>
+        <v>44937.45833333334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44935.06944444445</v>
+        <v>44937.45486111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44935.06597222222</v>
+        <v>44937.45138888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44935.0625</v>
+        <v>44937.44791666666</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44935.05902777778</v>
+        <v>44937.44444444445</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44935.05555555555</v>
+        <v>44937.44097222222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44935.05208333334</v>
+        <v>44937.4375</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44935.04861111111</v>
+        <v>44937.43402777778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44935.04513888889</v>
+        <v>44937.43055555555</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44935.04166666666</v>
+        <v>44937.42708333334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44935.03819444445</v>
+        <v>44937.42361111111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44935.03472222222</v>
+        <v>44937.42013888889</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44935.03125</v>
+        <v>44937.41666666666</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44935.02777777778</v>
+        <v>44937.41319444445</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44935.02430555555</v>
+        <v>44937.40972222222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44935.02083333334</v>
+        <v>44937.40625</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44935.01736111111</v>
+        <v>44937.40277777778</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44935.01388888889</v>
+        <v>44937.39930555555</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44935.01041666666</v>
+        <v>44937.39583333334</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44935.00694444445</v>
+        <v>44937.39236111111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44935.00347222222</v>
+        <v>44937.38888888889</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44935</v>
+        <v>44937.38541666666</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44934.99652777778</v>
+        <v>44937.38194444445</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44934.99305555555</v>
+        <v>44937.37847222222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44934.98958333334</v>
+        <v>44937.375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44934.98611111111</v>
+        <v>44937.37152777778</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44934.98263888889</v>
+        <v>44937.36805555555</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44934.97916666666</v>
+        <v>44937.36458333334</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44934.97569444445</v>
+        <v>44937.36111111111</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44934.97222222222</v>
+        <v>44937.35763888889</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44934.96875</v>
+        <v>44937.35416666666</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44934.96527777778</v>
+        <v>44937.35069444445</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44934.96180555555</v>
+        <v>44937.34722222222</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44934.95833333334</v>
+        <v>44937.34375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44934.95486111111</v>
+        <v>44937.34027777778</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44934.95138888889</v>
+        <v>44937.33680555555</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44934.94791666666</v>
+        <v>44937.33333333334</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44934.94444444445</v>
+        <v>44937.32986111111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44934.94097222222</v>
+        <v>44937.32638888889</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44934.9375</v>
+        <v>44937.32291666666</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44934.93402777778</v>
+        <v>44937.31944444445</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44934.93055555555</v>
+        <v>44937.31597222222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44934.92708333334</v>
+        <v>44937.3125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44934.92361111111</v>
+        <v>44937.30902777778</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44934.92013888889</v>
+        <v>44937.30555555555</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44934.91666666666</v>
+        <v>44937.30208333334</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44934.91319444445</v>
+        <v>44937.29861111111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44934.90972222222</v>
+        <v>44937.29513888889</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44934.90625</v>
+        <v>44937.29166666666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44934.90277777778</v>
+        <v>44937.28819444445</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44934.89930555555</v>
+        <v>44937.28472222222</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44934.89583333334</v>
+        <v>44937.28125</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44934.89236111111</v>
+        <v>44937.27777777778</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44934.88888888889</v>
+        <v>44937.27430555555</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44934.88541666666</v>
+        <v>44937.27083333334</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44934.88194444445</v>
+        <v>44937.26736111111</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44934.87847222222</v>
+        <v>44937.26388888889</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44934.875</v>
+        <v>44937.26041666666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44934.87152777778</v>
+        <v>44937.25694444445</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44934.86805555555</v>
+        <v>44937.25347222222</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44934.86458333334</v>
+        <v>44937.25</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44934.86111111111</v>
+        <v>44937.24652777778</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44934.85763888889</v>
+        <v>44937.24305555555</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44934.85416666666</v>
+        <v>44937.23958333334</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44934.85069444445</v>
+        <v>44937.23611111111</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44934.84722222222</v>
+        <v>44937.23263888889</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44934.84375</v>
+        <v>44937.22916666666</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44934.84027777778</v>
+        <v>44937.22569444445</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44934.83680555555</v>
+        <v>44937.22222222222</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44934.83333333334</v>
+        <v>44937.21875</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44934.82986111111</v>
+        <v>44937.21527777778</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44934.82638888889</v>
+        <v>44937.21180555555</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44934.82291666666</v>
+        <v>44937.20833333334</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44934.81944444445</v>
+        <v>44937.20486111111</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44934.81597222222</v>
+        <v>44937.20138888889</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44934.8125</v>
+        <v>44937.19791666666</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44934.80902777778</v>
+        <v>44937.19444444445</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44934.80555555555</v>
+        <v>44937.19097222222</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44934.80208333334</v>
+        <v>44937.1875</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44934.79861111111</v>
+        <v>44937.18402777778</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44934.79513888889</v>
+        <v>44937.18055555555</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44934.79166666666</v>
+        <v>44937.17708333334</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44934.78819444445</v>
+        <v>44937.17361111111</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44934.78472222222</v>
+        <v>44937.17013888889</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44934.78125</v>
+        <v>44937.16666666666</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44934.77777777778</v>
+        <v>44937.16319444445</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44934.77430555555</v>
+        <v>44937.15972222222</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44934.77083333334</v>
+        <v>44937.15625</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44934.76736111111</v>
+        <v>44937.15277777778</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44934.76388888889</v>
+        <v>44937.14930555555</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44934.76041666666</v>
+        <v>44937.14583333334</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44934.75694444445</v>
+        <v>44937.14236111111</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44934.75347222222</v>
+        <v>44937.13888888889</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44934.75</v>
+        <v>44937.13541666666</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44934.74652777778</v>
+        <v>44937.13194444445</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44934.74305555555</v>
+        <v>44937.12847222222</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44934.73958333334</v>
+        <v>44937.125</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44934.73611111111</v>
+        <v>44937.12152777778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44934.73263888889</v>
+        <v>44937.11805555555</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44934.72916666666</v>
+        <v>44937.11458333334</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44934.72569444445</v>
+        <v>44937.11111111111</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44934.72222222222</v>
+        <v>44937.10763888889</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44934.71875</v>
+        <v>44937.10416666666</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44934.71527777778</v>
+        <v>44937.10069444445</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44934.71180555555</v>
+        <v>44937.09722222222</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44934.70833333334</v>
+        <v>44937.09375</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44934.70486111111</v>
+        <v>44937.09027777778</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44934.70138888889</v>
+        <v>44937.08680555555</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44934.69791666666</v>
+        <v>44937.08333333334</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44934.69444444445</v>
+        <v>44937.07986111111</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44934.69097222222</v>
+        <v>44937.07638888889</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44934.6875</v>
+        <v>44937.07291666666</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44934.68402777778</v>
+        <v>44937.06944444445</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44934.68055555555</v>
+        <v>44937.06597222222</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44934.67708333334</v>
+        <v>44937.0625</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44934.67361111111</v>
+        <v>44937.05902777778</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44934.67013888889</v>
+        <v>44937.05555555555</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44934.66666666666</v>
+        <v>44937.05208333334</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44934.66319444445</v>
+        <v>44937.04861111111</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44934.65972222222</v>
+        <v>44937.04513888889</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44934.65625</v>
+        <v>44937.04166666666</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44934.65277777778</v>
+        <v>44937.03819444445</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44934.64930555555</v>
+        <v>44937.03472222222</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44934.64583333334</v>
+        <v>44937.03125</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44934.64236111111</v>
+        <v>44937.02777777778</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44934.63888888889</v>
+        <v>44937.02430555555</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44934.63541666666</v>
+        <v>44937.02083333334</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44934.63194444445</v>
+        <v>44937.01736111111</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44934.62847222222</v>
+        <v>44937.01388888889</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44934.625</v>
+        <v>44937.01041666666</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44934.62152777778</v>
+        <v>44937.00694444445</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44934.61805555555</v>
+        <v>44937.00347222222</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44934.61458333334</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44934.61111111111</v>
+        <v>44936.99652777778</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44934.60763888889</v>
+        <v>44936.99305555555</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44934.60416666666</v>
+        <v>44936.98958333334</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44934.60069444445</v>
+        <v>44936.98611111111</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44934.59722222222</v>
+        <v>44936.98263888889</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44934.59375</v>
+        <v>44936.97916666666</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44934.59027777778</v>
+        <v>44936.97569444445</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44934.58680555555</v>
+        <v>44936.97222222222</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44934.58333333334</v>
+        <v>44936.96875</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44934.57986111111</v>
+        <v>44936.96527777778</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44934.57638888889</v>
+        <v>44936.96180555555</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44934.57291666666</v>
+        <v>44936.95833333334</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44934.56944444445</v>
+        <v>44936.95486111111</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44934.56597222222</v>
+        <v>44936.95138888889</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44934.5625</v>
+        <v>44936.94791666666</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44934.55902777778</v>
+        <v>44936.94444444445</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44934.55555555555</v>
+        <v>44936.94097222222</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44934.55208333334</v>
+        <v>44936.9375</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44934.54861111111</v>
+        <v>44936.93402777778</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44934.54513888889</v>
+        <v>44936.93055555555</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44934.54166666666</v>
+        <v>44936.92708333334</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44934.53819444445</v>
+        <v>44936.92361111111</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44934.53472222222</v>
+        <v>44936.92013888889</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44934.53125</v>
+        <v>44936.91666666666</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44934.52777777778</v>
+        <v>44936.91319444445</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44934.52430555555</v>
+        <v>44936.90972222222</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44934.52083333334</v>
+        <v>44936.90625</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44934.51736111111</v>
+        <v>44936.90277777778</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44934.51388888889</v>
+        <v>44936.89930555555</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44934.51041666666</v>
+        <v>44936.89583333334</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44934.50694444445</v>
+        <v>44936.89236111111</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44934.50347222222</v>
+        <v>44936.88888888889</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44934.5</v>
+        <v>44936.88541666666</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44934.49652777778</v>
+        <v>44936.88194444445</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44934.49305555555</v>
+        <v>44936.87847222222</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44934.48958333334</v>
+        <v>44936.875</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44934.48611111111</v>
+        <v>44936.87152777778</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44934.48263888889</v>
+        <v>44936.86805555555</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44934.47916666666</v>
+        <v>44936.86458333334</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44934.47569444445</v>
+        <v>44936.86111111111</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44934.47222222222</v>
+        <v>44936.85763888889</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44934.46875</v>
+        <v>44936.85416666666</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44934.46527777778</v>
+        <v>44936.85069444445</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44934.46180555555</v>
+        <v>44936.84722222222</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44934.45833333334</v>
+        <v>44936.84375</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44934.45486111111</v>
+        <v>44936.84027777778</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44934.45138888889</v>
+        <v>44936.83680555555</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44934.44791666666</v>
+        <v>44936.83333333334</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44934.44444444445</v>
+        <v>44936.82986111111</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44934.44097222222</v>
+        <v>44936.82638888889</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44934.4375</v>
+        <v>44936.82291666666</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44934.43402777778</v>
+        <v>44936.81944444445</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44934.43055555555</v>
+        <v>44936.81597222222</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44934.42708333334</v>
+        <v>44936.8125</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44934.42361111111</v>
+        <v>44936.80902777778</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44934.42013888889</v>
+        <v>44936.80555555555</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44934.41666666666</v>
+        <v>44936.80208333334</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44934.41319444445</v>
+        <v>44936.79861111111</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44934.40972222222</v>
+        <v>44936.79513888889</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44934.40625</v>
+        <v>44936.79166666666</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44934.40277777778</v>
+        <v>44936.78819444445</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44934.39930555555</v>
+        <v>44936.78472222222</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44934.39583333334</v>
+        <v>44936.78125</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44934.39236111111</v>
+        <v>44936.77777777778</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44934.38888888889</v>
+        <v>44936.77430555555</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44934.38541666666</v>
+        <v>44936.77083333334</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44934.38194444445</v>
+        <v>44936.76736111111</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44934.37847222222</v>
+        <v>44936.76388888889</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44934.375</v>
+        <v>44936.76041666666</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44934.37152777778</v>
+        <v>44936.75694444445</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44934.36805555555</v>
+        <v>44936.75347222222</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44934.36458333334</v>
+        <v>44936.75</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44934.36111111111</v>
+        <v>44936.74652777778</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44934.35763888889</v>
+        <v>44936.74305555555</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44934.35416666666</v>
+        <v>44936.73958333334</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44934.35069444445</v>
+        <v>44936.73611111111</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44934.34722222222</v>
+        <v>44936.73263888889</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44934.34375</v>
+        <v>44936.72916666666</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44934.34027777778</v>
+        <v>44936.72569444445</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44934.33680555555</v>
+        <v>44936.72222222222</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44934.33333333334</v>
+        <v>44936.71875</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44934.32986111111</v>
+        <v>44936.71527777778</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44934.32638888889</v>
+        <v>44936.71180555555</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44934.32291666666</v>
+        <v>44936.70833333334</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44934.31944444445</v>
+        <v>44936.70486111111</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44934.31597222222</v>
+        <v>44936.70138888889</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44934.3125</v>
+        <v>44936.69791666666</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44934.30902777778</v>
+        <v>44936.69444444445</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44934.30555555555</v>
+        <v>44936.69097222222</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44934.30208333334</v>
+        <v>44936.6875</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44934.29861111111</v>
+        <v>44936.68402777778</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44934.29513888889</v>
+        <v>44936.68055555555</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44934.29166666666</v>
+        <v>44936.67708333334</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44934.28819444445</v>
+        <v>44936.67361111111</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44934.28472222222</v>
+        <v>44936.67013888889</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44934.28125</v>
+        <v>44936.66666666666</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44934.27777777778</v>
+        <v>44936.66319444445</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44934.27430555555</v>
+        <v>44936.65972222222</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44934.27083333334</v>
+        <v>44936.65625</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44934.26736111111</v>
+        <v>44936.65277777778</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44934.26388888889</v>
+        <v>44936.64930555555</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44934.26041666666</v>
+        <v>44936.64583333334</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44934.25694444445</v>
+        <v>44936.64236111111</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44934.25347222222</v>
+        <v>44936.63888888889</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44934.25</v>
+        <v>44936.63541666666</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44934.24652777778</v>
+        <v>44936.63194444445</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44934.24305555555</v>
+        <v>44936.62847222222</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44934.23958333334</v>
+        <v>44936.625</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44934.23611111111</v>
+        <v>44936.62152777778</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44934.23263888889</v>
+        <v>44936.61805555555</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44934.22916666666</v>
+        <v>44936.61458333334</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44934.22569444445</v>
+        <v>44936.61111111111</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44934.22222222222</v>
+        <v>44936.60763888889</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44934.21875</v>
+        <v>44936.60416666666</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44934.21527777778</v>
+        <v>44936.60069444445</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44934.21180555555</v>
+        <v>44936.59722222222</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44934.20833333334</v>
+        <v>44936.59375</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44934.20486111111</v>
+        <v>44936.59027777778</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44934.20138888889</v>
+        <v>44936.58680555555</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44934.19791666666</v>
+        <v>44936.58333333334</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44934.19444444445</v>
+        <v>44936.57986111111</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44934.19097222222</v>
+        <v>44936.57638888889</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44934.1875</v>
+        <v>44936.57291666666</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44934.18402777778</v>
+        <v>44936.56944444445</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44934.18055555555</v>
+        <v>44936.56597222222</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44934.17708333334</v>
+        <v>44936.5625</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44934.17361111111</v>
+        <v>44936.55902777778</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44934.17013888889</v>
+        <v>44936.55555555555</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44934.16666666666</v>
+        <v>44936.55208333334</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44934.16319444445</v>
+        <v>44936.54861111111</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44934.15972222222</v>
+        <v>44936.54513888889</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44934.15625</v>
+        <v>44936.54166666666</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44934.15277777778</v>
+        <v>44936.53819444445</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44934.14930555555</v>
+        <v>44936.53472222222</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44934.14583333334</v>
+        <v>44936.53125</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44934.14236111111</v>
+        <v>44936.52777777778</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44934.13888888889</v>
+        <v>44936.52430555555</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44934.13541666666</v>
+        <v>44936.52083333334</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44934.13194444445</v>
+        <v>44936.51736111111</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44934.12847222222</v>
+        <v>44936.51388888889</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44934.125</v>
+        <v>44936.51041666666</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44934.12152777778</v>
+        <v>44936.50694444445</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44934.11805555555</v>
+        <v>44936.50347222222</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44934.11458333334</v>
+        <v>44936.5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44934.11111111111</v>
+        <v>44936.49652777778</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44934.10763888889</v>
+        <v>44936.49305555555</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44934.10416666666</v>
+        <v>44936.48958333334</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44934.10069444445</v>
+        <v>44936.48611111111</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44934.09722222222</v>
+        <v>44936.48263888889</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44934.09375</v>
+        <v>44936.47916666666</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44934.09027777778</v>
+        <v>44936.47569444445</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44934.08680555555</v>
+        <v>44936.47222222222</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44934.08333333334</v>
+        <v>44936.46875</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44934.07986111111</v>
+        <v>44936.46527777778</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,868 +22,868 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>17426.489285913114</t>
-  </si>
-  <si>
-    <t>17426.31968059318</t>
-  </si>
-  <si>
-    <t>17432.365909927816</t>
-  </si>
-  <si>
-    <t>17422.928587502807</t>
-  </si>
-  <si>
-    <t>17441.920482319136</t>
-  </si>
-  <si>
-    <t>17430.197513119718</t>
-  </si>
-  <si>
-    <t>17428.036806945995</t>
-  </si>
-  <si>
-    <t>17443.145665072636</t>
-  </si>
-  <si>
-    <t>17424.924829854917</t>
-  </si>
-  <si>
-    <t>17425.54959127915</t>
-  </si>
-  <si>
-    <t>17431.481488886766</t>
-  </si>
-  <si>
-    <t>17425.591913338165</t>
-  </si>
-  <si>
-    <t>17445.162308282517</t>
-  </si>
-  <si>
-    <t>17420.67435628022</t>
-  </si>
-  <si>
-    <t>17429.976587745237</t>
-  </si>
-  <si>
-    <t>17440.005313792506</t>
-  </si>
-  <si>
-    <t>17435.216304200938</t>
-  </si>
-  <si>
-    <t>17439.096532522926</t>
-  </si>
-  <si>
-    <t>17441.607877622704</t>
-  </si>
-  <si>
-    <t>17444.675503922754</t>
-  </si>
-  <si>
-    <t>17441.35686192538</t>
-  </si>
-  <si>
-    <t>17441.40230185252</t>
-  </si>
-  <si>
-    <t>17457.06502233145</t>
-  </si>
-  <si>
-    <t>17443.0486908213</t>
-  </si>
-  <si>
-    <t>17460.629537312696</t>
-  </si>
-  <si>
-    <t>17457.459054070885</t>
-  </si>
-  <si>
-    <t>17475.347664421057</t>
-  </si>
-  <si>
-    <t>17454.34667407524</t>
-  </si>
-  <si>
-    <t>17480.043702160703</t>
-  </si>
-  <si>
-    <t>17453.766061066966</t>
-  </si>
-  <si>
-    <t>17472.33691564561</t>
-  </si>
-  <si>
-    <t>17453.184933944867</t>
-  </si>
-  <si>
-    <t>17464.73324086529</t>
-  </si>
-  <si>
-    <t>17468.741524068995</t>
-  </si>
-  <si>
-    <t>17473.838656328633</t>
-  </si>
-  <si>
-    <t>17476.744808813823</t>
-  </si>
-  <si>
-    <t>17482.03045586381</t>
-  </si>
-  <si>
-    <t>17462.47143420069</t>
-  </si>
-  <si>
-    <t>17459.78318725558</t>
-  </si>
-  <si>
-    <t>17476.11544505452</t>
-  </si>
-  <si>
-    <t>17459.990752573787</t>
-  </si>
-  <si>
-    <t>17447.771643526856</t>
-  </si>
-  <si>
-    <t>17453.062118378974</t>
-  </si>
-  <si>
-    <t>17441.69036800225</t>
-  </si>
-  <si>
-    <t>17447.417042043497</t>
-  </si>
-  <si>
-    <t>17451.839547420066</t>
-  </si>
-  <si>
-    <t>17448.89854252663</t>
-  </si>
-  <si>
-    <t>17447.141428772007</t>
-  </si>
-  <si>
-    <t>17447.718240581806</t>
-  </si>
-  <si>
-    <t>17440.3309441872</t>
-  </si>
-  <si>
-    <t>17449.39204888274</t>
-  </si>
-  <si>
-    <t>17434.056664622545</t>
-  </si>
-  <si>
-    <t>17449.9674124039</t>
-  </si>
-  <si>
-    <t>17437.39401922746</t>
-  </si>
-  <si>
-    <t>17440.182297239855</t>
-  </si>
-  <si>
-    <t>17431.993487515763</t>
-  </si>
-  <si>
-    <t>17447.114580032943</t>
-  </si>
-  <si>
-    <t>17431.04475263284</t>
-  </si>
-  <si>
-    <t>17439.225259389874</t>
-  </si>
-  <si>
-    <t>17446.33059357636</t>
-  </si>
-  <si>
-    <t>17431.016192647447</t>
-  </si>
-  <si>
-    <t>17445.236553339957</t>
-  </si>
-  <si>
-    <t>17448.36494648703</t>
-  </si>
-  <si>
-    <t>17454.554644111777</t>
-  </si>
-  <si>
-    <t>17449.982816118336</t>
-  </si>
-  <si>
-    <t>17439.687784143847</t>
-  </si>
-  <si>
-    <t>17451.536689366236</t>
-  </si>
-  <si>
-    <t>17445.71605762729</t>
-  </si>
-  <si>
-    <t>17453.1171080667</t>
-  </si>
-  <si>
-    <t>17445.097591060054</t>
-  </si>
-  <si>
-    <t>17446.79531584532</t>
-  </si>
-  <si>
-    <t>17466.896209937746</t>
-  </si>
-  <si>
-    <t>17449.676041551982</t>
-  </si>
-  <si>
-    <t>17479.437891850048</t>
-  </si>
-  <si>
-    <t>17452.77972276831</t>
-  </si>
-  <si>
-    <t>17471.031583505603</t>
-  </si>
-  <si>
-    <t>17457.15130364718</t>
-  </si>
-  <si>
-    <t>17479.570171412975</t>
-  </si>
-  <si>
-    <t>17465.990834194912</t>
-  </si>
-  <si>
-    <t>17460.334597339337</t>
-  </si>
-  <si>
-    <t>17450.22242420014</t>
-  </si>
-  <si>
-    <t>17463.700171155462</t>
-  </si>
-  <si>
-    <t>17444.78164976573</t>
-  </si>
-  <si>
-    <t>17460.82663449306</t>
-  </si>
-  <si>
-    <t>17453.449825374155</t>
-  </si>
-  <si>
-    <t>17461.56627098472</t>
-  </si>
-  <si>
-    <t>17465.733348369522</t>
-  </si>
-  <si>
-    <t>17456.89445155476</t>
-  </si>
-  <si>
-    <t>17449.23622292558</t>
-  </si>
-  <si>
-    <t>17446.907874673157</t>
-  </si>
-  <si>
-    <t>17437.05747842924</t>
-  </si>
-  <si>
-    <t>17455.06777456327</t>
-  </si>
-  <si>
-    <t>17433.96412198383</t>
-  </si>
-  <si>
-    <t>17455.274489996187</t>
-  </si>
-  <si>
-    <t>17430.883799292384</t>
-  </si>
-  <si>
-    <t>17419.986660280225</t>
-  </si>
-  <si>
-    <t>17414.16872198993</t>
-  </si>
-  <si>
-    <t>17424.3741916572</t>
-  </si>
-  <si>
-    <t>17422.836039759055</t>
-  </si>
-  <si>
-    <t>17434.260883777228</t>
-  </si>
-  <si>
-    <t>17416.9566258804</t>
-  </si>
-  <si>
-    <t>17425.627029939053</t>
-  </si>
-  <si>
-    <t>17414.87008341368</t>
-  </si>
-  <si>
-    <t>17414.471887403135</t>
-  </si>
-  <si>
-    <t>17416.174012977655</t>
-  </si>
-  <si>
-    <t>17403.360159773623</t>
-  </si>
-  <si>
-    <t>17417.527046292507</t>
-  </si>
-  <si>
-    <t>17414.606954956504</t>
-  </si>
-  <si>
-    <t>17401.899641950913</t>
-  </si>
-  <si>
-    <t>17403.695928319725</t>
-  </si>
-  <si>
-    <t>17397.935258198217</t>
-  </si>
-  <si>
-    <t>17395.575571716894</t>
-  </si>
-  <si>
-    <t>17385.772618119867</t>
-  </si>
-  <si>
-    <t>17385.756839528876</t>
-  </si>
-  <si>
-    <t>17401.37952145508</t>
-  </si>
-  <si>
-    <t>17342.123555841</t>
-  </si>
-  <si>
-    <t>17369.385573881627</t>
-  </si>
-  <si>
-    <t>17328.86623263935</t>
-  </si>
-  <si>
-    <t>17334.570433922636</t>
-  </si>
-  <si>
-    <t>17326.031072737187</t>
-  </si>
-  <si>
-    <t>17323.50741656222</t>
-  </si>
-  <si>
-    <t>17326.69031114471</t>
-  </si>
-  <si>
-    <t>17318.902501537254</t>
-  </si>
-  <si>
-    <t>17330.028055815226</t>
-  </si>
-  <si>
-    <t>17316.65175796837</t>
-  </si>
-  <si>
-    <t>17337.839289876807</t>
-  </si>
-  <si>
-    <t>17314.888092398556</t>
-  </si>
-  <si>
-    <t>17317.20332356591</t>
-  </si>
-  <si>
-    <t>17314.78967228156</t>
-  </si>
-  <si>
-    <t>17316.10883643534</t>
-  </si>
-  <si>
-    <t>17323.056244903237</t>
-  </si>
-  <si>
-    <t>17327.699883642177</t>
-  </si>
-  <si>
-    <t>17316.43380053404</t>
-  </si>
-  <si>
-    <t>17314.69828060668</t>
-  </si>
-  <si>
-    <t>17328.77719250865</t>
-  </si>
-  <si>
-    <t>17311.41046220501</t>
-  </si>
-  <si>
-    <t>17316.97034702568</t>
-  </si>
-  <si>
-    <t>17311.23944491805</t>
-  </si>
-  <si>
-    <t>17318.96944014582</t>
-  </si>
-  <si>
-    <t>17306.62368064756</t>
-  </si>
-  <si>
-    <t>17337.709375594335</t>
-  </si>
-  <si>
-    <t>17317.265843169556</t>
-  </si>
-  <si>
-    <t>17325.09848434072</t>
-  </si>
-  <si>
-    <t>17314.37144606604</t>
-  </si>
-  <si>
-    <t>17325.163160076274</t>
-  </si>
-  <si>
-    <t>17324.531781918115</t>
-  </si>
-  <si>
-    <t>17303.964042110096</t>
-  </si>
-  <si>
-    <t>17314.667545682325</t>
-  </si>
-  <si>
-    <t>17270.98232497797</t>
-  </si>
-  <si>
-    <t>17316.37387063382</t>
-  </si>
-  <si>
-    <t>17291.148488591283</t>
-  </si>
-  <si>
-    <t>17313.80598909254</t>
-  </si>
-  <si>
-    <t>17321.601474874813</t>
-  </si>
-  <si>
-    <t>17316.25836629766</t>
-  </si>
-  <si>
-    <t>17319.245214586004</t>
-  </si>
-  <si>
-    <t>17301.428639945036</t>
-  </si>
-  <si>
-    <t>17279.687860934835</t>
-  </si>
-  <si>
-    <t>17283.48142189731</t>
-  </si>
-  <si>
-    <t>17281.51964879311</t>
-  </si>
-  <si>
-    <t>17240.18872680268</t>
-  </si>
-  <si>
-    <t>17268.617566873163</t>
-  </si>
-  <si>
-    <t>17249.6030326523</t>
-  </si>
-  <si>
-    <t>17276.64940195365</t>
-  </si>
-  <si>
-    <t>17266.91913970138</t>
-  </si>
-  <si>
-    <t>17245.182558724162</t>
-  </si>
-  <si>
-    <t>17256.046936294693</t>
-  </si>
-  <si>
-    <t>17247.14340184075</t>
-  </si>
-  <si>
-    <t>17270.258826689467</t>
-  </si>
-  <si>
-    <t>17261.849405311794</t>
-  </si>
-  <si>
-    <t>17261.73925538497</t>
-  </si>
-  <si>
-    <t>17246.974805696882</t>
-  </si>
-  <si>
-    <t>17247.23532151749</t>
-  </si>
-  <si>
-    <t>17255.367682895885</t>
-  </si>
-  <si>
-    <t>17234.52351414409</t>
-  </si>
-  <si>
-    <t>17227.379230005477</t>
-  </si>
-  <si>
-    <t>17241.59651687345</t>
-  </si>
-  <si>
-    <t>17255.40116922288</t>
-  </si>
-  <si>
-    <t>17246.271443857506</t>
-  </si>
-  <si>
-    <t>17237.453459914097</t>
-  </si>
-  <si>
-    <t>17253.91377534934</t>
-  </si>
-  <si>
-    <t>17257.03831595126</t>
-  </si>
-  <si>
-    <t>17253.23896232745</t>
-  </si>
-  <si>
-    <t>17249.782290150622</t>
-  </si>
-  <si>
-    <t>17258.770894796482</t>
-  </si>
-  <si>
-    <t>17246.170255406683</t>
-  </si>
-  <si>
-    <t>17271.325667152567</t>
-  </si>
-  <si>
-    <t>17256.331674906196</t>
-  </si>
-  <si>
-    <t>17263.64087235986</t>
-  </si>
-  <si>
-    <t>17269.15430644377</t>
-  </si>
-  <si>
-    <t>17256.465764442735</t>
-  </si>
-  <si>
-    <t>17274.44692762014</t>
-  </si>
-  <si>
-    <t>17287.44431368489</t>
-  </si>
-  <si>
-    <t>17282.830861522256</t>
-  </si>
-  <si>
-    <t>17284.353983496476</t>
-  </si>
-  <si>
-    <t>17268.751865078033</t>
-  </si>
-  <si>
-    <t>17282.644139488468</t>
-  </si>
-  <si>
-    <t>17280.57570672674</t>
-  </si>
-  <si>
-    <t>17273.326101216742</t>
-  </si>
-  <si>
-    <t>17275.819984385562</t>
-  </si>
-  <si>
-    <t>17281.46207030072</t>
-  </si>
-  <si>
-    <t>17288.636749107965</t>
-  </si>
-  <si>
-    <t>17274.321386765165</t>
-  </si>
-  <si>
-    <t>17268.906978404455</t>
-  </si>
-  <si>
-    <t>17272.30056075828</t>
-  </si>
-  <si>
-    <t>17268.135799290565</t>
-  </si>
-  <si>
-    <t>17269.534611044626</t>
-  </si>
-  <si>
-    <t>17271.65104334808</t>
-  </si>
-  <si>
-    <t>17259.64043912045</t>
-  </si>
-  <si>
-    <t>17267.676816593732</t>
-  </si>
-  <si>
-    <t>17248.827146664742</t>
-  </si>
-  <si>
-    <t>17263.134639332126</t>
-  </si>
-  <si>
-    <t>17250.74417913569</t>
-  </si>
-  <si>
-    <t>17248.610571754827</t>
-  </si>
-  <si>
-    <t>17258.20529126799</t>
-  </si>
-  <si>
-    <t>17244.52648293043</t>
-  </si>
-  <si>
-    <t>17263.441560375737</t>
-  </si>
-  <si>
-    <t>17242.416110479695</t>
-  </si>
-  <si>
-    <t>17263.275542959407</t>
-  </si>
-  <si>
-    <t>17234.94657597604</t>
-  </si>
-  <si>
-    <t>17253.880986323107</t>
-  </si>
-  <si>
-    <t>17244.454843448657</t>
-  </si>
-  <si>
-    <t>17256.80084174667</t>
-  </si>
-  <si>
-    <t>17237.559803421205</t>
-  </si>
-  <si>
-    <t>17254.569320208488</t>
-  </si>
-  <si>
-    <t>17240.50262217429</t>
-  </si>
-  <si>
-    <t>17252.654419258262</t>
-  </si>
-  <si>
-    <t>17240.063095679358</t>
-  </si>
-  <si>
-    <t>17237.31130924726</t>
-  </si>
-  <si>
-    <t>17239.295503250152</t>
-  </si>
-  <si>
-    <t>17239.049647704705</t>
-  </si>
-  <si>
-    <t>17254.264559318057</t>
-  </si>
-  <si>
-    <t>17249.746536026134</t>
-  </si>
-  <si>
-    <t>17236.19574050662</t>
-  </si>
-  <si>
-    <t>17235.437217852217</t>
-  </si>
-  <si>
-    <t>17238.8864555186</t>
-  </si>
-  <si>
-    <t>17244.617250876436</t>
-  </si>
-  <si>
-    <t>17239.71206294703</t>
-  </si>
-  <si>
-    <t>17234.353227895564</t>
-  </si>
-  <si>
-    <t>17215.459779662106</t>
-  </si>
-  <si>
-    <t>17218.978157218047</t>
-  </si>
-  <si>
-    <t>17217.415407953842</t>
-  </si>
-  <si>
-    <t>17221.51449000356</t>
-  </si>
-  <si>
-    <t>17216.054064843145</t>
-  </si>
-  <si>
-    <t>17214.17203910927</t>
-  </si>
-  <si>
-    <t>17209.10890347184</t>
-  </si>
-  <si>
-    <t>17206.67133962618</t>
-  </si>
-  <si>
-    <t>17212.31140089807</t>
-  </si>
-  <si>
-    <t>17205.175647409844</t>
-  </si>
-  <si>
-    <t>17209.59626153872</t>
-  </si>
-  <si>
-    <t>17202.192415599493</t>
-  </si>
-  <si>
-    <t>17201.26718510966</t>
-  </si>
-  <si>
-    <t>17204.760186828855</t>
-  </si>
-  <si>
-    <t>17196.00694860244</t>
-  </si>
-  <si>
-    <t>17196.957431605904</t>
-  </si>
-  <si>
-    <t>17207.93004286377</t>
-  </si>
-  <si>
-    <t>17199.877972021288</t>
-  </si>
-  <si>
-    <t>17211.08366198878</t>
-  </si>
-  <si>
-    <t>17198.170657732906</t>
-  </si>
-  <si>
-    <t>17213.997038480727</t>
-  </si>
-  <si>
-    <t>17207.85559447794</t>
-  </si>
-  <si>
-    <t>17208.748519061402</t>
-  </si>
-  <si>
-    <t>17215.41120830141</t>
-  </si>
-  <si>
-    <t>17215.23583159277</t>
-  </si>
-  <si>
-    <t>17204.31053398349</t>
-  </si>
-  <si>
-    <t>17208.58857864455</t>
-  </si>
-  <si>
-    <t>17210.342809519727</t>
-  </si>
-  <si>
-    <t>17217.250797553148</t>
-  </si>
-  <si>
-    <t>17212.873681545443</t>
-  </si>
-  <si>
-    <t>17213.695700372064</t>
-  </si>
-  <si>
-    <t>17206.508222229448</t>
-  </si>
-  <si>
-    <t>17216.588810546156</t>
-  </si>
-  <si>
-    <t>17209.15051437555</t>
-  </si>
-  <si>
-    <t>17208.39005881617</t>
-  </si>
-  <si>
-    <t>17202.044757649437</t>
-  </si>
-  <si>
-    <t>17209.326561033227</t>
-  </si>
-  <si>
-    <t>17201.37800107795</t>
-  </si>
-  <si>
-    <t>17202.539553533636</t>
-  </si>
-  <si>
-    <t>17201.934177640065</t>
-  </si>
-  <si>
-    <t>17205.798835628124</t>
-  </si>
-  <si>
-    <t>17211.235151072768</t>
-  </si>
-  <si>
-    <t>17206.869459308335</t>
-  </si>
-  <si>
-    <t>17208.386778524928</t>
-  </si>
-  <si>
-    <t>17210.8675593013</t>
-  </si>
-  <si>
-    <t>17200.8717607514</t>
-  </si>
-  <si>
-    <t>17205.984109879093</t>
-  </si>
-  <si>
-    <t>17191.355905284378</t>
-  </si>
-  <si>
-    <t>17216.777447367796</t>
-  </si>
-  <si>
-    <t>17194.87915539834</t>
+    <t>20949.31774448195</t>
+  </si>
+  <si>
+    <t>20935.062649480013</t>
+  </si>
+  <si>
+    <t>20931.615804486522</t>
+  </si>
+  <si>
+    <t>20918.20940219982</t>
+  </si>
+  <si>
+    <t>20882.412859350814</t>
+  </si>
+  <si>
+    <t>20886.47783247173</t>
+  </si>
+  <si>
+    <t>20863.98640378465</t>
+  </si>
+  <si>
+    <t>20892.64709271599</t>
+  </si>
+  <si>
+    <t>20854.09732229254</t>
+  </si>
+  <si>
+    <t>20879.58263644923</t>
+  </si>
+  <si>
+    <t>20852.354626886576</t>
+  </si>
+  <si>
+    <t>20869.059380897444</t>
+  </si>
+  <si>
+    <t>20889.53755390575</t>
+  </si>
+  <si>
+    <t>20851.38424592719</t>
+  </si>
+  <si>
+    <t>20856.156709017505</t>
+  </si>
+  <si>
+    <t>20900.90030147438</t>
+  </si>
+  <si>
+    <t>20828.478709204097</t>
+  </si>
+  <si>
+    <t>20878.891320843864</t>
+  </si>
+  <si>
+    <t>20862.58341211068</t>
+  </si>
+  <si>
+    <t>20889.346656402424</t>
+  </si>
+  <si>
+    <t>20852.192984105754</t>
+  </si>
+  <si>
+    <t>20876.99430315978</t>
+  </si>
+  <si>
+    <t>20859.839384817347</t>
+  </si>
+  <si>
+    <t>20858.74172264787</t>
+  </si>
+  <si>
+    <t>20826.22037503476</t>
+  </si>
+  <si>
+    <t>20809.36915291311</t>
+  </si>
+  <si>
+    <t>20806.417438222135</t>
+  </si>
+  <si>
+    <t>20833.274923614215</t>
+  </si>
+  <si>
+    <t>20800.73891854358</t>
+  </si>
+  <si>
+    <t>20824.1409214702</t>
+  </si>
+  <si>
+    <t>20769.42311723904</t>
+  </si>
+  <si>
+    <t>20771.60646012688</t>
+  </si>
+  <si>
+    <t>20741.842428278473</t>
+  </si>
+  <si>
+    <t>20759.998024084536</t>
+  </si>
+  <si>
+    <t>20759.015676463187</t>
+  </si>
+  <si>
+    <t>20738.230383335467</t>
+  </si>
+  <si>
+    <t>20735.524072454744</t>
+  </si>
+  <si>
+    <t>20716.65483750799</t>
+  </si>
+  <si>
+    <t>20693.335257609087</t>
+  </si>
+  <si>
+    <t>20705.072769465296</t>
+  </si>
+  <si>
+    <t>20703.84123818575</t>
+  </si>
+  <si>
+    <t>20689.315240281492</t>
+  </si>
+  <si>
+    <t>20696.418933458568</t>
+  </si>
+  <si>
+    <t>20692.11016647735</t>
+  </si>
+  <si>
+    <t>20694.104955766743</t>
+  </si>
+  <si>
+    <t>20693.199443751484</t>
+  </si>
+  <si>
+    <t>20704.827255858658</t>
+  </si>
+  <si>
+    <t>20710.425662826292</t>
+  </si>
+  <si>
+    <t>20722.518242056114</t>
+  </si>
+  <si>
+    <t>20692.42566690557</t>
+  </si>
+  <si>
+    <t>20692.75395733665</t>
+  </si>
+  <si>
+    <t>20688.965914122036</t>
+  </si>
+  <si>
+    <t>20672.583696710895</t>
+  </si>
+  <si>
+    <t>20700.635187499734</t>
+  </si>
+  <si>
+    <t>20667.76701003743</t>
+  </si>
+  <si>
+    <t>20676.817486723514</t>
+  </si>
+  <si>
+    <t>20680.383204728198</t>
+  </si>
+  <si>
+    <t>20654.63397438002</t>
+  </si>
+  <si>
+    <t>20687.49377678753</t>
+  </si>
+  <si>
+    <t>20671.708709936902</t>
+  </si>
+  <si>
+    <t>20685.95005281452</t>
+  </si>
+  <si>
+    <t>20639.491133927993</t>
+  </si>
+  <si>
+    <t>20672.318947404878</t>
+  </si>
+  <si>
+    <t>20660.9308017286</t>
+  </si>
+  <si>
+    <t>20665.044280022485</t>
+  </si>
+  <si>
+    <t>20661.861432396287</t>
+  </si>
+  <si>
+    <t>20658.201360160092</t>
+  </si>
+  <si>
+    <t>20679.595493599736</t>
+  </si>
+  <si>
+    <t>20684.455108794566</t>
+  </si>
+  <si>
+    <t>20676.7150535547</t>
+  </si>
+  <si>
+    <t>20658.2365509765</t>
+  </si>
+  <si>
+    <t>20678.919497943083</t>
+  </si>
+  <si>
+    <t>20664.949073579326</t>
+  </si>
+  <si>
+    <t>20664.1355142</t>
+  </si>
+  <si>
+    <t>20689.633929374006</t>
+  </si>
+  <si>
+    <t>20681.340337794834</t>
+  </si>
+  <si>
+    <t>20671.99411683978</t>
+  </si>
+  <si>
+    <t>20683.557332917208</t>
+  </si>
+  <si>
+    <t>20665.41028106282</t>
+  </si>
+  <si>
+    <t>20677.050915217264</t>
+  </si>
+  <si>
+    <t>20699.932619484396</t>
+  </si>
+  <si>
+    <t>20704.138158023277</t>
+  </si>
+  <si>
+    <t>20694.129927507078</t>
+  </si>
+  <si>
+    <t>20678.430526299493</t>
+  </si>
+  <si>
+    <t>20694.0417430734</t>
+  </si>
+  <si>
+    <t>20690.87927110508</t>
+  </si>
+  <si>
+    <t>20681.807731728924</t>
+  </si>
+  <si>
+    <t>20694.8392759862</t>
+  </si>
+  <si>
+    <t>20666.961317472098</t>
+  </si>
+  <si>
+    <t>20701.91485321567</t>
+  </si>
+  <si>
+    <t>20680.985242927938</t>
+  </si>
+  <si>
+    <t>20675.458198204728</t>
+  </si>
+  <si>
+    <t>20698.770016922008</t>
+  </si>
+  <si>
+    <t>20641.00603211735</t>
+  </si>
+  <si>
+    <t>20636.947931931743</t>
+  </si>
+  <si>
+    <t>20640.561333804962</t>
+  </si>
+  <si>
+    <t>20631.812511008033</t>
+  </si>
+  <si>
+    <t>20662.600445001357</t>
+  </si>
+  <si>
+    <t>20642.642614998218</t>
+  </si>
+  <si>
+    <t>20657.28247977816</t>
+  </si>
+  <si>
+    <t>20662.65727544866</t>
+  </si>
+  <si>
+    <t>20661.647917167295</t>
+  </si>
+  <si>
+    <t>20625.918800104886</t>
+  </si>
+  <si>
+    <t>20665.169958278333</t>
+  </si>
+  <si>
+    <t>20670.32122825946</t>
+  </si>
+  <si>
+    <t>20658.07477184523</t>
+  </si>
+  <si>
+    <t>20692.222713849405</t>
+  </si>
+  <si>
+    <t>20694.227649047705</t>
+  </si>
+  <si>
+    <t>20717.42818573868</t>
+  </si>
+  <si>
+    <t>20698.546224693393</t>
+  </si>
+  <si>
+    <t>20705.149273553696</t>
+  </si>
+  <si>
+    <t>20698.352621704766</t>
+  </si>
+  <si>
+    <t>20726.545569529553</t>
+  </si>
+  <si>
+    <t>20732.308434360428</t>
+  </si>
+  <si>
+    <t>20742.621286935282</t>
+  </si>
+  <si>
+    <t>20725.98949370872</t>
+  </si>
+  <si>
+    <t>20740.886158328172</t>
+  </si>
+  <si>
+    <t>20721.70594136364</t>
+  </si>
+  <si>
+    <t>20741.010734817315</t>
+  </si>
+  <si>
+    <t>20727.953431841877</t>
+  </si>
+  <si>
+    <t>20730.996582513162</t>
+  </si>
+  <si>
+    <t>20735.686563552477</t>
+  </si>
+  <si>
+    <t>20726.142763593823</t>
+  </si>
+  <si>
+    <t>20730.29731339886</t>
+  </si>
+  <si>
+    <t>20728.18639296621</t>
+  </si>
+  <si>
+    <t>20711.604008088612</t>
+  </si>
+  <si>
+    <t>20726.304740357606</t>
+  </si>
+  <si>
+    <t>20718.175569847892</t>
+  </si>
+  <si>
+    <t>20727.351124415007</t>
+  </si>
+  <si>
+    <t>20737.671952123528</t>
+  </si>
+  <si>
+    <t>20725.63255493763</t>
+  </si>
+  <si>
+    <t>20742.414582509904</t>
+  </si>
+  <si>
+    <t>20735.169885627485</t>
+  </si>
+  <si>
+    <t>20759.20065575835</t>
+  </si>
+  <si>
+    <t>20758.916022577116</t>
+  </si>
+  <si>
+    <t>20748.210567402206</t>
+  </si>
+  <si>
+    <t>20738.561746776104</t>
+  </si>
+  <si>
+    <t>20722.575842768976</t>
+  </si>
+  <si>
+    <t>20732.80475543056</t>
+  </si>
+  <si>
+    <t>20730.357165487665</t>
+  </si>
+  <si>
+    <t>20731.23469741569</t>
+  </si>
+  <si>
+    <t>20731.127779604958</t>
+  </si>
+  <si>
+    <t>20726.55807546686</t>
+  </si>
+  <si>
+    <t>20726.59302245157</t>
+  </si>
+  <si>
+    <t>20736.912025260215</t>
+  </si>
+  <si>
+    <t>20733.39897170137</t>
+  </si>
+  <si>
+    <t>20736.20628534306</t>
+  </si>
+  <si>
+    <t>20736.502491668725</t>
+  </si>
+  <si>
+    <t>20745.44251337991</t>
+  </si>
+  <si>
+    <t>20716.176388239168</t>
+  </si>
+  <si>
+    <t>20695.621997658454</t>
+  </si>
+  <si>
+    <t>20695.799478043777</t>
+  </si>
+  <si>
+    <t>20695.851007199504</t>
+  </si>
+  <si>
+    <t>20699.200261935443</t>
+  </si>
+  <si>
+    <t>20703.320340339757</t>
+  </si>
+  <si>
+    <t>20697.45976554703</t>
+  </si>
+  <si>
+    <t>20734.203165264375</t>
+  </si>
+  <si>
+    <t>20719.909345993474</t>
+  </si>
+  <si>
+    <t>20705.501106708605</t>
+  </si>
+  <si>
+    <t>20713.605571458702</t>
+  </si>
+  <si>
+    <t>20715.53379281618</t>
+  </si>
+  <si>
+    <t>20715.89565777028</t>
+  </si>
+  <si>
+    <t>20713.15103811722</t>
+  </si>
+  <si>
+    <t>20708.24380642493</t>
+  </si>
+  <si>
+    <t>20704.043206505554</t>
+  </si>
+  <si>
+    <t>20697.274862835453</t>
+  </si>
+  <si>
+    <t>20690.5410725031</t>
+  </si>
+  <si>
+    <t>20689.50548458013</t>
+  </si>
+  <si>
+    <t>20675.436228017483</t>
+  </si>
+  <si>
+    <t>20688.80616826993</t>
+  </si>
+  <si>
+    <t>20668.28906441839</t>
+  </si>
+  <si>
+    <t>20662.846756449097</t>
+  </si>
+  <si>
+    <t>20670.356132521683</t>
+  </si>
+  <si>
+    <t>20714.52462683718</t>
+  </si>
+  <si>
+    <t>20672.797178173365</t>
+  </si>
+  <si>
+    <t>20738.4560491957</t>
+  </si>
+  <si>
+    <t>20698.812139489688</t>
+  </si>
+  <si>
+    <t>20721.53452328185</t>
+  </si>
+  <si>
+    <t>20725.29096471515</t>
+  </si>
+  <si>
+    <t>20756.55357718201</t>
+  </si>
+  <si>
+    <t>20711.06441789404</t>
+  </si>
+  <si>
+    <t>20759.356768239777</t>
+  </si>
+  <si>
+    <t>20765.724848668815</t>
+  </si>
+  <si>
+    <t>20745.40923036501</t>
+  </si>
+  <si>
+    <t>20759.385664469217</t>
+  </si>
+  <si>
+    <t>20740.340188036967</t>
+  </si>
+  <si>
+    <t>20761.6679527366</t>
+  </si>
+  <si>
+    <t>20787.260301161637</t>
+  </si>
+  <si>
+    <t>20772.597571905917</t>
+  </si>
+  <si>
+    <t>20764.29373129274</t>
+  </si>
+  <si>
+    <t>20781.409592384734</t>
+  </si>
+  <si>
+    <t>20763.995100703687</t>
+  </si>
+  <si>
+    <t>20762.45291608892</t>
+  </si>
+  <si>
+    <t>20773.76723537301</t>
+  </si>
+  <si>
+    <t>20720.943396415078</t>
+  </si>
+  <si>
+    <t>20770.659008698487</t>
+  </si>
+  <si>
+    <t>20725.42112802626</t>
+  </si>
+  <si>
+    <t>20772.361087358633</t>
+  </si>
+  <si>
+    <t>20760.59004054809</t>
+  </si>
+  <si>
+    <t>20786.04306889617</t>
+  </si>
+  <si>
+    <t>20807.06279054836</t>
+  </si>
+  <si>
+    <t>20755.405019867972</t>
+  </si>
+  <si>
+    <t>20862.276168637254</t>
+  </si>
+  <si>
+    <t>20726.112100928527</t>
+  </si>
+  <si>
+    <t>20827.66772050199</t>
+  </si>
+  <si>
+    <t>20724.036335448953</t>
+  </si>
+  <si>
+    <t>20876.297038055938</t>
+  </si>
+  <si>
+    <t>20923.0740922987</t>
+  </si>
+  <si>
+    <t>20908.48520032565</t>
+  </si>
+  <si>
+    <t>20886.898903824273</t>
+  </si>
+  <si>
+    <t>20991.769856200804</t>
+  </si>
+  <si>
+    <t>20890.39295133414</t>
+  </si>
+  <si>
+    <t>20915.151767042615</t>
+  </si>
+  <si>
+    <t>20943.087824080707</t>
+  </si>
+  <si>
+    <t>20944.76390197644</t>
+  </si>
+  <si>
+    <t>20974.606544797818</t>
+  </si>
+  <si>
+    <t>20956.286837676842</t>
+  </si>
+  <si>
+    <t>20965.703291275953</t>
+  </si>
+  <si>
+    <t>20967.837850586584</t>
+  </si>
+  <si>
+    <t>20962.687837084814</t>
+  </si>
+  <si>
+    <t>20919.444162653137</t>
+  </si>
+  <si>
+    <t>20962.027546404304</t>
+  </si>
+  <si>
+    <t>20893.094083735417</t>
+  </si>
+  <si>
+    <t>20948.992336062747</t>
+  </si>
+  <si>
+    <t>20905.90795399405</t>
+  </si>
+  <si>
+    <t>20923.716725017974</t>
+  </si>
+  <si>
+    <t>20878.613859290595</t>
+  </si>
+  <si>
+    <t>20872.761709299604</t>
+  </si>
+  <si>
+    <t>20872.310004669485</t>
+  </si>
+  <si>
+    <t>20864.48546495512</t>
+  </si>
+  <si>
+    <t>20851.206261251606</t>
+  </si>
+  <si>
+    <t>20864.628825516913</t>
+  </si>
+  <si>
+    <t>20843.515892641823</t>
+  </si>
+  <si>
+    <t>20862.10669983968</t>
+  </si>
+  <si>
+    <t>20829.86239039909</t>
+  </si>
+  <si>
+    <t>20847.62715499543</t>
+  </si>
+  <si>
+    <t>20874.314923422273</t>
+  </si>
+  <si>
+    <t>20826.30809299332</t>
+  </si>
+  <si>
+    <t>20854.797121043997</t>
+  </si>
+  <si>
+    <t>20846.363093674405</t>
+  </si>
+  <si>
+    <t>20844.197365184056</t>
+  </si>
+  <si>
+    <t>20854.481737252154</t>
+  </si>
+  <si>
+    <t>20831.377552600094</t>
+  </si>
+  <si>
+    <t>20840.637049750938</t>
+  </si>
+  <si>
+    <t>20869.110639198967</t>
+  </si>
+  <si>
+    <t>20851.679065429507</t>
+  </si>
+  <si>
+    <t>20874.43786065183</t>
+  </si>
+  <si>
+    <t>20806.941484403014</t>
+  </si>
+  <si>
+    <t>20832.73588236277</t>
+  </si>
+  <si>
+    <t>20797.308815447817</t>
+  </si>
+  <si>
+    <t>20793.892379445646</t>
+  </si>
+  <si>
+    <t>20800.378185860664</t>
+  </si>
+  <si>
+    <t>20786.136140016857</t>
+  </si>
+  <si>
+    <t>20786.32939014631</t>
+  </si>
+  <si>
+    <t>20759.779824160887</t>
+  </si>
+  <si>
+    <t>20757.78484615255</t>
+  </si>
+  <si>
+    <t>20789.001632577485</t>
+  </si>
+  <si>
+    <t>20756.65766064941</t>
+  </si>
+  <si>
+    <t>20770.195125667266</t>
+  </si>
+  <si>
+    <t>20748.58985344208</t>
+  </si>
+  <si>
+    <t>20796.908228699747</t>
+  </si>
+  <si>
+    <t>20720.39443875546</t>
+  </si>
+  <si>
+    <t>20796.431949315527</t>
+  </si>
+  <si>
+    <t>20789.74225310135</t>
+  </si>
+  <si>
+    <t>20768.303563432626</t>
+  </si>
+  <si>
+    <t>20763.42673381451</t>
+  </si>
+  <si>
+    <t>20779.146536950117</t>
+  </si>
+  <si>
+    <t>20764.633382031985</t>
+  </si>
+  <si>
+    <t>20763.235719893608</t>
+  </si>
+  <si>
+    <t>20732.779139518374</t>
+  </si>
+  <si>
+    <t>20732.289059115064</t>
+  </si>
+  <si>
+    <t>20739.00267651428</t>
+  </si>
+  <si>
+    <t>20741.57546111627</t>
+  </si>
+  <si>
+    <t>20749.001396915155</t>
+  </si>
+  <si>
+    <t>20725.112974995045</t>
+  </si>
+  <si>
+    <t>20749.68143601495</t>
+  </si>
+  <si>
+    <t>20729.34998793227</t>
+  </si>
+  <si>
+    <t>20740.124204274372</t>
+  </si>
+  <si>
+    <t>20704.825475199577</t>
+  </si>
+  <si>
+    <t>20718.423557595183</t>
+  </si>
+  <si>
+    <t>20740.866957192058</t>
+  </si>
+  <si>
+    <t>20743.664486594113</t>
+  </si>
+  <si>
+    <t>20724.149402213123</t>
+  </si>
+  <si>
+    <t>20782.35654436419</t>
+  </si>
+  <si>
+    <t>20770.353890585786</t>
+  </si>
+  <si>
+    <t>20754.518115152816</t>
+  </si>
+  <si>
+    <t>20822.29292595936</t>
+  </si>
+  <si>
+    <t>20813.058098778823</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44937.46180555555</v>
+        <v>44942.02777777778</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44937.45833333334</v>
+        <v>44942.02430555555</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44937.45486111111</v>
+        <v>44942.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44937.45138888889</v>
+        <v>44942.01736111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44937.44791666666</v>
+        <v>44942.01388888889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44937.44444444445</v>
+        <v>44942.01041666666</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44937.44097222222</v>
+        <v>44942.00694444445</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44937.4375</v>
+        <v>44942.00347222222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44937.43402777778</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44937.43055555555</v>
+        <v>44941.99652777778</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44937.42708333334</v>
+        <v>44941.99305555555</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44937.42361111111</v>
+        <v>44941.98958333334</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44937.42013888889</v>
+        <v>44941.98611111111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44937.41666666666</v>
+        <v>44941.98263888889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44937.41319444445</v>
+        <v>44941.97916666666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44937.40972222222</v>
+        <v>44941.97569444445</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44937.40625</v>
+        <v>44941.97222222222</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44937.40277777778</v>
+        <v>44941.96875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44937.39930555555</v>
+        <v>44941.96527777778</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44937.39583333334</v>
+        <v>44941.96180555555</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44937.39236111111</v>
+        <v>44941.95833333334</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44937.38888888889</v>
+        <v>44941.95486111111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44937.38541666666</v>
+        <v>44941.95138888889</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44937.38194444445</v>
+        <v>44941.94791666666</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44937.37847222222</v>
+        <v>44941.94444444445</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44937.375</v>
+        <v>44941.94097222222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44937.37152777778</v>
+        <v>44941.9375</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44937.36805555555</v>
+        <v>44941.93402777778</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44937.36458333334</v>
+        <v>44941.93055555555</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44937.36111111111</v>
+        <v>44941.92708333334</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44937.35763888889</v>
+        <v>44941.92361111111</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44937.35416666666</v>
+        <v>44941.92013888889</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44937.35069444445</v>
+        <v>44941.91666666666</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44937.34722222222</v>
+        <v>44941.91319444445</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44937.34375</v>
+        <v>44941.90972222222</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44937.34027777778</v>
+        <v>44941.90625</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44937.33680555555</v>
+        <v>44941.90277777778</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44937.33333333334</v>
+        <v>44941.89930555555</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44937.32986111111</v>
+        <v>44941.89583333334</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44937.32638888889</v>
+        <v>44941.89236111111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44937.32291666666</v>
+        <v>44941.88888888889</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44937.31944444445</v>
+        <v>44941.88541666666</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44937.31597222222</v>
+        <v>44941.88194444445</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44937.3125</v>
+        <v>44941.87847222222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44937.30902777778</v>
+        <v>44941.875</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44937.30555555555</v>
+        <v>44941.87152777778</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44937.30208333334</v>
+        <v>44941.86805555555</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44937.29861111111</v>
+        <v>44941.86458333334</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44937.29513888889</v>
+        <v>44941.86111111111</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44937.29166666666</v>
+        <v>44941.85763888889</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44937.28819444445</v>
+        <v>44941.85416666666</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44937.28472222222</v>
+        <v>44941.85069444445</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44937.28125</v>
+        <v>44941.84722222222</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44937.27777777778</v>
+        <v>44941.84375</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44937.27430555555</v>
+        <v>44941.84027777778</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44937.27083333334</v>
+        <v>44941.83680555555</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44937.26736111111</v>
+        <v>44941.83333333334</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44937.26388888889</v>
+        <v>44941.82986111111</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44937.26041666666</v>
+        <v>44941.82638888889</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44937.25694444445</v>
+        <v>44941.82291666666</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44937.25347222222</v>
+        <v>44941.81944444445</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44937.25</v>
+        <v>44941.81597222222</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44937.24652777778</v>
+        <v>44941.8125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44937.24305555555</v>
+        <v>44941.80902777778</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44937.23958333334</v>
+        <v>44941.80555555555</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44937.23611111111</v>
+        <v>44941.80208333334</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44937.23263888889</v>
+        <v>44941.79861111111</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44937.22916666666</v>
+        <v>44941.79513888889</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44937.22569444445</v>
+        <v>44941.79166666666</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44937.22222222222</v>
+        <v>44941.78819444445</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44937.21875</v>
+        <v>44941.78472222222</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44937.21527777778</v>
+        <v>44941.78125</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44937.21180555555</v>
+        <v>44941.77777777778</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44937.20833333334</v>
+        <v>44941.77430555555</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44937.20486111111</v>
+        <v>44941.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44937.20138888889</v>
+        <v>44941.76736111111</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44937.19791666666</v>
+        <v>44941.76388888889</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44937.19444444445</v>
+        <v>44941.76041666666</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44937.19097222222</v>
+        <v>44941.75694444445</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44937.1875</v>
+        <v>44941.75347222222</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44937.18402777778</v>
+        <v>44941.75</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44937.18055555555</v>
+        <v>44941.74652777778</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44937.17708333334</v>
+        <v>44941.74305555555</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44937.17361111111</v>
+        <v>44941.73958333334</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44937.17013888889</v>
+        <v>44941.73611111111</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44937.16666666666</v>
+        <v>44941.73263888889</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44937.16319444445</v>
+        <v>44941.72916666666</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44937.15972222222</v>
+        <v>44941.72569444445</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44937.15625</v>
+        <v>44941.72222222222</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44937.15277777778</v>
+        <v>44941.71875</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44937.14930555555</v>
+        <v>44941.71527777778</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44937.14583333334</v>
+        <v>44941.71180555555</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44937.14236111111</v>
+        <v>44941.70833333334</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44937.13888888889</v>
+        <v>44941.70486111111</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44937.13541666666</v>
+        <v>44941.70138888889</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44937.13194444445</v>
+        <v>44941.69791666666</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44937.12847222222</v>
+        <v>44941.69444444445</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44937.125</v>
+        <v>44941.69097222222</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44937.12152777778</v>
+        <v>44941.6875</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44937.11805555555</v>
+        <v>44941.68402777778</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44937.11458333334</v>
+        <v>44941.68055555555</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44937.11111111111</v>
+        <v>44941.67708333334</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44937.10763888889</v>
+        <v>44941.67361111111</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44937.10416666666</v>
+        <v>44941.67013888889</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44937.10069444445</v>
+        <v>44941.66666666666</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44937.09722222222</v>
+        <v>44941.66319444445</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44937.09375</v>
+        <v>44941.65972222222</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44937.09027777778</v>
+        <v>44941.65625</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44937.08680555555</v>
+        <v>44941.65277777778</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44937.08333333334</v>
+        <v>44941.64930555555</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44937.07986111111</v>
+        <v>44941.64583333334</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44937.07638888889</v>
+        <v>44941.64236111111</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44937.07291666666</v>
+        <v>44941.63888888889</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44937.06944444445</v>
+        <v>44941.63541666666</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44937.06597222222</v>
+        <v>44941.63194444445</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44937.0625</v>
+        <v>44941.62847222222</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44937.05902777778</v>
+        <v>44941.625</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44937.05555555555</v>
+        <v>44941.62152777778</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44937.05208333334</v>
+        <v>44941.61805555555</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44937.04861111111</v>
+        <v>44941.61458333334</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44937.04513888889</v>
+        <v>44941.61111111111</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44937.04166666666</v>
+        <v>44941.60763888889</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44937.03819444445</v>
+        <v>44941.60416666666</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44937.03472222222</v>
+        <v>44941.60069444445</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44937.03125</v>
+        <v>44941.59722222222</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44937.02777777778</v>
+        <v>44941.59375</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44937.02430555555</v>
+        <v>44941.59027777778</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44937.02083333334</v>
+        <v>44941.58680555555</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44937.01736111111</v>
+        <v>44941.58333333334</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44937.01388888889</v>
+        <v>44941.57986111111</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44937.01041666666</v>
+        <v>44941.57638888889</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44937.00694444445</v>
+        <v>44941.57291666666</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44937.00347222222</v>
+        <v>44941.56944444445</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44937</v>
+        <v>44941.56597222222</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44936.99652777778</v>
+        <v>44941.5625</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44936.99305555555</v>
+        <v>44941.55902777778</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44936.98958333334</v>
+        <v>44941.55555555555</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44936.98611111111</v>
+        <v>44941.55208333334</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44936.98263888889</v>
+        <v>44941.54861111111</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44936.97916666666</v>
+        <v>44941.54513888889</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44936.97569444445</v>
+        <v>44941.54166666666</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44936.97222222222</v>
+        <v>44941.53819444445</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44936.96875</v>
+        <v>44941.53472222222</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44936.96527777778</v>
+        <v>44941.53125</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44936.96180555555</v>
+        <v>44941.52777777778</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44936.95833333334</v>
+        <v>44941.52430555555</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44936.95486111111</v>
+        <v>44941.52083333334</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44936.95138888889</v>
+        <v>44941.51736111111</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44936.94791666666</v>
+        <v>44941.51388888889</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44936.94444444445</v>
+        <v>44941.51041666666</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44936.94097222222</v>
+        <v>44941.50694444445</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44936.9375</v>
+        <v>44941.50347222222</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44936.93402777778</v>
+        <v>44941.5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44936.93055555555</v>
+        <v>44941.49652777778</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44936.92708333334</v>
+        <v>44941.49305555555</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44936.92361111111</v>
+        <v>44941.48958333334</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44936.92013888889</v>
+        <v>44941.48611111111</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44936.91666666666</v>
+        <v>44941.48263888889</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44936.91319444445</v>
+        <v>44941.47916666666</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44936.90972222222</v>
+        <v>44941.47569444445</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44936.90625</v>
+        <v>44941.47222222222</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44936.90277777778</v>
+        <v>44941.46875</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44936.89930555555</v>
+        <v>44941.46527777778</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44936.89583333334</v>
+        <v>44941.46180555555</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44936.89236111111</v>
+        <v>44941.45833333334</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44936.88888888889</v>
+        <v>44941.45486111111</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44936.88541666666</v>
+        <v>44941.45138888889</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44936.88194444445</v>
+        <v>44941.44791666666</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44936.87847222222</v>
+        <v>44941.44444444445</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44936.875</v>
+        <v>44941.44097222222</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44936.87152777778</v>
+        <v>44941.4375</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44936.86805555555</v>
+        <v>44941.43402777778</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44936.86458333334</v>
+        <v>44941.43055555555</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44936.86111111111</v>
+        <v>44941.42708333334</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44936.85763888889</v>
+        <v>44941.42361111111</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44936.85416666666</v>
+        <v>44941.42013888889</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44936.85069444445</v>
+        <v>44941.41666666666</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44936.84722222222</v>
+        <v>44941.41319444445</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44936.84375</v>
+        <v>44941.40972222222</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44936.84027777778</v>
+        <v>44941.40625</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44936.83680555555</v>
+        <v>44941.40277777778</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44936.83333333334</v>
+        <v>44941.39930555555</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44936.82986111111</v>
+        <v>44941.39583333334</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44936.82638888889</v>
+        <v>44941.39236111111</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44936.82291666666</v>
+        <v>44941.38888888889</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44936.81944444445</v>
+        <v>44941.38541666666</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44936.81597222222</v>
+        <v>44941.38194444445</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44936.8125</v>
+        <v>44941.37847222222</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44936.80902777778</v>
+        <v>44941.375</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44936.80555555555</v>
+        <v>44941.37152777778</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44936.80208333334</v>
+        <v>44941.36805555555</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44936.79861111111</v>
+        <v>44941.36458333334</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44936.79513888889</v>
+        <v>44941.36111111111</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44936.79166666666</v>
+        <v>44941.35763888889</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44936.78819444445</v>
+        <v>44941.35416666666</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44936.78472222222</v>
+        <v>44941.35069444445</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44936.78125</v>
+        <v>44941.34722222222</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44936.77777777778</v>
+        <v>44941.34375</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44936.77430555555</v>
+        <v>44941.34027777778</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44936.77083333334</v>
+        <v>44941.33680555555</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44936.76736111111</v>
+        <v>44941.33333333334</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44936.76388888889</v>
+        <v>44941.32986111111</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44936.76041666666</v>
+        <v>44941.32638888889</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44936.75694444445</v>
+        <v>44941.32291666666</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44936.75347222222</v>
+        <v>44941.31944444445</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44936.75</v>
+        <v>44941.31597222222</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44936.74652777778</v>
+        <v>44941.3125</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44936.74305555555</v>
+        <v>44941.30902777778</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44936.73958333334</v>
+        <v>44941.30555555555</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44936.73611111111</v>
+        <v>44941.30208333334</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44936.73263888889</v>
+        <v>44941.29861111111</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44936.72916666666</v>
+        <v>44941.29513888889</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44936.72569444445</v>
+        <v>44941.29166666666</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44936.72222222222</v>
+        <v>44941.28819444445</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44936.71875</v>
+        <v>44941.28472222222</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44936.71527777778</v>
+        <v>44941.28125</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44936.71180555555</v>
+        <v>44941.27777777778</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44936.70833333334</v>
+        <v>44941.27430555555</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44936.70486111111</v>
+        <v>44941.27083333334</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44936.70138888889</v>
+        <v>44941.26736111111</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44936.69791666666</v>
+        <v>44941.26388888889</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44936.69444444445</v>
+        <v>44941.26041666666</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44936.69097222222</v>
+        <v>44941.25694444445</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44936.6875</v>
+        <v>44941.25347222222</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44936.68402777778</v>
+        <v>44941.25</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44936.68055555555</v>
+        <v>44941.24652777778</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44936.67708333334</v>
+        <v>44941.24305555555</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44936.67361111111</v>
+        <v>44941.23958333334</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44936.67013888889</v>
+        <v>44941.23611111111</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44936.66666666666</v>
+        <v>44941.23263888889</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44936.66319444445</v>
+        <v>44941.22916666666</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44936.65972222222</v>
+        <v>44941.22569444445</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44936.65625</v>
+        <v>44941.22222222222</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44936.65277777778</v>
+        <v>44941.21875</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44936.64930555555</v>
+        <v>44941.21527777778</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44936.64583333334</v>
+        <v>44941.21180555555</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44936.64236111111</v>
+        <v>44941.20833333334</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44936.63888888889</v>
+        <v>44941.20486111111</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44936.63541666666</v>
+        <v>44941.20138888889</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44936.63194444445</v>
+        <v>44941.19791666666</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44936.62847222222</v>
+        <v>44941.19444444445</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44936.625</v>
+        <v>44941.19097222222</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44936.62152777778</v>
+        <v>44941.1875</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44936.61805555555</v>
+        <v>44941.18402777778</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44936.61458333334</v>
+        <v>44941.18055555555</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44936.61111111111</v>
+        <v>44941.17708333334</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44936.60763888889</v>
+        <v>44941.17361111111</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44936.60416666666</v>
+        <v>44941.17013888889</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44936.60069444445</v>
+        <v>44941.16666666666</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44936.59722222222</v>
+        <v>44941.16319444445</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44936.59375</v>
+        <v>44941.15972222222</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44936.59027777778</v>
+        <v>44941.15625</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44936.58680555555</v>
+        <v>44941.15277777778</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44936.58333333334</v>
+        <v>44941.14930555555</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44936.57986111111</v>
+        <v>44941.14583333334</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44936.57638888889</v>
+        <v>44941.14236111111</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44936.57291666666</v>
+        <v>44941.13888888889</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44936.56944444445</v>
+        <v>44941.13541666666</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44936.56597222222</v>
+        <v>44941.13194444445</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44936.5625</v>
+        <v>44941.12847222222</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44936.55902777778</v>
+        <v>44941.125</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44936.55555555555</v>
+        <v>44941.12152777778</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44936.55208333334</v>
+        <v>44941.11805555555</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44936.54861111111</v>
+        <v>44941.11458333334</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44936.54513888889</v>
+        <v>44941.11111111111</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44936.54166666666</v>
+        <v>44941.10763888889</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44936.53819444445</v>
+        <v>44941.10416666666</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44936.53472222222</v>
+        <v>44941.10069444445</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44936.53125</v>
+        <v>44941.09722222222</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44936.52777777778</v>
+        <v>44941.09375</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44936.52430555555</v>
+        <v>44941.09027777778</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44936.52083333334</v>
+        <v>44941.08680555555</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44936.51736111111</v>
+        <v>44941.08333333334</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44936.51388888889</v>
+        <v>44941.07986111111</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44936.51041666666</v>
+        <v>44941.07638888889</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44936.50694444445</v>
+        <v>44941.07291666666</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44936.50347222222</v>
+        <v>44941.06944444445</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44936.5</v>
+        <v>44941.06597222222</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44936.49652777778</v>
+        <v>44941.0625</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44936.49305555555</v>
+        <v>44941.05902777778</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44936.48958333334</v>
+        <v>44941.05555555555</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44936.48611111111</v>
+        <v>44941.05208333334</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44936.48263888889</v>
+        <v>44941.04861111111</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44936.47916666666</v>
+        <v>44941.04513888889</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44936.47569444445</v>
+        <v>44941.04166666666</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44936.47222222222</v>
+        <v>44941.03819444445</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44936.46875</v>
+        <v>44941.03472222222</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44936.46527777778</v>
+        <v>44941.03125</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,6 +22,21 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>20764.790864108374</t>
+  </si>
+  <si>
+    <t>20919.284734716857</t>
+  </si>
+  <si>
+    <t>20952.005999687455</t>
+  </si>
+  <si>
+    <t>20903.07452831691</t>
+  </si>
+  <si>
+    <t>20930.891830294542</t>
+  </si>
+  <si>
     <t>20949.31774448195</t>
   </si>
   <si>
@@ -869,21 +884,6 @@
   </si>
   <si>
     <t>20724.149402213123</t>
-  </si>
-  <si>
-    <t>20782.35654436419</t>
-  </si>
-  <si>
-    <t>20770.353890585786</t>
-  </si>
-  <si>
-    <t>20754.518115152816</t>
-  </si>
-  <si>
-    <t>20822.29292595936</t>
-  </si>
-  <si>
-    <t>20813.058098778823</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44942.02777777778</v>
+        <v>44942.04513888889</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44942.02430555555</v>
+        <v>44942.04166666666</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44942.02083333334</v>
+        <v>44942.03819444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44942.01736111111</v>
+        <v>44942.03472222222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44942.01388888889</v>
+        <v>44942.03125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44942.01041666666</v>
+        <v>44942.02777777778</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44942.00694444445</v>
+        <v>44942.02430555555</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44942.00347222222</v>
+        <v>44942.02083333334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44942</v>
+        <v>44942.01736111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44941.99652777778</v>
+        <v>44942.01388888889</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44941.99305555555</v>
+        <v>44942.01041666666</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44941.98958333334</v>
+        <v>44942.00694444445</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44941.98611111111</v>
+        <v>44942.00347222222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44941.98263888889</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44941.97916666666</v>
+        <v>44941.99652777778</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44941.97569444445</v>
+        <v>44941.99305555555</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44941.97222222222</v>
+        <v>44941.98958333334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44941.96875</v>
+        <v>44941.98611111111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44941.96527777778</v>
+        <v>44941.98263888889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44941.96180555555</v>
+        <v>44941.97916666666</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44941.95833333334</v>
+        <v>44941.97569444445</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44941.95486111111</v>
+        <v>44941.97222222222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44941.95138888889</v>
+        <v>44941.96875</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44941.94791666666</v>
+        <v>44941.96527777778</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44941.94444444445</v>
+        <v>44941.96180555555</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44941.94097222222</v>
+        <v>44941.95833333334</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44941.9375</v>
+        <v>44941.95486111111</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44941.93402777778</v>
+        <v>44941.95138888889</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44941.93055555555</v>
+        <v>44941.94791666666</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44941.92708333334</v>
+        <v>44941.94444444445</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44941.92361111111</v>
+        <v>44941.94097222222</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44941.92013888889</v>
+        <v>44941.9375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44941.91666666666</v>
+        <v>44941.93402777778</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44941.91319444445</v>
+        <v>44941.93055555555</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44941.90972222222</v>
+        <v>44941.92708333334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44941.90625</v>
+        <v>44941.92361111111</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44941.90277777778</v>
+        <v>44941.92013888889</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44941.89930555555</v>
+        <v>44941.91666666666</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44941.89583333334</v>
+        <v>44941.91319444445</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44941.89236111111</v>
+        <v>44941.90972222222</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44941.88888888889</v>
+        <v>44941.90625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44941.88541666666</v>
+        <v>44941.90277777778</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44941.88194444445</v>
+        <v>44941.89930555555</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44941.87847222222</v>
+        <v>44941.89583333334</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44941.875</v>
+        <v>44941.89236111111</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44941.87152777778</v>
+        <v>44941.88888888889</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44941.86805555555</v>
+        <v>44941.88541666666</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44941.86458333334</v>
+        <v>44941.88194444445</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44941.86111111111</v>
+        <v>44941.87847222222</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44941.85763888889</v>
+        <v>44941.875</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44941.85416666666</v>
+        <v>44941.87152777778</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44941.85069444445</v>
+        <v>44941.86805555555</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44941.84722222222</v>
+        <v>44941.86458333334</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44941.84375</v>
+        <v>44941.86111111111</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44941.84027777778</v>
+        <v>44941.85763888889</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44941.83680555555</v>
+        <v>44941.85416666666</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44941.83333333334</v>
+        <v>44941.85069444445</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44941.82986111111</v>
+        <v>44941.84722222222</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44941.82638888889</v>
+        <v>44941.84375</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44941.82291666666</v>
+        <v>44941.84027777778</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44941.81944444445</v>
+        <v>44941.83680555555</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44941.81597222222</v>
+        <v>44941.83333333334</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44941.8125</v>
+        <v>44941.82986111111</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44941.80902777778</v>
+        <v>44941.82638888889</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44941.80555555555</v>
+        <v>44941.82291666666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44941.80208333334</v>
+        <v>44941.81944444445</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44941.79861111111</v>
+        <v>44941.81597222222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44941.79513888889</v>
+        <v>44941.8125</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44941.79166666666</v>
+        <v>44941.80902777778</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44941.78819444445</v>
+        <v>44941.80555555555</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44941.78472222222</v>
+        <v>44941.80208333334</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44941.78125</v>
+        <v>44941.79861111111</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44941.77777777778</v>
+        <v>44941.79513888889</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44941.77430555555</v>
+        <v>44941.79166666666</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44941.77083333334</v>
+        <v>44941.78819444445</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44941.76736111111</v>
+        <v>44941.78472222222</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44941.76388888889</v>
+        <v>44941.78125</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44941.76041666666</v>
+        <v>44941.77777777778</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44941.75694444445</v>
+        <v>44941.77430555555</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44941.75347222222</v>
+        <v>44941.77083333334</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44941.75</v>
+        <v>44941.76736111111</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44941.74652777778</v>
+        <v>44941.76388888889</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44941.74305555555</v>
+        <v>44941.76041666666</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44941.73958333334</v>
+        <v>44941.75694444445</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44941.73611111111</v>
+        <v>44941.75347222222</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44941.73263888889</v>
+        <v>44941.75</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44941.72916666666</v>
+        <v>44941.74652777778</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44941.72569444445</v>
+        <v>44941.74305555555</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44941.72222222222</v>
+        <v>44941.73958333334</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44941.71875</v>
+        <v>44941.73611111111</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44941.71527777778</v>
+        <v>44941.73263888889</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44941.71180555555</v>
+        <v>44941.72916666666</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44941.70833333334</v>
+        <v>44941.72569444445</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44941.70486111111</v>
+        <v>44941.72222222222</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44941.70138888889</v>
+        <v>44941.71875</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44941.69791666666</v>
+        <v>44941.71527777778</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44941.69444444445</v>
+        <v>44941.71180555555</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44941.69097222222</v>
+        <v>44941.70833333334</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44941.6875</v>
+        <v>44941.70486111111</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44941.68402777778</v>
+        <v>44941.70138888889</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44941.68055555555</v>
+        <v>44941.69791666666</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44941.67708333334</v>
+        <v>44941.69444444445</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44941.67361111111</v>
+        <v>44941.69097222222</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44941.67013888889</v>
+        <v>44941.6875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44941.66666666666</v>
+        <v>44941.68402777778</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44941.66319444445</v>
+        <v>44941.68055555555</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44941.65972222222</v>
+        <v>44941.67708333334</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44941.65625</v>
+        <v>44941.67361111111</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44941.65277777778</v>
+        <v>44941.67013888889</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44941.64930555555</v>
+        <v>44941.66666666666</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44941.64583333334</v>
+        <v>44941.66319444445</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44941.64236111111</v>
+        <v>44941.65972222222</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44941.63888888889</v>
+        <v>44941.65625</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44941.63541666666</v>
+        <v>44941.65277777778</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44941.63194444445</v>
+        <v>44941.64930555555</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44941.62847222222</v>
+        <v>44941.64583333334</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44941.625</v>
+        <v>44941.64236111111</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44941.62152777778</v>
+        <v>44941.63888888889</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44941.61805555555</v>
+        <v>44941.63541666666</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44941.61458333334</v>
+        <v>44941.63194444445</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44941.61111111111</v>
+        <v>44941.62847222222</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44941.60763888889</v>
+        <v>44941.625</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44941.60416666666</v>
+        <v>44941.62152777778</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44941.60069444445</v>
+        <v>44941.61805555555</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44941.59722222222</v>
+        <v>44941.61458333334</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44941.59375</v>
+        <v>44941.61111111111</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44941.59027777778</v>
+        <v>44941.60763888889</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44941.58680555555</v>
+        <v>44941.60416666666</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44941.58333333334</v>
+        <v>44941.60069444445</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44941.57986111111</v>
+        <v>44941.59722222222</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44941.57638888889</v>
+        <v>44941.59375</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44941.57291666666</v>
+        <v>44941.59027777778</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44941.56944444445</v>
+        <v>44941.58680555555</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44941.56597222222</v>
+        <v>44941.58333333334</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44941.5625</v>
+        <v>44941.57986111111</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44941.55902777778</v>
+        <v>44941.57638888889</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44941.55555555555</v>
+        <v>44941.57291666666</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44941.55208333334</v>
+        <v>44941.56944444445</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44941.54861111111</v>
+        <v>44941.56597222222</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44941.54513888889</v>
+        <v>44941.5625</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44941.54166666666</v>
+        <v>44941.55902777778</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44941.53819444445</v>
+        <v>44941.55555555555</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44941.53472222222</v>
+        <v>44941.55208333334</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44941.53125</v>
+        <v>44941.54861111111</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44941.52777777778</v>
+        <v>44941.54513888889</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44941.52430555555</v>
+        <v>44941.54166666666</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44941.52083333334</v>
+        <v>44941.53819444445</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44941.51736111111</v>
+        <v>44941.53472222222</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44941.51388888889</v>
+        <v>44941.53125</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44941.51041666666</v>
+        <v>44941.52777777778</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44941.50694444445</v>
+        <v>44941.52430555555</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44941.50347222222</v>
+        <v>44941.52083333334</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44941.5</v>
+        <v>44941.51736111111</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44941.49652777778</v>
+        <v>44941.51388888889</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44941.49305555555</v>
+        <v>44941.51041666666</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44941.48958333334</v>
+        <v>44941.50694444445</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44941.48611111111</v>
+        <v>44941.50347222222</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44941.48263888889</v>
+        <v>44941.5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44941.47916666666</v>
+        <v>44941.49652777778</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44941.47569444445</v>
+        <v>44941.49305555555</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44941.47222222222</v>
+        <v>44941.48958333334</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44941.46875</v>
+        <v>44941.48611111111</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44941.46527777778</v>
+        <v>44941.48263888889</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44941.46180555555</v>
+        <v>44941.47916666666</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44941.45833333334</v>
+        <v>44941.47569444445</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44941.45486111111</v>
+        <v>44941.47222222222</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44941.45138888889</v>
+        <v>44941.46875</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44941.44791666666</v>
+        <v>44941.46527777778</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44941.44444444445</v>
+        <v>44941.46180555555</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44941.44097222222</v>
+        <v>44941.45833333334</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44941.4375</v>
+        <v>44941.45486111111</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44941.43402777778</v>
+        <v>44941.45138888889</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44941.43055555555</v>
+        <v>44941.44791666666</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44941.42708333334</v>
+        <v>44941.44444444445</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44941.42361111111</v>
+        <v>44941.44097222222</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44941.42013888889</v>
+        <v>44941.4375</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44941.41666666666</v>
+        <v>44941.43402777778</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44941.41319444445</v>
+        <v>44941.43055555555</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44941.40972222222</v>
+        <v>44941.42708333334</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44941.40625</v>
+        <v>44941.42361111111</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44941.40277777778</v>
+        <v>44941.42013888889</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44941.39930555555</v>
+        <v>44941.41666666666</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44941.39583333334</v>
+        <v>44941.41319444445</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44941.39236111111</v>
+        <v>44941.40972222222</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44941.38888888889</v>
+        <v>44941.40625</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44941.38541666666</v>
+        <v>44941.40277777778</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44941.38194444445</v>
+        <v>44941.39930555555</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44941.37847222222</v>
+        <v>44941.39583333334</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44941.375</v>
+        <v>44941.39236111111</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44941.37152777778</v>
+        <v>44941.38888888889</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44941.36805555555</v>
+        <v>44941.38541666666</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44941.36458333334</v>
+        <v>44941.38194444445</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44941.36111111111</v>
+        <v>44941.37847222222</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44941.35763888889</v>
+        <v>44941.375</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44941.35416666666</v>
+        <v>44941.37152777778</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44941.35069444445</v>
+        <v>44941.36805555555</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44941.34722222222</v>
+        <v>44941.36458333334</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44941.34375</v>
+        <v>44941.36111111111</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44941.34027777778</v>
+        <v>44941.35763888889</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44941.33680555555</v>
+        <v>44941.35416666666</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44941.33333333334</v>
+        <v>44941.35069444445</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44941.32986111111</v>
+        <v>44941.34722222222</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44941.32638888889</v>
+        <v>44941.34375</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44941.32291666666</v>
+        <v>44941.34027777778</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44941.31944444445</v>
+        <v>44941.33680555555</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44941.31597222222</v>
+        <v>44941.33333333334</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44941.3125</v>
+        <v>44941.32986111111</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44941.30902777778</v>
+        <v>44941.32638888889</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44941.30555555555</v>
+        <v>44941.32291666666</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44941.30208333334</v>
+        <v>44941.31944444445</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44941.29861111111</v>
+        <v>44941.31597222222</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44941.29513888889</v>
+        <v>44941.3125</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44941.29166666666</v>
+        <v>44941.30902777778</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44941.28819444445</v>
+        <v>44941.30555555555</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44941.28472222222</v>
+        <v>44941.30208333334</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44941.28125</v>
+        <v>44941.29861111111</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44941.27777777778</v>
+        <v>44941.29513888889</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44941.27430555555</v>
+        <v>44941.29166666666</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44941.27083333334</v>
+        <v>44941.28819444445</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44941.26736111111</v>
+        <v>44941.28472222222</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44941.26388888889</v>
+        <v>44941.28125</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44941.26041666666</v>
+        <v>44941.27777777778</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44941.25694444445</v>
+        <v>44941.27430555555</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44941.25347222222</v>
+        <v>44941.27083333334</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44941.25</v>
+        <v>44941.26736111111</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44941.24652777778</v>
+        <v>44941.26388888889</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44941.24305555555</v>
+        <v>44941.26041666666</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44941.23958333334</v>
+        <v>44941.25694444445</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44941.23611111111</v>
+        <v>44941.25347222222</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44941.23263888889</v>
+        <v>44941.25</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44941.22916666666</v>
+        <v>44941.24652777778</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44941.22569444445</v>
+        <v>44941.24305555555</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44941.22222222222</v>
+        <v>44941.23958333334</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44941.21875</v>
+        <v>44941.23611111111</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44941.21527777778</v>
+        <v>44941.23263888889</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44941.21180555555</v>
+        <v>44941.22916666666</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44941.20833333334</v>
+        <v>44941.22569444445</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44941.20486111111</v>
+        <v>44941.22222222222</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44941.20138888889</v>
+        <v>44941.21875</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44941.19791666666</v>
+        <v>44941.21527777778</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44941.19444444445</v>
+        <v>44941.21180555555</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44941.19097222222</v>
+        <v>44941.20833333334</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44941.1875</v>
+        <v>44941.20486111111</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44941.18402777778</v>
+        <v>44941.20138888889</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44941.18055555555</v>
+        <v>44941.19791666666</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44941.17708333334</v>
+        <v>44941.19444444445</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44941.17361111111</v>
+        <v>44941.19097222222</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44941.17013888889</v>
+        <v>44941.1875</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44941.16666666666</v>
+        <v>44941.18402777778</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44941.16319444445</v>
+        <v>44941.18055555555</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44941.15972222222</v>
+        <v>44941.17708333334</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44941.15625</v>
+        <v>44941.17361111111</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44941.15277777778</v>
+        <v>44941.17013888889</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44941.14930555555</v>
+        <v>44941.16666666666</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44941.14583333334</v>
+        <v>44941.16319444445</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44941.14236111111</v>
+        <v>44941.15972222222</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44941.13888888889</v>
+        <v>44941.15625</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44941.13541666666</v>
+        <v>44941.15277777778</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44941.13194444445</v>
+        <v>44941.14930555555</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44941.12847222222</v>
+        <v>44941.14583333334</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44941.125</v>
+        <v>44941.14236111111</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44941.12152777778</v>
+        <v>44941.13888888889</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44941.11805555555</v>
+        <v>44941.13541666666</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44941.11458333334</v>
+        <v>44941.13194444445</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44941.11111111111</v>
+        <v>44941.12847222222</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44941.10763888889</v>
+        <v>44941.125</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44941.10416666666</v>
+        <v>44941.12152777778</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44941.10069444445</v>
+        <v>44941.11805555555</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44941.09722222222</v>
+        <v>44941.11458333334</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44941.09375</v>
+        <v>44941.11111111111</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44941.09027777778</v>
+        <v>44941.10763888889</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44941.08680555555</v>
+        <v>44941.10416666666</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44941.08333333334</v>
+        <v>44941.10069444445</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44941.07986111111</v>
+        <v>44941.09722222222</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44941.07638888889</v>
+        <v>44941.09375</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44941.07291666666</v>
+        <v>44941.09027777778</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44941.06944444445</v>
+        <v>44941.08680555555</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44941.06597222222</v>
+        <v>44941.08333333334</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44941.0625</v>
+        <v>44941.07986111111</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44941.05902777778</v>
+        <v>44941.07638888889</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44941.05555555555</v>
+        <v>44941.07291666666</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44941.05208333334</v>
+        <v>44941.06944444445</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44941.04861111111</v>
+        <v>44941.06597222222</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44941.04513888889</v>
+        <v>44941.0625</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44941.04166666666</v>
+        <v>44941.05902777778</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44941.03819444445</v>
+        <v>44941.05555555555</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44941.03472222222</v>
+        <v>44941.05208333334</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44941.03125</v>
+        <v>44941.04861111111</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingline.xlsx
+++ b/coinrankingline.xlsx
@@ -22,868 +22,868 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>20764.790864108374</t>
-  </si>
-  <si>
-    <t>20919.284734716857</t>
-  </si>
-  <si>
-    <t>20952.005999687455</t>
-  </si>
-  <si>
-    <t>20903.07452831691</t>
-  </si>
-  <si>
-    <t>20930.891830294542</t>
-  </si>
-  <si>
-    <t>20949.31774448195</t>
-  </si>
-  <si>
-    <t>20935.062649480013</t>
-  </si>
-  <si>
-    <t>20931.615804486522</t>
-  </si>
-  <si>
-    <t>20918.20940219982</t>
-  </si>
-  <si>
-    <t>20882.412859350814</t>
-  </si>
-  <si>
-    <t>20886.47783247173</t>
-  </si>
-  <si>
-    <t>20863.98640378465</t>
-  </si>
-  <si>
-    <t>20892.64709271599</t>
-  </si>
-  <si>
-    <t>20854.09732229254</t>
-  </si>
-  <si>
-    <t>20879.58263644923</t>
-  </si>
-  <si>
-    <t>20852.354626886576</t>
-  </si>
-  <si>
-    <t>20869.059380897444</t>
-  </si>
-  <si>
-    <t>20889.53755390575</t>
-  </si>
-  <si>
-    <t>20851.38424592719</t>
-  </si>
-  <si>
-    <t>20856.156709017505</t>
-  </si>
-  <si>
-    <t>20900.90030147438</t>
-  </si>
-  <si>
-    <t>20828.478709204097</t>
-  </si>
-  <si>
-    <t>20878.891320843864</t>
-  </si>
-  <si>
-    <t>20862.58341211068</t>
-  </si>
-  <si>
-    <t>20889.346656402424</t>
-  </si>
-  <si>
-    <t>20852.192984105754</t>
-  </si>
-  <si>
-    <t>20876.99430315978</t>
-  </si>
-  <si>
-    <t>20859.839384817347</t>
-  </si>
-  <si>
-    <t>20858.74172264787</t>
-  </si>
-  <si>
-    <t>20826.22037503476</t>
-  </si>
-  <si>
-    <t>20809.36915291311</t>
-  </si>
-  <si>
-    <t>20806.417438222135</t>
-  </si>
-  <si>
-    <t>20833.274923614215</t>
-  </si>
-  <si>
-    <t>20800.73891854358</t>
-  </si>
-  <si>
-    <t>20824.1409214702</t>
-  </si>
-  <si>
-    <t>20769.42311723904</t>
-  </si>
-  <si>
-    <t>20771.60646012688</t>
-  </si>
-  <si>
-    <t>20741.842428278473</t>
-  </si>
-  <si>
-    <t>20759.998024084536</t>
-  </si>
-  <si>
-    <t>20759.015676463187</t>
-  </si>
-  <si>
-    <t>20738.230383335467</t>
-  </si>
-  <si>
-    <t>20735.524072454744</t>
-  </si>
-  <si>
-    <t>20716.65483750799</t>
-  </si>
-  <si>
-    <t>20693.335257609087</t>
-  </si>
-  <si>
-    <t>20705.072769465296</t>
-  </si>
-  <si>
-    <t>20703.84123818575</t>
-  </si>
-  <si>
-    <t>20689.315240281492</t>
-  </si>
-  <si>
-    <t>20696.418933458568</t>
-  </si>
-  <si>
-    <t>20692.11016647735</t>
-  </si>
-  <si>
-    <t>20694.104955766743</t>
-  </si>
-  <si>
-    <t>20693.199443751484</t>
-  </si>
-  <si>
-    <t>20704.827255858658</t>
-  </si>
-  <si>
-    <t>20710.425662826292</t>
-  </si>
-  <si>
-    <t>20722.518242056114</t>
-  </si>
-  <si>
-    <t>20692.42566690557</t>
-  </si>
-  <si>
-    <t>20692.75395733665</t>
-  </si>
-  <si>
-    <t>20688.965914122036</t>
-  </si>
-  <si>
-    <t>20672.583696710895</t>
-  </si>
-  <si>
-    <t>20700.635187499734</t>
-  </si>
-  <si>
-    <t>20667.76701003743</t>
-  </si>
-  <si>
-    <t>20676.817486723514</t>
-  </si>
-  <si>
-    <t>20680.383204728198</t>
-  </si>
-  <si>
-    <t>20654.63397438002</t>
-  </si>
-  <si>
-    <t>20687.49377678753</t>
-  </si>
-  <si>
-    <t>20671.708709936902</t>
-  </si>
-  <si>
-    <t>20685.95005281452</t>
-  </si>
-  <si>
-    <t>20639.491133927993</t>
-  </si>
-  <si>
-    <t>20672.318947404878</t>
-  </si>
-  <si>
-    <t>20660.9308017286</t>
-  </si>
-  <si>
-    <t>20665.044280022485</t>
-  </si>
-  <si>
-    <t>20661.861432396287</t>
-  </si>
-  <si>
-    <t>20658.201360160092</t>
-  </si>
-  <si>
-    <t>20679.595493599736</t>
-  </si>
-  <si>
-    <t>20684.455108794566</t>
-  </si>
-  <si>
-    <t>20676.7150535547</t>
-  </si>
-  <si>
-    <t>20658.2365509765</t>
-  </si>
-  <si>
-    <t>20678.919497943083</t>
-  </si>
-  <si>
-    <t>20664.949073579326</t>
-  </si>
-  <si>
-    <t>20664.1355142</t>
-  </si>
-  <si>
-    <t>20689.633929374006</t>
-  </si>
-  <si>
-    <t>20681.340337794834</t>
-  </si>
-  <si>
-    <t>20671.99411683978</t>
-  </si>
-  <si>
-    <t>20683.557332917208</t>
-  </si>
-  <si>
-    <t>20665.41028106282</t>
-  </si>
-  <si>
-    <t>20677.050915217264</t>
-  </si>
-  <si>
-    <t>20699.932619484396</t>
-  </si>
-  <si>
-    <t>20704.138158023277</t>
-  </si>
-  <si>
-    <t>20694.129927507078</t>
-  </si>
-  <si>
-    <t>20678.430526299493</t>
-  </si>
-  <si>
-    <t>20694.0417430734</t>
-  </si>
-  <si>
-    <t>20690.87927110508</t>
-  </si>
-  <si>
-    <t>20681.807731728924</t>
-  </si>
-  <si>
-    <t>20694.8392759862</t>
-  </si>
-  <si>
-    <t>20666.961317472098</t>
-  </si>
-  <si>
-    <t>20701.91485321567</t>
-  </si>
-  <si>
-    <t>20680.985242927938</t>
-  </si>
-  <si>
-    <t>20675.458198204728</t>
-  </si>
-  <si>
-    <t>20698.770016922008</t>
-  </si>
-  <si>
-    <t>20641.00603211735</t>
-  </si>
-  <si>
-    <t>20636.947931931743</t>
-  </si>
-  <si>
-    <t>20640.561333804962</t>
-  </si>
-  <si>
-    <t>20631.812511008033</t>
-  </si>
-  <si>
-    <t>20662.600445001357</t>
-  </si>
-  <si>
-    <t>20642.642614998218</t>
-  </si>
-  <si>
-    <t>20657.28247977816</t>
-  </si>
-  <si>
-    <t>20662.65727544866</t>
-  </si>
-  <si>
-    <t>20661.647917167295</t>
-  </si>
-  <si>
-    <t>20625.918800104886</t>
-  </si>
-  <si>
-    <t>20665.169958278333</t>
-  </si>
-  <si>
-    <t>20670.32122825946</t>
-  </si>
-  <si>
-    <t>20658.07477184523</t>
-  </si>
-  <si>
-    <t>20692.222713849405</t>
-  </si>
-  <si>
-    <t>20694.227649047705</t>
-  </si>
-  <si>
-    <t>20717.42818573868</t>
-  </si>
-  <si>
-    <t>20698.546224693393</t>
-  </si>
-  <si>
-    <t>20705.149273553696</t>
-  </si>
-  <si>
-    <t>20698.352621704766</t>
-  </si>
-  <si>
-    <t>20726.545569529553</t>
-  </si>
-  <si>
-    <t>20732.308434360428</t>
-  </si>
-  <si>
-    <t>20742.621286935282</t>
-  </si>
-  <si>
-    <t>20725.98949370872</t>
-  </si>
-  <si>
-    <t>20740.886158328172</t>
-  </si>
-  <si>
-    <t>20721.70594136364</t>
-  </si>
-  <si>
-    <t>20741.010734817315</t>
-  </si>
-  <si>
-    <t>20727.953431841877</t>
-  </si>
-  <si>
-    <t>20730.996582513162</t>
-  </si>
-  <si>
-    <t>20735.686563552477</t>
-  </si>
-  <si>
-    <t>20726.142763593823</t>
-  </si>
-  <si>
-    <t>20730.29731339886</t>
-  </si>
-  <si>
-    <t>20728.18639296621</t>
-  </si>
-  <si>
-    <t>20711.604008088612</t>
-  </si>
-  <si>
-    <t>20726.304740357606</t>
-  </si>
-  <si>
-    <t>20718.175569847892</t>
-  </si>
-  <si>
-    <t>20727.351124415007</t>
-  </si>
-  <si>
-    <t>20737.671952123528</t>
-  </si>
-  <si>
-    <t>20725.63255493763</t>
-  </si>
-  <si>
-    <t>20742.414582509904</t>
-  </si>
-  <si>
-    <t>20735.169885627485</t>
-  </si>
-  <si>
-    <t>20759.20065575835</t>
-  </si>
-  <si>
-    <t>20758.916022577116</t>
-  </si>
-  <si>
-    <t>20748.210567402206</t>
-  </si>
-  <si>
-    <t>20738.561746776104</t>
-  </si>
-  <si>
-    <t>20722.575842768976</t>
-  </si>
-  <si>
-    <t>20732.80475543056</t>
-  </si>
-  <si>
-    <t>20730.357165487665</t>
-  </si>
-  <si>
-    <t>20731.23469741569</t>
-  </si>
-  <si>
-    <t>20731.127779604958</t>
-  </si>
-  <si>
-    <t>20726.55807546686</t>
-  </si>
-  <si>
-    <t>20726.59302245157</t>
-  </si>
-  <si>
-    <t>20736.912025260215</t>
-  </si>
-  <si>
-    <t>20733.39897170137</t>
-  </si>
-  <si>
-    <t>20736.20628534306</t>
-  </si>
-  <si>
-    <t>20736.502491668725</t>
-  </si>
-  <si>
-    <t>20745.44251337991</t>
-  </si>
-  <si>
-    <t>20716.176388239168</t>
-  </si>
-  <si>
-    <t>20695.621997658454</t>
-  </si>
-  <si>
-    <t>20695.799478043777</t>
-  </si>
-  <si>
-    <t>20695.851007199504</t>
-  </si>
-  <si>
-    <t>20699.200261935443</t>
-  </si>
-  <si>
-    <t>20703.320340339757</t>
-  </si>
-  <si>
-    <t>20697.45976554703</t>
-  </si>
-  <si>
-    <t>20734.203165264375</t>
-  </si>
-  <si>
-    <t>20719.909345993474</t>
-  </si>
-  <si>
-    <t>20705.501106708605</t>
-  </si>
-  <si>
-    <t>20713.605571458702</t>
-  </si>
-  <si>
-    <t>20715.53379281618</t>
-  </si>
-  <si>
-    <t>20715.89565777028</t>
-  </si>
-  <si>
-    <t>20713.15103811722</t>
-  </si>
-  <si>
-    <t>20708.24380642493</t>
-  </si>
-  <si>
-    <t>20704.043206505554</t>
-  </si>
-  <si>
-    <t>20697.274862835453</t>
-  </si>
-  <si>
-    <t>20690.5410725031</t>
-  </si>
-  <si>
-    <t>20689.50548458013</t>
-  </si>
-  <si>
-    <t>20675.436228017483</t>
-  </si>
-  <si>
-    <t>20688.80616826993</t>
-  </si>
-  <si>
-    <t>20668.28906441839</t>
-  </si>
-  <si>
-    <t>20662.846756449097</t>
-  </si>
-  <si>
-    <t>20670.356132521683</t>
-  </si>
-  <si>
-    <t>20714.52462683718</t>
-  </si>
-  <si>
-    <t>20672.797178173365</t>
-  </si>
-  <si>
-    <t>20738.4560491957</t>
-  </si>
-  <si>
-    <t>20698.812139489688</t>
-  </si>
-  <si>
-    <t>20721.53452328185</t>
-  </si>
-  <si>
-    <t>20725.29096471515</t>
-  </si>
-  <si>
-    <t>20756.55357718201</t>
-  </si>
-  <si>
-    <t>20711.06441789404</t>
-  </si>
-  <si>
-    <t>20759.356768239777</t>
-  </si>
-  <si>
-    <t>20765.724848668815</t>
-  </si>
-  <si>
-    <t>20745.40923036501</t>
-  </si>
-  <si>
-    <t>20759.385664469217</t>
-  </si>
-  <si>
-    <t>20740.340188036967</t>
-  </si>
-  <si>
-    <t>20761.6679527366</t>
-  </si>
-  <si>
-    <t>20787.260301161637</t>
-  </si>
-  <si>
-    <t>20772.597571905917</t>
-  </si>
-  <si>
-    <t>20764.29373129274</t>
-  </si>
-  <si>
-    <t>20781.409592384734</t>
-  </si>
-  <si>
-    <t>20763.995100703687</t>
-  </si>
-  <si>
-    <t>20762.45291608892</t>
-  </si>
-  <si>
-    <t>20773.76723537301</t>
-  </si>
-  <si>
-    <t>20720.943396415078</t>
-  </si>
-  <si>
-    <t>20770.659008698487</t>
-  </si>
-  <si>
-    <t>20725.42112802626</t>
-  </si>
-  <si>
-    <t>20772.361087358633</t>
-  </si>
-  <si>
-    <t>20760.59004054809</t>
-  </si>
-  <si>
-    <t>20786.04306889617</t>
-  </si>
-  <si>
-    <t>20807.06279054836</t>
-  </si>
-  <si>
-    <t>20755.405019867972</t>
-  </si>
-  <si>
-    <t>20862.276168637254</t>
-  </si>
-  <si>
-    <t>20726.112100928527</t>
-  </si>
-  <si>
-    <t>20827.66772050199</t>
-  </si>
-  <si>
-    <t>20724.036335448953</t>
-  </si>
-  <si>
-    <t>20876.297038055938</t>
-  </si>
-  <si>
-    <t>20923.0740922987</t>
-  </si>
-  <si>
-    <t>20908.48520032565</t>
-  </si>
-  <si>
-    <t>20886.898903824273</t>
-  </si>
-  <si>
-    <t>20991.769856200804</t>
-  </si>
-  <si>
-    <t>20890.39295133414</t>
-  </si>
-  <si>
-    <t>20915.151767042615</t>
-  </si>
-  <si>
-    <t>20943.087824080707</t>
-  </si>
-  <si>
-    <t>20944.76390197644</t>
-  </si>
-  <si>
-    <t>20974.606544797818</t>
-  </si>
-  <si>
-    <t>20956.286837676842</t>
-  </si>
-  <si>
-    <t>20965.703291275953</t>
-  </si>
-  <si>
-    <t>20967.837850586584</t>
-  </si>
-  <si>
-    <t>20962.687837084814</t>
-  </si>
-  <si>
-    <t>20919.444162653137</t>
-  </si>
-  <si>
-    <t>20962.027546404304</t>
-  </si>
-  <si>
-    <t>20893.094083735417</t>
-  </si>
-  <si>
-    <t>20948.992336062747</t>
-  </si>
-  <si>
-    <t>20905.90795399405</t>
-  </si>
-  <si>
-    <t>20923.716725017974</t>
-  </si>
-  <si>
-    <t>20878.613859290595</t>
-  </si>
-  <si>
-    <t>20872.761709299604</t>
-  </si>
-  <si>
-    <t>20872.310004669485</t>
-  </si>
-  <si>
-    <t>20864.48546495512</t>
-  </si>
-  <si>
-    <t>20851.206261251606</t>
-  </si>
-  <si>
-    <t>20864.628825516913</t>
-  </si>
-  <si>
-    <t>20843.515892641823</t>
-  </si>
-  <si>
-    <t>20862.10669983968</t>
-  </si>
-  <si>
-    <t>20829.86239039909</t>
-  </si>
-  <si>
-    <t>20847.62715499543</t>
-  </si>
-  <si>
-    <t>20874.314923422273</t>
-  </si>
-  <si>
-    <t>20826.30809299332</t>
-  </si>
-  <si>
-    <t>20854.797121043997</t>
-  </si>
-  <si>
-    <t>20846.363093674405</t>
-  </si>
-  <si>
-    <t>20844.197365184056</t>
-  </si>
-  <si>
-    <t>20854.481737252154</t>
-  </si>
-  <si>
-    <t>20831.377552600094</t>
-  </si>
-  <si>
-    <t>20840.637049750938</t>
-  </si>
-  <si>
-    <t>20869.110639198967</t>
-  </si>
-  <si>
-    <t>20851.679065429507</t>
-  </si>
-  <si>
-    <t>20874.43786065183</t>
-  </si>
-  <si>
-    <t>20806.941484403014</t>
-  </si>
-  <si>
-    <t>20832.73588236277</t>
-  </si>
-  <si>
-    <t>20797.308815447817</t>
-  </si>
-  <si>
-    <t>20793.892379445646</t>
-  </si>
-  <si>
-    <t>20800.378185860664</t>
-  </si>
-  <si>
-    <t>20786.136140016857</t>
-  </si>
-  <si>
-    <t>20786.32939014631</t>
-  </si>
-  <si>
-    <t>20759.779824160887</t>
-  </si>
-  <si>
-    <t>20757.78484615255</t>
-  </si>
-  <si>
-    <t>20789.001632577485</t>
-  </si>
-  <si>
-    <t>20756.65766064941</t>
-  </si>
-  <si>
-    <t>20770.195125667266</t>
-  </si>
-  <si>
-    <t>20748.58985344208</t>
-  </si>
-  <si>
-    <t>20796.908228699747</t>
-  </si>
-  <si>
-    <t>20720.39443875546</t>
-  </si>
-  <si>
-    <t>20796.431949315527</t>
-  </si>
-  <si>
-    <t>20789.74225310135</t>
-  </si>
-  <si>
-    <t>20768.303563432626</t>
-  </si>
-  <si>
-    <t>20763.42673381451</t>
-  </si>
-  <si>
-    <t>20779.146536950117</t>
-  </si>
-  <si>
-    <t>20764.633382031985</t>
-  </si>
-  <si>
-    <t>20763.235719893608</t>
-  </si>
-  <si>
-    <t>20732.779139518374</t>
-  </si>
-  <si>
-    <t>20732.289059115064</t>
-  </si>
-  <si>
-    <t>20739.00267651428</t>
-  </si>
-  <si>
-    <t>20741.57546111627</t>
-  </si>
-  <si>
-    <t>20749.001396915155</t>
-  </si>
-  <si>
-    <t>20725.112974995045</t>
-  </si>
-  <si>
-    <t>20749.68143601495</t>
-  </si>
-  <si>
-    <t>20729.34998793227</t>
-  </si>
-  <si>
-    <t>20740.124204274372</t>
-  </si>
-  <si>
-    <t>20704.825475199577</t>
-  </si>
-  <si>
-    <t>20718.423557595183</t>
-  </si>
-  <si>
-    <t>20740.866957192058</t>
-  </si>
-  <si>
-    <t>20743.664486594113</t>
-  </si>
-  <si>
-    <t>20724.149402213123</t>
+    <t>21335.615376151505</t>
+  </si>
+  <si>
+    <t>21343.76676011442</t>
+  </si>
+  <si>
+    <t>21337.979974953156</t>
+  </si>
+  <si>
+    <t>21319.804568006286</t>
+  </si>
+  <si>
+    <t>21344.6542571207</t>
+  </si>
+  <si>
+    <t>21312.084443486092</t>
+  </si>
+  <si>
+    <t>21394.148934443827</t>
+  </si>
+  <si>
+    <t>21303.168131796705</t>
+  </si>
+  <si>
+    <t>21319.583177589477</t>
+  </si>
+  <si>
+    <t>21321.550963178393</t>
+  </si>
+  <si>
+    <t>21342.13852868338</t>
+  </si>
+  <si>
+    <t>21348.00650929622</t>
+  </si>
+  <si>
+    <t>21349.499303051663</t>
+  </si>
+  <si>
+    <t>21366.400462872763</t>
+  </si>
+  <si>
+    <t>21331.964877758215</t>
+  </si>
+  <si>
+    <t>21365.8949127134</t>
+  </si>
+  <si>
+    <t>21339.546597973924</t>
+  </si>
+  <si>
+    <t>21345.966919825016</t>
+  </si>
+  <si>
+    <t>21320.419120162624</t>
+  </si>
+  <si>
+    <t>21336.995393480694</t>
+  </si>
+  <si>
+    <t>21326.372774953223</t>
+  </si>
+  <si>
+    <t>21345.554362809435</t>
+  </si>
+  <si>
+    <t>21331.197811536123</t>
+  </si>
+  <si>
+    <t>21323.613498824383</t>
+  </si>
+  <si>
+    <t>21324.15104741192</t>
+  </si>
+  <si>
+    <t>21299.322792126964</t>
+  </si>
+  <si>
+    <t>21280.774938255854</t>
+  </si>
+  <si>
+    <t>21303.985249321006</t>
+  </si>
+  <si>
+    <t>21294.84132145637</t>
+  </si>
+  <si>
+    <t>21304.952386845667</t>
+  </si>
+  <si>
+    <t>21293.544144926454</t>
+  </si>
+  <si>
+    <t>21326.920929836953</t>
+  </si>
+  <si>
+    <t>21312.227875927685</t>
+  </si>
+  <si>
+    <t>21293.46114349923</t>
+  </si>
+  <si>
+    <t>21287.081460884317</t>
+  </si>
+  <si>
+    <t>21264.44752892554</t>
+  </si>
+  <si>
+    <t>21259.682928861686</t>
+  </si>
+  <si>
+    <t>21210.710810929977</t>
+  </si>
+  <si>
+    <t>21252.302364868116</t>
+  </si>
+  <si>
+    <t>21184.812951791147</t>
+  </si>
+  <si>
+    <t>21213.669054807702</t>
+  </si>
+  <si>
+    <t>21183.01416241398</t>
+  </si>
+  <si>
+    <t>21231.75957290219</t>
+  </si>
+  <si>
+    <t>21177.509400809762</t>
+  </si>
+  <si>
+    <t>21199.448111154117</t>
+  </si>
+  <si>
+    <t>21175.83086193964</t>
+  </si>
+  <si>
+    <t>21184.284884521403</t>
+  </si>
+  <si>
+    <t>21163.289507586636</t>
+  </si>
+  <si>
+    <t>21164.670438655467</t>
+  </si>
+  <si>
+    <t>21121.52656612983</t>
+  </si>
+  <si>
+    <t>21153.34156130222</t>
+  </si>
+  <si>
+    <t>21167.344631473963</t>
+  </si>
+  <si>
+    <t>21160.776949155486</t>
+  </si>
+  <si>
+    <t>21203.419881677597</t>
+  </si>
+  <si>
+    <t>21170.938963425335</t>
+  </si>
+  <si>
+    <t>21185.083225951563</t>
+  </si>
+  <si>
+    <t>21200.518423983838</t>
+  </si>
+  <si>
+    <t>21203.262495698233</t>
+  </si>
+  <si>
+    <t>21184.758739846697</t>
+  </si>
+  <si>
+    <t>21178.330530705673</t>
+  </si>
+  <si>
+    <t>21193.910119128173</t>
+  </si>
+  <si>
+    <t>21152.67045931226</t>
+  </si>
+  <si>
+    <t>21156.048165634224</t>
+  </si>
+  <si>
+    <t>21152.00654762551</t>
+  </si>
+  <si>
+    <t>21149.093974199295</t>
+  </si>
+  <si>
+    <t>21207.07344959434</t>
+  </si>
+  <si>
+    <t>21207.237322370613</t>
+  </si>
+  <si>
+    <t>21173.939395124245</t>
+  </si>
+  <si>
+    <t>21193.689211002536</t>
+  </si>
+  <si>
+    <t>21173.79502279169</t>
+  </si>
+  <si>
+    <t>21203.199604218098</t>
+  </si>
+  <si>
+    <t>21241.083967354436</t>
+  </si>
+  <si>
+    <t>21269.99641930922</t>
+  </si>
+  <si>
+    <t>21278.175708506966</t>
+  </si>
+  <si>
+    <t>21321.796318374167</t>
+  </si>
+  <si>
+    <t>21246.54539815669</t>
+  </si>
+  <si>
+    <t>21273.750967227737</t>
+  </si>
+  <si>
+    <t>21311.937995508724</t>
+  </si>
+  <si>
+    <t>21274.226555242138</t>
+  </si>
+  <si>
+    <t>21242.61254999668</t>
+  </si>
+  <si>
+    <t>21198.745539777537</t>
+  </si>
+  <si>
+    <t>21202.41683620716</t>
+  </si>
+  <si>
+    <t>21167.117419169816</t>
+  </si>
+  <si>
+    <t>21219.889517627442</t>
+  </si>
+  <si>
+    <t>21207.57449842066</t>
+  </si>
+  <si>
+    <t>21392.32762488117</t>
+  </si>
+  <si>
+    <t>21287.478556787835</t>
+  </si>
+  <si>
+    <t>21310.27511914268</t>
+  </si>
+  <si>
+    <t>21291.663770650877</t>
+  </si>
+  <si>
+    <t>21244.002365210756</t>
+  </si>
+  <si>
+    <t>21223.226062356876</t>
+  </si>
+  <si>
+    <t>21222.669115677705</t>
+  </si>
+  <si>
+    <t>21223.41274611046</t>
+  </si>
+  <si>
+    <t>21208.511047456417</t>
+  </si>
+  <si>
+    <t>21210.811306208518</t>
+  </si>
+  <si>
+    <t>21215.833444515443</t>
+  </si>
+  <si>
+    <t>21217.490044027287</t>
+  </si>
+  <si>
+    <t>21221.71111673211</t>
+  </si>
+  <si>
+    <t>21221.686426364762</t>
+  </si>
+  <si>
+    <t>21216.777010586255</t>
+  </si>
+  <si>
+    <t>21211.962907077395</t>
+  </si>
+  <si>
+    <t>21201.080979368435</t>
+  </si>
+  <si>
+    <t>21246.572928448535</t>
+  </si>
+  <si>
+    <t>21228.16543507255</t>
+  </si>
+  <si>
+    <t>21220.39689556937</t>
+  </si>
+  <si>
+    <t>21231.75692148077</t>
+  </si>
+  <si>
+    <t>21246.5575199073</t>
+  </si>
+  <si>
+    <t>21238.13399116021</t>
+  </si>
+  <si>
+    <t>21230.854138511488</t>
+  </si>
+  <si>
+    <t>21286.462831368648</t>
+  </si>
+  <si>
+    <t>21235.22487041754</t>
+  </si>
+  <si>
+    <t>21222.215231918348</t>
+  </si>
+  <si>
+    <t>21220.574220197046</t>
+  </si>
+  <si>
+    <t>21168.860750191197</t>
+  </si>
+  <si>
+    <t>21195.19565331827</t>
+  </si>
+  <si>
+    <t>21176.440451640086</t>
+  </si>
+  <si>
+    <t>21154.63236037047</t>
+  </si>
+  <si>
+    <t>21173.055358790272</t>
+  </si>
+  <si>
+    <t>21153.60176913063</t>
+  </si>
+  <si>
+    <t>21157.817520761702</t>
+  </si>
+  <si>
+    <t>21158.374403154532</t>
+  </si>
+  <si>
+    <t>21155.413784019664</t>
+  </si>
+  <si>
+    <t>21148.538860267505</t>
+  </si>
+  <si>
+    <t>21134.67997478138</t>
+  </si>
+  <si>
+    <t>21144.42610798682</t>
+  </si>
+  <si>
+    <t>21135.13182492751</t>
+  </si>
+  <si>
+    <t>21132.82290016721</t>
+  </si>
+  <si>
+    <t>21136.81332134005</t>
+  </si>
+  <si>
+    <t>21130.354893469328</t>
+  </si>
+  <si>
+    <t>21126.229029346472</t>
+  </si>
+  <si>
+    <t>21105.929339204093</t>
+  </si>
+  <si>
+    <t>21135.205518220915</t>
+  </si>
+  <si>
+    <t>21121.463882573506</t>
+  </si>
+  <si>
+    <t>21130.362280684265</t>
+  </si>
+  <si>
+    <t>21150.390079561017</t>
+  </si>
+  <si>
+    <t>21159.83888056663</t>
+  </si>
+  <si>
+    <t>21140.034891521962</t>
+  </si>
+  <si>
+    <t>21147.56527592181</t>
+  </si>
+  <si>
+    <t>21174.195922208037</t>
+  </si>
+  <si>
+    <t>21154.45840988492</t>
+  </si>
+  <si>
+    <t>21176.03667550858</t>
+  </si>
+  <si>
+    <t>21157.194073184113</t>
+  </si>
+  <si>
+    <t>21156.50951980577</t>
+  </si>
+  <si>
+    <t>21160.258579648325</t>
+  </si>
+  <si>
+    <t>21160.954047402156</t>
+  </si>
+  <si>
+    <t>21154.146268640503</t>
+  </si>
+  <si>
+    <t>21158.537387627937</t>
+  </si>
+  <si>
+    <t>21161.716074332548</t>
+  </si>
+  <si>
+    <t>21171.86370220609</t>
+  </si>
+  <si>
+    <t>21183.346495033325</t>
+  </si>
+  <si>
+    <t>21177.136428632166</t>
+  </si>
+  <si>
+    <t>21153.60121632272</t>
+  </si>
+  <si>
+    <t>21180.580987369878</t>
+  </si>
+  <si>
+    <t>21147.636647862095</t>
+  </si>
+  <si>
+    <t>21170.64077260925</t>
+  </si>
+  <si>
+    <t>21132.412643567597</t>
+  </si>
+  <si>
+    <t>21175.877917933445</t>
+  </si>
+  <si>
+    <t>21141.8513519833</t>
+  </si>
+  <si>
+    <t>21141.93987747022</t>
+  </si>
+  <si>
+    <t>21152.68308825644</t>
+  </si>
+  <si>
+    <t>21114.533023486703</t>
+  </si>
+  <si>
+    <t>21136.12703042017</t>
+  </si>
+  <si>
+    <t>21119.248753891123</t>
+  </si>
+  <si>
+    <t>21128.155868211765</t>
+  </si>
+  <si>
+    <t>21100.174456389643</t>
+  </si>
+  <si>
+    <t>21094.27416732779</t>
+  </si>
+  <si>
+    <t>21087.710595572367</t>
+  </si>
+  <si>
+    <t>21094.488040585726</t>
+  </si>
+  <si>
+    <t>21106.07062406761</t>
+  </si>
+  <si>
+    <t>21126.163780954612</t>
+  </si>
+  <si>
+    <t>21152.97230055644</t>
+  </si>
+  <si>
+    <t>21114.54125968862</t>
+  </si>
+  <si>
+    <t>21118.105298725506</t>
+  </si>
+  <si>
+    <t>21116.600338522563</t>
+  </si>
+  <si>
+    <t>21096.950777120106</t>
+  </si>
+  <si>
+    <t>21095.21713776561</t>
+  </si>
+  <si>
+    <t>21130.7145985804</t>
+  </si>
+  <si>
+    <t>21100.714050932187</t>
+  </si>
+  <si>
+    <t>21131.70322477157</t>
+  </si>
+  <si>
+    <t>21144.88484918782</t>
+  </si>
+  <si>
+    <t>21124.518332820684</t>
+  </si>
+  <si>
+    <t>21118.25035406279</t>
+  </si>
+  <si>
+    <t>21148.106504934276</t>
+  </si>
+  <si>
+    <t>21112.587656920212</t>
+  </si>
+  <si>
+    <t>21136.87092366136</t>
+  </si>
+  <si>
+    <t>21126.904092700795</t>
+  </si>
+  <si>
+    <t>21141.02287342979</t>
+  </si>
+  <si>
+    <t>21131.30273299678</t>
+  </si>
+  <si>
+    <t>21128.32513109423</t>
+  </si>
+  <si>
+    <t>21148.96043004164</t>
+  </si>
+  <si>
+    <t>21131.653080374643</t>
+  </si>
+  <si>
+    <t>21148.386251677497</t>
+  </si>
+  <si>
+    <t>21120.858816852076</t>
+  </si>
+  <si>
+    <t>21142.60842330595</t>
+  </si>
+  <si>
+    <t>21131.479125347418</t>
+  </si>
+  <si>
+    <t>21152.179363327643</t>
+  </si>
+  <si>
+    <t>21136.952916759783</t>
+  </si>
+  <si>
+    <t>21151.0313828028</t>
+  </si>
+  <si>
+    <t>21137.977709693638</t>
+  </si>
+  <si>
+    <t>21146.58410659306</t>
+  </si>
+  <si>
+    <t>21134.40693878427</t>
+  </si>
+  <si>
+    <t>21144.341598637</t>
+  </si>
+  <si>
+    <t>21142.131533613647</t>
+  </si>
+  <si>
+    <t>21151.303962553942</t>
+  </si>
+  <si>
+    <t>21145.842662220042</t>
+  </si>
+  <si>
+    <t>21148.496362229915</t>
+  </si>
+  <si>
+    <t>21114.53623676991</t>
+  </si>
+  <si>
+    <t>21094.37195142949</t>
+  </si>
+  <si>
+    <t>21100.213044129676</t>
+  </si>
+  <si>
+    <t>21104.888716081055</t>
+  </si>
+  <si>
+    <t>21117.767319058457</t>
+  </si>
+  <si>
+    <t>21098.320193064905</t>
+  </si>
+  <si>
+    <t>21118.661247035034</t>
+  </si>
+  <si>
+    <t>21104.192602981322</t>
+  </si>
+  <si>
+    <t>21100.19944954373</t>
+  </si>
+  <si>
+    <t>21083.2596226693</t>
+  </si>
+  <si>
+    <t>21084.98865238301</t>
+  </si>
+  <si>
+    <t>21080.36555681816</t>
+  </si>
+  <si>
+    <t>21076.76347558182</t>
+  </si>
+  <si>
+    <t>21064.609238057852</t>
+  </si>
+  <si>
+    <t>21062.90216471294</t>
+  </si>
+  <si>
+    <t>21072.093808711405</t>
+  </si>
+  <si>
+    <t>21080.746608186513</t>
+  </si>
+  <si>
+    <t>21068.41331569739</t>
+  </si>
+  <si>
+    <t>21076.85020558585</t>
+  </si>
+  <si>
+    <t>21042.863560116195</t>
+  </si>
+  <si>
+    <t>21059.87387625357</t>
+  </si>
+  <si>
+    <t>21050.467265493193</t>
+  </si>
+  <si>
+    <t>21052.695125509876</t>
+  </si>
+  <si>
+    <t>21041.469627100567</t>
+  </si>
+  <si>
+    <t>21045.671604539915</t>
+  </si>
+  <si>
+    <t>21025.56757935892</t>
+  </si>
+  <si>
+    <t>21055.330390121657</t>
+  </si>
+  <si>
+    <t>21053.55885206743</t>
+  </si>
+  <si>
+    <t>21070.181427483916</t>
+  </si>
+  <si>
+    <t>21042.71469631943</t>
+  </si>
+  <si>
+    <t>21069.399737083517</t>
+  </si>
+  <si>
+    <t>21052.138263317167</t>
+  </si>
+  <si>
+    <t>21060.991071664772</t>
+  </si>
+  <si>
+    <t>21042.08984309772</t>
+  </si>
+  <si>
+    <t>21082.57184890319</t>
+  </si>
+  <si>
+    <t>20994.89859722565</t>
+  </si>
+  <si>
+    <t>21095.59790449809</t>
+  </si>
+  <si>
+    <t>20983.85549088676</t>
+  </si>
+  <si>
+    <t>21121.44841763429</t>
+  </si>
+  <si>
+    <t>21169.80571715085</t>
+  </si>
+  <si>
+    <t>21120.986463354446</t>
+  </si>
+  <si>
+    <t>21156.478038201123</t>
+  </si>
+  <si>
+    <t>21122.518024766636</t>
+  </si>
+  <si>
+    <t>21135.326966324483</t>
+  </si>
+  <si>
+    <t>21223.631323324877</t>
+  </si>
+  <si>
+    <t>21127.088503282925</t>
+  </si>
+  <si>
+    <t>21216.791950282433</t>
+  </si>
+  <si>
+    <t>21195.82864401598</t>
+  </si>
+  <si>
+    <t>21226.19612063485</t>
+  </si>
+  <si>
+    <t>21230.29752140694</t>
+  </si>
+  <si>
+    <t>21218.568948730117</t>
+  </si>
+  <si>
+    <t>21120.102428200607</t>
+  </si>
+  <si>
+    <t>21180.763126782625</t>
+  </si>
+  <si>
+    <t>21172.361103795225</t>
+  </si>
+  <si>
+    <t>21167.004891813864</t>
+  </si>
+  <si>
+    <t>21175.36258394311</t>
+  </si>
+  <si>
+    <t>21186.63465652183</t>
+  </si>
+  <si>
+    <t>21181.34162442357</t>
+  </si>
+  <si>
+    <t>21211.356939255737</t>
+  </si>
+  <si>
+    <t>21170.10169138093</t>
+  </si>
+  <si>
+    <t>21199.909277462517</t>
+  </si>
+  <si>
+    <t>21150.971803605127</t>
+  </si>
+  <si>
+    <t>21171.60545651218</t>
+  </si>
+  <si>
+    <t>21138.94871023346</t>
+  </si>
+  <si>
+    <t>21200.801740763687</t>
+  </si>
+  <si>
+    <t>21168.42247056154</t>
+  </si>
+  <si>
+    <t>21201.85046380385</t>
+  </si>
+  <si>
+    <t>21155.11957461764</t>
+  </si>
+  <si>
+    <t>21190.729371290785</t>
+  </si>
+  <si>
+    <t>21175.941746786997</t>
+  </si>
+  <si>
+    <t>21179.91660080704</t>
+  </si>
+  <si>
+    <t>21182.051982297246</t>
+  </si>
+  <si>
+    <t>21168.221241876396</t>
+  </si>
+  <si>
+    <t>21193.466893398214</t>
+  </si>
+  <si>
+    <t>21161.332335595085</t>
+  </si>
+  <si>
+    <t>21168.320297239756</t>
+  </si>
+  <si>
+    <t>21153.32915493037</t>
+  </si>
+  <si>
+    <t>21167.060658590646</t>
+  </si>
+  <si>
+    <t>21152.25228577176</t>
+  </si>
+  <si>
+    <t>21183.8724414979</t>
+  </si>
+  <si>
+    <t>21125.395953401072</t>
+  </si>
+  <si>
+    <t>21212.321457010123</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44942.04513888889</v>
+        <v>44944.1875</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44942.04166666666</v>
+        <v>44944.18402777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44942.03819444445</v>
+        <v>44944.18055555555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44942.03472222222</v>
+        <v>44944.17708333334</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>44942.03125</v>
+        <v>44944.17361111111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>44942.02777777778</v>
+        <v>44944.17013888889</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>44942.02430555555</v>
+        <v>44944.16666666666</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>44942.02083333334</v>
+        <v>44944.16319444445</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>44942.01736111111</v>
+        <v>44944.15972222222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44942.01388888889</v>
+        <v>44944.15625</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44942.01041666666</v>
+        <v>44944.15277777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44942.00694444445</v>
+        <v>44944.14930555555</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44942.00347222222</v>
+        <v>44944.14583333334</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>44942</v>
+        <v>44944.14236111111</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>44941.99652777778</v>
+        <v>44944.13888888889</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>44941.99305555555</v>
+        <v>44944.13541666666</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>44941.98958333334</v>
+        <v>44944.13194444445</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>44941.98611111111</v>
+        <v>44944.12847222222</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>44941.98263888889</v>
+        <v>44944.125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>44941.97916666666</v>
+        <v>44944.12152777778</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>44941.97569444445</v>
+        <v>44944.11805555555</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>44941.97222222222</v>
+        <v>44944.11458333334</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>44941.96875</v>
+        <v>44944.11111111111</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>44941.96527777778</v>
+        <v>44944.10763888889</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>44941.96180555555</v>
+        <v>44944.10416666666</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>44941.95833333334</v>
+        <v>44944.10069444445</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>44941.95486111111</v>
+        <v>44944.09722222222</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>44941.95138888889</v>
+        <v>44944.09375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>44941.94791666666</v>
+        <v>44944.09027777778</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44941.94444444445</v>
+        <v>44944.08680555555</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>44941.94097222222</v>
+        <v>44944.08333333334</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>44941.9375</v>
+        <v>44944.07986111111</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>44941.93402777778</v>
+        <v>44944.07638888889</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>44941.93055555555</v>
+        <v>44944.07291666666</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>44941.92708333334</v>
+        <v>44944.06944444445</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>44941.92361111111</v>
+        <v>44944.06597222222</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>44941.92013888889</v>
+        <v>44944.0625</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2">
-        <v>44941.91666666666</v>
+        <v>44944.05902777778</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>44941.91319444445</v>
+        <v>44944.05555555555</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>44941.90972222222</v>
+        <v>44944.05208333334</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>44941.90625</v>
+        <v>44944.04861111111</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>44941.90277777778</v>
+        <v>44944.04513888889</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>44941.89930555555</v>
+        <v>44944.04166666666</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>44941.89583333334</v>
+        <v>44944.03819444445</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2">
-        <v>44941.89236111111</v>
+        <v>44944.03472222222</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2">
-        <v>44941.88888888889</v>
+        <v>44944.03125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="2">
-        <v>44941.88541666666</v>
+        <v>44944.02777777778</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="2">
-        <v>44941.88194444445</v>
+        <v>44944.02430555555</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2">
-        <v>44941.87847222222</v>
+        <v>44944.02083333334</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>44941.875</v>
+        <v>44944.01736111111</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="2">
-        <v>44941.87152777778</v>
+        <v>44944.01388888889</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2">
-        <v>44941.86805555555</v>
+        <v>44944.01041666666</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="2">
-        <v>44941.86458333334</v>
+        <v>44944.00694444445</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2">
-        <v>44941.86111111111</v>
+        <v>44944.00347222222</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2">
-        <v>44941.85763888889</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="2">
-        <v>44941.85416666666</v>
+        <v>44943.99652777778</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="2">
-        <v>44941.85069444445</v>
+        <v>44943.99305555555</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="2">
-        <v>44941.84722222222</v>
+        <v>44943.98958333334</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2">
-        <v>44941.84375</v>
+        <v>44943.98611111111</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="2">
-        <v>44941.84027777778</v>
+        <v>44943.98263888889</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="2">
-        <v>44941.83680555555</v>
+        <v>44943.97916666666</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="2">
-        <v>44941.83333333334</v>
+        <v>44943.97569444445</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="2">
-        <v>44941.82986111111</v>
+        <v>44943.97222222222</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="2">
-        <v>44941.82638888889</v>
+        <v>44943.96875</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="2">
-        <v>44941.82291666666</v>
+        <v>44943.96527777778</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="2">
-        <v>44941.81944444445</v>
+        <v>44943.96180555555</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="2">
-        <v>44941.81597222222</v>
+        <v>44943.95833333334</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="2">
-        <v>44941.8125</v>
+        <v>44943.95486111111</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="2">
-        <v>44941.80902777778</v>
+        <v>44943.95138888889</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="2">
-        <v>44941.80555555555</v>
+        <v>44943.94791666666</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="2">
-        <v>44941.80208333334</v>
+        <v>44943.94444444445</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>44941.79861111111</v>
+        <v>44943.94097222222</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2">
-        <v>44941.79513888889</v>
+        <v>44943.9375</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="2">
-        <v>44941.79166666666</v>
+        <v>44943.93402777778</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="2">
-        <v>44941.78819444445</v>
+        <v>44943.93055555555</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="2">
-        <v>44941.78472222222</v>
+        <v>44943.92708333334</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="2">
-        <v>44941.78125</v>
+        <v>44943.92361111111</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="2">
-        <v>44941.77777777778</v>
+        <v>44943.92013888889</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="2">
-        <v>44941.77430555555</v>
+        <v>44943.91666666666</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="2">
-        <v>44941.77083333334</v>
+        <v>44943.91319444445</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2">
-        <v>44941.76736111111</v>
+        <v>44943.90972222222</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="2">
-        <v>44941.76388888889</v>
+        <v>44943.90625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="2">
-        <v>44941.76041666666</v>
+        <v>44943.90277777778</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="2">
-        <v>44941.75694444445</v>
+        <v>44943.89930555555</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="2">
-        <v>44941.75347222222</v>
+        <v>44943.89583333334</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="2">
-        <v>44941.75</v>
+        <v>44943.89236111111</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="2">
-        <v>44941.74652777778</v>
+        <v>44943.88888888889</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="2">
-        <v>44941.74305555555</v>
+        <v>44943.88541666666</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="2">
-        <v>44941.73958333334</v>
+        <v>44943.88194444445</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="2">
-        <v>44941.73611111111</v>
+        <v>44943.87847222222</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>44941.73263888889</v>
+        <v>44943.875</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="2">
-        <v>44941.72916666666</v>
+        <v>44943.87152777778</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="2">
-        <v>44941.72569444445</v>
+        <v>44943.86805555555</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="2">
-        <v>44941.72222222222</v>
+        <v>44943.86458333334</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="2">
-        <v>44941.71875</v>
+        <v>44943.86111111111</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="2">
-        <v>44941.71527777778</v>
+        <v>44943.85763888889</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="2">
-        <v>44941.71180555555</v>
+        <v>44943.85416666666</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="2">
-        <v>44941.70833333334</v>
+        <v>44943.85069444445</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="2">
-        <v>44941.70486111111</v>
+        <v>44943.84722222222</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="2">
-        <v>44941.70138888889</v>
+        <v>44943.84375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="2">
-        <v>44941.69791666666</v>
+        <v>44943.84027777778</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="C103" s="2">
-        <v>44941.69444444445</v>
+        <v>44943.83680555555</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="2">
-        <v>44941.69097222222</v>
+        <v>44943.83333333334</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>44941.6875</v>
+        <v>44943.82986111111</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="2">
-        <v>44941.68402777778</v>
+        <v>44943.82638888889</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>44941.68055555555</v>
+        <v>44943.82291666666</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>44941.67708333334</v>
+        <v>44943.81944444445</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>109</v>
       </c>
       <c r="C109" s="2">
-        <v>44941.67361111111</v>
+        <v>44943.81597222222</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="2">
-        <v>44941.67013888889</v>
+        <v>44943.8125</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="2">
-        <v>44941.66666666666</v>
+        <v>44943.80902777778</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>112</v>
       </c>
       <c r="C112" s="2">
-        <v>44941.66319444445</v>
+        <v>44943.80555555555</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2">
-        <v>44941.65972222222</v>
+        <v>44943.80208333334</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2">
-        <v>44941.65625</v>
+        <v>44943.79861111111</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="2">
-        <v>44941.65277777778</v>
+        <v>44943.79513888889</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="2">
-        <v>44941.64930555555</v>
+        <v>44943.79166666666</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="2">
-        <v>44941.64583333334</v>
+        <v>44943.78819444445</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="C118" s="2">
-        <v>44941.64236111111</v>
+        <v>44943.78472222222</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="2">
-        <v>44941.63888888889</v>
+        <v>44943.78125</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="2">
-        <v>44941.63541666666</v>
+        <v>44943.77777777778</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="C121" s="2">
-        <v>44941.63194444445</v>
+        <v>44943.77430555555</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="C122" s="2">
-        <v>44941.62847222222</v>
+        <v>44943.77083333334</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="C123" s="2">
-        <v>44941.625</v>
+        <v>44943.76736111111</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>124</v>
       </c>
       <c r="C124" s="2">
-        <v>44941.62152777778</v>
+        <v>44943.76388888889</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>125</v>
       </c>
       <c r="C125" s="2">
-        <v>44941.61805555555</v>
+        <v>44943.76041666666</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="2">
-        <v>44941.61458333334</v>
+        <v>44943.75694444445</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="C127" s="2">
-        <v>44941.61111111111</v>
+        <v>44943.75347222222</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>128</v>
       </c>
       <c r="C128" s="2">
-        <v>44941.60763888889</v>
+        <v>44943.75</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>44941.60416666666</v>
+        <v>44943.74652777778</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>44941.60069444445</v>
+        <v>44943.74305555555</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="C131" s="2">
-        <v>44941.59722222222</v>
+        <v>44943.73958333334</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="2">
-        <v>44941.59375</v>
+        <v>44943.73611111111</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>133</v>
       </c>
       <c r="C133" s="2">
-        <v>44941.59027777778</v>
+        <v>44943.73263888889</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>134</v>
       </c>
       <c r="C134" s="2">
-        <v>44941.58680555555</v>
+        <v>44943.72916666666</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="2">
-        <v>44941.58333333334</v>
+        <v>44943.72569444445</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="2">
-        <v>44941.57986111111</v>
+        <v>44943.72222222222</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>137</v>
       </c>
       <c r="C137" s="2">
-        <v>44941.57638888889</v>
+        <v>44943.71875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>44941.57291666666</v>
+        <v>44943.71527777778</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>44941.56944444445</v>
+        <v>44943.71180555555</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>44941.56597222222</v>
+        <v>44943.70833333334</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>44941.5625</v>
+        <v>44943.70486111111</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>44941.55902777778</v>
+        <v>44943.70138888889</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>44941.55555555555</v>
+        <v>44943.69791666666</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>44941.55208333334</v>
+        <v>44943.69444444445</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>44941.54861111111</v>
+        <v>44943.69097222222</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>44941.54513888889</v>
+        <v>44943.6875</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>44941.54166666666</v>
+        <v>44943.68402777778</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="2">
-        <v>44941.53819444445</v>
+        <v>44943.68055555555</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>44941.53472222222</v>
+        <v>44943.67708333334</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="C150" s="2">
-        <v>44941.53125</v>
+        <v>44943.67361111111</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="C151" s="2">
-        <v>44941.52777777778</v>
+        <v>44943.67013888889</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>44941.52430555555</v>
+        <v>44943.66666666666</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>153</v>
       </c>
       <c r="C153" s="2">
-        <v>44941.52083333334</v>
+        <v>44943.66319444445</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>44941.51736111111</v>
+        <v>44943.65972222222</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>44941.51388888889</v>
+        <v>44943.65625</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>156</v>
       </c>
       <c r="C156" s="2">
-        <v>44941.51041666666</v>
+        <v>44943.65277777778</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>157</v>
       </c>
       <c r="C157" s="2">
-        <v>44941.50694444445</v>
+        <v>44943.64930555555</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>44941.50347222222</v>
+        <v>44943.64583333334</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>159</v>
       </c>
       <c r="C159" s="2">
-        <v>44941.5</v>
+        <v>44943.64236111111</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>160</v>
       </c>
       <c r="C160" s="2">
-        <v>44941.49652777778</v>
+        <v>44943.63888888889</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C161" s="2">
-        <v>44941.49305555555</v>
+        <v>44943.63541666666</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>162</v>
       </c>
       <c r="C162" s="2">
-        <v>44941.48958333334</v>
+        <v>44943.63194444445</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="2">
-        <v>44941.48611111111</v>
+        <v>44943.62847222222</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="C164" s="2">
-        <v>44941.48263888889</v>
+        <v>44943.625</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="2">
-        <v>44941.47916666666</v>
+        <v>44943.62152777778</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="C166" s="2">
-        <v>44941.47569444445</v>
+        <v>44943.61805555555</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>167</v>
       </c>
       <c r="C167" s="2">
-        <v>44941.47222222222</v>
+        <v>44943.61458333334</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>168</v>
       </c>
       <c r="C168" s="2">
-        <v>44941.46875</v>
+        <v>44943.61111111111</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>169</v>
       </c>
       <c r="C169" s="2">
-        <v>44941.46527777778</v>
+        <v>44943.60763888889</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="C170" s="2">
-        <v>44941.46180555555</v>
+        <v>44943.60416666666</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>44941.45833333334</v>
+        <v>44943.60069444445</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="2">
-        <v>44941.45486111111</v>
+        <v>44943.59722222222</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>173</v>
       </c>
       <c r="C173" s="2">
-        <v>44941.45138888889</v>
+        <v>44943.59375</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>174</v>
       </c>
       <c r="C174" s="2">
-        <v>44941.44791666666</v>
+        <v>44943.59027777778</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2">
-        <v>44941.44444444445</v>
+        <v>44943.58680555555</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="2">
-        <v>44941.44097222222</v>
+        <v>44943.58333333334</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>44941.4375</v>
+        <v>44943.57986111111</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="2">
-        <v>44941.43402777778</v>
+        <v>44943.57638888889</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>179</v>
       </c>
       <c r="C179" s="2">
-        <v>44941.43055555555</v>
+        <v>44943.57291666666</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="C180" s="2">
-        <v>44941.42708333334</v>
+        <v>44943.56944444445</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="C181" s="2">
-        <v>44941.42361111111</v>
+        <v>44943.56597222222</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="C182" s="2">
-        <v>44941.42013888889</v>
+        <v>44943.5625</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>183</v>
       </c>
       <c r="C183" s="2">
-        <v>44941.41666666666</v>
+        <v>44943.55902777778</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C184" s="2">
-        <v>44941.41319444445</v>
+        <v>44943.55555555555</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
       <c r="C185" s="2">
-        <v>44941.40972222222</v>
+        <v>44943.55208333334</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>186</v>
       </c>
       <c r="C186" s="2">
-        <v>44941.40625</v>
+        <v>44943.54861111111</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>187</v>
       </c>
       <c r="C187" s="2">
-        <v>44941.40277777778</v>
+        <v>44943.54513888889</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>188</v>
       </c>
       <c r="C188" s="2">
-        <v>44941.39930555555</v>
+        <v>44943.54166666666</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2">
-        <v>44941.39583333334</v>
+        <v>44943.53819444445</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>190</v>
       </c>
       <c r="C190" s="2">
-        <v>44941.39236111111</v>
+        <v>44943.53472222222</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>191</v>
       </c>
       <c r="C191" s="2">
-        <v>44941.38888888889</v>
+        <v>44943.53125</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="C192" s="2">
-        <v>44941.38541666666</v>
+        <v>44943.52777777778</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>193</v>
       </c>
       <c r="C193" s="2">
-        <v>44941.38194444445</v>
+        <v>44943.52430555555</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>194</v>
       </c>
       <c r="C194" s="2">
-        <v>44941.37847222222</v>
+        <v>44943.52083333334</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="C195" s="2">
-        <v>44941.375</v>
+        <v>44943.51736111111</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>196</v>
       </c>
       <c r="C196" s="2">
-        <v>44941.37152777778</v>
+        <v>44943.51388888889</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>197</v>
       </c>
       <c r="C197" s="2">
-        <v>44941.36805555555</v>
+        <v>44943.51041666666</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>198</v>
       </c>
       <c r="C198" s="2">
-        <v>44941.36458333334</v>
+        <v>44943.50694444445</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="2">
-        <v>44941.36111111111</v>
+        <v>44943.50347222222</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="C200" s="2">
-        <v>44941.35763888889</v>
+        <v>44943.5</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="C201" s="2">
-        <v>44941.35416666666</v>
+        <v>44943.49652777778</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="2">
-        <v>44941.35069444445</v>
+        <v>44943.49305555555</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="2">
-        <v>44941.34722222222</v>
+        <v>44943.48958333334</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>204</v>
       </c>
       <c r="C204" s="2">
-        <v>44941.34375</v>
+        <v>44943.48611111111</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="C205" s="2">
-        <v>44941.34027777778</v>
+        <v>44943.48263888889</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>206</v>
       </c>
       <c r="C206" s="2">
-        <v>44941.33680555555</v>
+        <v>44943.47916666666</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>207</v>
       </c>
       <c r="C207" s="2">
-        <v>44941.33333333334</v>
+        <v>44943.47569444445</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>208</v>
       </c>
       <c r="C208" s="2">
-        <v>44941.32986111111</v>
+        <v>44943.47222222222</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>209</v>
       </c>
       <c r="C209" s="2">
-        <v>44941.32638888889</v>
+        <v>44943.46875</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>210</v>
       </c>
       <c r="C210" s="2">
-        <v>44941.32291666666</v>
+        <v>44943.46527777778</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>44941.31944444445</v>
+        <v>44943.46180555555</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>212</v>
       </c>
       <c r="C212" s="2">
-        <v>44941.31597222222</v>
+        <v>44943.45833333334</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>213</v>
       </c>
       <c r="C213" s="2">
-        <v>44941.3125</v>
+        <v>44943.45486111111</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="2">
-        <v>44941.30902777778</v>
+        <v>44943.45138888889</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="2">
-        <v>44941.30555555555</v>
+        <v>44943.44791666666</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="2">
-        <v>44941.30208333334</v>
+        <v>44943.44444444445</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="2">
-        <v>44941.29861111111</v>
+        <v>44943.44097222222</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="2">
-        <v>44941.29513888889</v>
+        <v>44943.4375</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="2">
-        <v>44941.29166666666</v>
+        <v>44943.43402777778</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="2">
-        <v>44941.28819444445</v>
+        <v>44943.43055555555</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2">
-        <v>44941.28472222222</v>
+        <v>44943.42708333334</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2">
-        <v>44941.28125</v>
+        <v>44943.42361111111</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2">
-        <v>44941.27777777778</v>
+        <v>44943.42013888889</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2">
-        <v>44941.27430555555</v>
+        <v>44943.41666666666</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2">
-        <v>44941.27083333334</v>
+        <v>44943.41319444445</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>226</v>
       </c>
       <c r="C226" s="2">
-        <v>44941.26736111111</v>
+        <v>44943.40972222222</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="C227" s="2">
-        <v>44941.26388888889</v>
+        <v>44943.40625</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="C228" s="2">
-        <v>44941.26041666666</v>
+        <v>44943.40277777778</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>229</v>
       </c>
       <c r="C229" s="2">
-        <v>44941.25694444445</v>
+        <v>44943.39930555555</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="2">
-        <v>44941.25347222222</v>
+        <v>44943.39583333334</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>231</v>
       </c>
       <c r="C231" s="2">
-        <v>44941.25</v>
+        <v>44943.39236111111</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>232</v>
       </c>
       <c r="C232" s="2">
-        <v>44941.24652777778</v>
+        <v>44943.38888888889</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>233</v>
       </c>
       <c r="C233" s="2">
-        <v>44941.24305555555</v>
+        <v>44943.38541666666</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C234" s="2">
-        <v>44941.23958333334</v>
+        <v>44943.38194444445</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>235</v>
       </c>
       <c r="C235" s="2">
-        <v>44941.23611111111</v>
+        <v>44943.37847222222</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="2">
-        <v>44941.23263888889</v>
+        <v>44943.375</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>237</v>
       </c>
       <c r="C237" s="2">
-        <v>44941.22916666666</v>
+        <v>44943.37152777778</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>238</v>
       </c>
       <c r="C238" s="2">
-        <v>44941.22569444445</v>
+        <v>44943.36805555555</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>239</v>
       </c>
       <c r="C239" s="2">
-        <v>44941.22222222222</v>
+        <v>44943.36458333334</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>240</v>
       </c>
       <c r="C240" s="2">
-        <v>44941.21875</v>
+        <v>44943.36111111111</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>241</v>
       </c>
       <c r="C241" s="2">
-        <v>44941.21527777778</v>
+        <v>44943.35763888889</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="C242" s="2">
-        <v>44941.21180555555</v>
+        <v>44943.35416666666</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="C243" s="2">
-        <v>44941.20833333334</v>
+        <v>44943.35069444445</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>244</v>
       </c>
       <c r="C244" s="2">
-        <v>44941.20486111111</v>
+        <v>44943.34722222222</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>245</v>
       </c>
       <c r="C245" s="2">
-        <v>44941.20138888889</v>
+        <v>44943.34375</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>246</v>
       </c>
       <c r="C246" s="2">
-        <v>44941.19791666666</v>
+        <v>44943.34027777778</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="2">
-        <v>44941.19444444445</v>
+        <v>44943.33680555555</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>44941.19097222222</v>
+        <v>44943.33333333334</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="2">
-        <v>44941.1875</v>
+        <v>44943.32986111111</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>250</v>
       </c>
       <c r="C250" s="2">
-        <v>44941.18402777778</v>
+        <v>44943.32638888889</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="2">
-        <v>44941.18055555555</v>
+        <v>44943.32291666666</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>252</v>
       </c>
       <c r="C252" s="2">
-        <v>44941.17708333334</v>
+        <v>44943.31944444445</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>253</v>
       </c>
       <c r="C253" s="2">
-        <v>44941.17361111111</v>
+        <v>44943.31597222222</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="2">
-        <v>44941.17013888889</v>
+        <v>44943.3125</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="2">
-        <v>44941.16666666666</v>
+        <v>44943.30902777778</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="2">
-        <v>44941.16319444445</v>
+        <v>44943.30555555555</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="2">
-        <v>44941.15972222222</v>
+        <v>44943.30208333334</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>258</v>
       </c>
       <c r="C258" s="2">
-        <v>44941.15625</v>
+        <v>44943.29861111111</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="2">
-        <v>44941.15277777778</v>
+        <v>44943.29513888889</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>260</v>
       </c>
       <c r="C260" s="2">
-        <v>44941.14930555555</v>
+        <v>44943.29166666666</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="2">
-        <v>44941.14583333334</v>
+        <v>44943.28819444445</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="2">
-        <v>44941.14236111111</v>
+        <v>44943.28472222222</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="2">
-        <v>44941.13888888889</v>
+        <v>44943.28125</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="2">
-        <v>44941.13541666666</v>
+        <v>44943.27777777778</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="2">
-        <v>44941.13194444445</v>
+        <v>44943.27430555555</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="2">
-        <v>44941.12847222222</v>
+        <v>44943.27083333334</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
       <c r="C267" s="2">
-        <v>44941.125</v>
+        <v>44943.26736111111</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="2">
-        <v>44941.12152777778</v>
+        <v>44943.26388888889</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="2">
-        <v>44941.11805555555</v>
+        <v>44943.26041666666</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="2">
-        <v>44941.11458333334</v>
+        <v>44943.25694444445</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>271</v>
       </c>
       <c r="C271" s="2">
-        <v>44941.11111111111</v>
+        <v>44943.25347222222</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>272</v>
       </c>
       <c r="C272" s="2">
-        <v>44941.10763888889</v>
+        <v>44943.25</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>273</v>
       </c>
       <c r="C273" s="2">
-        <v>44941.10416666666</v>
+        <v>44943.24652777778</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>274</v>
       </c>
       <c r="C274" s="2">
-        <v>44941.10069444445</v>
+        <v>44943.24305555555</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>275</v>
       </c>
       <c r="C275" s="2">
-        <v>44941.09722222222</v>
+        <v>44943.23958333334</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>276</v>
       </c>
       <c r="C276" s="2">
-        <v>44941.09375</v>
+        <v>44943.23611111111</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>277</v>
       </c>
       <c r="C277" s="2">
-        <v>44941.09027777778</v>
+        <v>44943.23263888889</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="2">
-        <v>44941.08680555555</v>
+        <v>44943.22916666666</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="2">
-        <v>44941.08333333334</v>
+        <v>44943.22569444445</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>280</v>
       </c>
       <c r="C280" s="2">
-        <v>44941.07986111111</v>
+        <v>44943.22222222222</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="2">
-        <v>44941.07638888889</v>
+        <v>44943.21875</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="2">
-        <v>44941.07291666666</v>
+        <v>44943.21527777778</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="2">
-        <v>44941.06944444445</v>
+        <v>44943.21180555555</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="2">
-        <v>44941.06597222222</v>
+        <v>44943.20833333334</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="2">
-        <v>44941.0625</v>
+        <v>44943.20486111111</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="2">
-        <v>44941.05902777778</v>
+        <v>44943.20138888889</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="2">
-        <v>44941.05555555555</v>
+        <v>44943.19791666666</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="2">
-        <v>44941.05208333334</v>
+        <v>44943.19444444445</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="2">
-        <v>44941.04861111111</v>
+        <v>44943.19097222222</v>
       </c>
     </row>
   </sheetData>
